--- a/data_input/analytics/OLAP MultiBOM.xlsx
+++ b/data_input/analytics/OLAP MultiBOM.xlsx
@@ -1181,7 +1181,7 @@
     <xf numFmtId="0" fontId="20" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="100">
+  <cellXfs count="101">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="2"/>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="2" applyAlignment="1">
@@ -1467,6 +1467,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -1780,7 +1783,7 @@
   <dimension ref="A1:M73"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="J82" sqref="J82"/>
+      <selection activeCell="A12" sqref="A12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.54296875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1840,7 +1843,7 @@
       <c r="I4" s="8"/>
       <c r="J4" s="8"/>
     </row>
-    <row r="5" spans="1:12" s="2" customFormat="1" ht="44" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:12" s="2" customFormat="1" ht="43" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A5" s="74"/>
       <c r="B5" s="19" t="s">
         <v>12</v>
@@ -1937,7 +1940,9 @@
       </c>
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A8" s="70"/>
+      <c r="A8" s="70">
+        <v>1</v>
+      </c>
       <c r="B8" s="13" t="s">
         <v>0</v>
       </c>
@@ -2053,7 +2058,9 @@
       </c>
     </row>
     <row r="12" spans="1:12" ht="29" x14ac:dyDescent="0.35">
-      <c r="A12" s="72"/>
+      <c r="A12" s="72">
+        <v>1</v>
+      </c>
       <c r="B12" s="54" t="s">
         <v>166</v>
       </c>
@@ -2303,7 +2310,9 @@
       </c>
     </row>
     <row r="20" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A20" s="70"/>
+      <c r="A20" s="70">
+        <v>1</v>
+      </c>
       <c r="B20" s="13" t="s">
         <v>18</v>
       </c>
@@ -2335,7 +2344,9 @@
       </c>
     </row>
     <row r="21" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A21" s="72"/>
+      <c r="A21" s="72">
+        <v>1</v>
+      </c>
       <c r="B21" s="13" t="s">
         <v>4</v>
       </c>
@@ -2367,7 +2378,9 @@
       </c>
     </row>
     <row r="22" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A22" s="70"/>
+      <c r="A22" s="70">
+        <v>1</v>
+      </c>
       <c r="B22" s="13" t="s">
         <v>15</v>
       </c>
@@ -2399,7 +2412,9 @@
       </c>
     </row>
     <row r="23" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A23" s="70"/>
+      <c r="A23" s="70">
+        <v>1</v>
+      </c>
       <c r="B23" s="13" t="s">
         <v>93</v>
       </c>
@@ -2461,7 +2476,9 @@
       </c>
     </row>
     <row r="25" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A25" s="70"/>
+      <c r="A25" s="70">
+        <v>1</v>
+      </c>
       <c r="B25" s="14" t="s">
         <v>23</v>
       </c>
@@ -2487,7 +2504,9 @@
       </c>
     </row>
     <row r="26" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A26" s="70"/>
+      <c r="A26" s="70">
+        <v>1</v>
+      </c>
       <c r="B26" s="34" t="s">
         <v>115</v>
       </c>
@@ -2521,7 +2540,9 @@
       </c>
     </row>
     <row r="27" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A27" s="70"/>
+      <c r="A27" s="70">
+        <v>1</v>
+      </c>
       <c r="B27" s="34" t="s">
         <v>116</v>
       </c>
@@ -2562,7 +2583,7 @@
       <c r="C28" s="88" t="s">
         <v>208</v>
       </c>
-      <c r="D28" s="9" t="s">
+      <c r="D28" s="100" t="s">
         <v>22</v>
       </c>
       <c r="E28" s="9" t="s">
@@ -2589,7 +2610,9 @@
       </c>
     </row>
     <row r="29" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A29" s="70"/>
+      <c r="A29" s="70">
+        <v>1</v>
+      </c>
       <c r="B29" s="34" t="s">
         <v>118</v>
       </c>
@@ -2623,7 +2646,9 @@
       </c>
     </row>
     <row r="30" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A30" s="70"/>
+      <c r="A30" s="70">
+        <v>1</v>
+      </c>
       <c r="B30" s="34" t="s">
         <v>119</v>
       </c>
@@ -2746,7 +2771,9 @@
       </c>
     </row>
     <row r="34" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A34" s="70"/>
+      <c r="A34" s="70">
+        <v>1</v>
+      </c>
       <c r="B34" s="13" t="s">
         <v>91</v>
       </c>
@@ -2778,7 +2805,9 @@
       </c>
     </row>
     <row r="35" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A35" s="70"/>
+      <c r="A35" s="70">
+        <v>1</v>
+      </c>
       <c r="B35" s="14" t="s">
         <v>25</v>
       </c>
@@ -2806,7 +2835,9 @@
       </c>
     </row>
     <row r="36" spans="1:12" ht="29" x14ac:dyDescent="0.35">
-      <c r="A36" s="70"/>
+      <c r="A36" s="70">
+        <v>1</v>
+      </c>
       <c r="B36" s="13" t="s">
         <v>134</v>
       </c>

--- a/data_input/analytics/OLAP MultiBOM.xlsx
+++ b/data_input/analytics/OLAP MultiBOM.xlsx
@@ -12,7 +12,7 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'OLAP MultiBOM'!$A$5:$L$73</definedName>
   </definedNames>
-  <calcPr calcId="152511" refMode="R1C1"/>
+  <calcPr calcId="152511"/>
 </workbook>
 </file>
 
@@ -667,9 +667,6 @@
     <t>Основная связка Multi BOM. На загрузке преобразовать в число без "RA-", но с сохранением нулей в начале номеров.</t>
   </si>
   <si>
-    <t>Только для определения status в FS на зуагрузке</t>
-  </si>
-  <si>
     <r>
       <t xml:space="preserve">Дней, </t>
     </r>
@@ -854,6 +851,22 @@
   <si>
     <t>target_date</t>
   </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Только для определения status в FS на загрузке. </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Ручная коррекция до двух статусов вместо 17.</t>
+    </r>
+  </si>
 </sst>
 </file>
 
@@ -862,12 +875,20 @@
   <numFmts count="1">
     <numFmt numFmtId="41" formatCode="_-* #,##0\ _₽_-;\-* #,##0\ _₽_-;_-* &quot;-&quot;\ _₽_-;_-@_-"/>
   </numFmts>
-  <fonts count="29" x14ac:knownFonts="1">
+  <fonts count="30" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1178,285 +1199,288 @@
   </borders>
   <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="101">
+  <cellXfs count="102">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="2"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="2" applyAlignment="1">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="2"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="2" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="2" applyAlignment="1">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="2" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="2" applyFont="1"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="2" applyAlignment="1">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="2" applyFont="1"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="2" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="1" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="4" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="4" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="4" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="3" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="1" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="19" fillId="0" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="17" fillId="0" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="1" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="25" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="2" applyFont="1"/>
     <xf numFmtId="0" fontId="25" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="1" xfId="2" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="26" fillId="0" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="1" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="9" fillId="0" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="4" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="8" fillId="0" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="26" fillId="0" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="4" xfId="2" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="4" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="4" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="41" fontId="7" fillId="0" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="3" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="4" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="1" xfId="2" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="41" fontId="18" fillId="0" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="41" fontId="16" fillId="0" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="3" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="4" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="1" xfId="2" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="2" applyFont="1"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="25" fillId="0" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="1" xfId="2" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="8" fillId="0" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="4" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="24" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="7" fillId="0" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="25" fillId="0" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="6" fillId="0" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="4" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="3" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="4" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
@@ -1783,7 +1807,7 @@
   <dimension ref="A1:M73"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="A12" sqref="A12"/>
+      <selection activeCell="J99" sqref="J99"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.54296875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1821,19 +1845,19 @@
     </row>
     <row r="3" spans="1:12" ht="21" x14ac:dyDescent="0.35">
       <c r="A3" s="4"/>
-      <c r="B3" s="93" t="s">
+      <c r="B3" s="94" t="s">
         <v>174</v>
       </c>
-      <c r="C3" s="93"/>
-      <c r="D3" s="93"/>
-      <c r="E3" s="93"/>
-      <c r="F3" s="93"/>
-      <c r="G3" s="93"/>
-      <c r="H3" s="93"/>
-      <c r="I3" s="93"/>
-      <c r="J3" s="93"/>
-      <c r="K3" s="93"/>
-      <c r="L3" s="93"/>
+      <c r="C3" s="94"/>
+      <c r="D3" s="94"/>
+      <c r="E3" s="94"/>
+      <c r="F3" s="94"/>
+      <c r="G3" s="94"/>
+      <c r="H3" s="94"/>
+      <c r="I3" s="94"/>
+      <c r="J3" s="94"/>
+      <c r="K3" s="94"/>
+      <c r="L3" s="94"/>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A4" s="5"/>
@@ -1849,7 +1873,7 @@
         <v>12</v>
       </c>
       <c r="C5" s="86" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="D5" s="19" t="s">
         <v>43</v>
@@ -1861,19 +1885,19 @@
         <v>151</v>
       </c>
       <c r="G5" s="19" t="s">
+        <v>197</v>
+      </c>
+      <c r="H5" s="19" t="s">
+        <v>213</v>
+      </c>
+      <c r="I5" s="19" t="s">
+        <v>214</v>
+      </c>
+      <c r="J5" s="19" t="s">
+        <v>215</v>
+      </c>
+      <c r="K5" s="19" t="s">
         <v>198</v>
-      </c>
-      <c r="H5" s="19" t="s">
-        <v>214</v>
-      </c>
-      <c r="I5" s="19" t="s">
-        <v>215</v>
-      </c>
-      <c r="J5" s="19" t="s">
-        <v>216</v>
-      </c>
-      <c r="K5" s="19" t="s">
-        <v>199</v>
       </c>
       <c r="L5" s="19" t="s">
         <v>3</v>
@@ -1889,7 +1913,7 @@
         <v>47</v>
       </c>
       <c r="E6" s="52" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="F6" s="52"/>
       <c r="G6" s="52" t="s">
@@ -1951,7 +1975,7 @@
         <v>1</v>
       </c>
       <c r="E8" s="52" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="F8" s="40" t="s">
         <v>104</v>
@@ -1985,19 +2009,19 @@
         <v>146</v>
       </c>
       <c r="E9" s="40" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="F9" s="40" t="s">
         <v>105</v>
       </c>
       <c r="G9" s="35"/>
-      <c r="H9" s="94" t="s">
+      <c r="H9" s="95" t="s">
         <v>67</v>
       </c>
-      <c r="I9" s="94" t="s">
+      <c r="I9" s="95" t="s">
         <v>86</v>
       </c>
-      <c r="J9" s="97"/>
+      <c r="J9" s="98"/>
       <c r="K9" s="40" t="s">
         <v>153</v>
       </c>
@@ -2015,20 +2039,20 @@
         <v>150</v>
       </c>
       <c r="E10" s="40" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="F10" s="40" t="s">
         <v>105</v>
       </c>
       <c r="G10" s="35"/>
-      <c r="H10" s="95"/>
-      <c r="I10" s="95"/>
-      <c r="J10" s="98"/>
+      <c r="H10" s="96"/>
+      <c r="I10" s="96"/>
+      <c r="J10" s="99"/>
       <c r="K10" s="40" t="s">
         <v>154</v>
       </c>
       <c r="L10" s="80" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
     </row>
     <row r="11" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
@@ -2041,20 +2065,20 @@
         <v>126</v>
       </c>
       <c r="E11" s="40" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="F11" s="40" t="s">
         <v>105</v>
       </c>
       <c r="G11" s="35"/>
-      <c r="H11" s="95"/>
-      <c r="I11" s="95"/>
-      <c r="J11" s="98"/>
+      <c r="H11" s="96"/>
+      <c r="I11" s="96"/>
+      <c r="J11" s="99"/>
       <c r="K11" s="40" t="s">
         <v>153</v>
       </c>
       <c r="L11" s="81" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
     </row>
     <row r="12" spans="1:12" ht="29" x14ac:dyDescent="0.35">
@@ -2069,20 +2093,20 @@
         <v>167</v>
       </c>
       <c r="E12" s="78" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="F12" s="41"/>
       <c r="G12" s="41" t="s">
         <v>105</v>
       </c>
-      <c r="H12" s="96"/>
-      <c r="I12" s="96"/>
-      <c r="J12" s="99"/>
+      <c r="H12" s="97"/>
+      <c r="I12" s="97"/>
+      <c r="J12" s="100"/>
       <c r="K12" s="62" t="s">
         <v>153</v>
       </c>
       <c r="L12" s="79" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
     </row>
     <row r="13" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
@@ -2095,7 +2119,7 @@
         <v>125</v>
       </c>
       <c r="E13" s="40" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="F13" s="57" t="s">
         <v>105</v>
@@ -2114,7 +2138,7 @@
         <v>256</v>
       </c>
       <c r="L13" s="82" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
     </row>
     <row r="14" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
@@ -2127,7 +2151,7 @@
         <v>132</v>
       </c>
       <c r="E14" s="40" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="F14" s="68" t="s">
         <v>148</v>
@@ -2155,13 +2179,13 @@
         <v>106</v>
       </c>
       <c r="C15" s="88" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="D15" s="9" t="s">
         <v>127</v>
       </c>
       <c r="E15" s="40" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="F15" s="53" t="s">
         <v>105</v>
@@ -2187,13 +2211,13 @@
         <v>107</v>
       </c>
       <c r="C16" s="88" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="D16" s="9" t="s">
         <v>128</v>
       </c>
       <c r="E16" s="40" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="F16" s="53" t="s">
         <v>105</v>
@@ -2219,13 +2243,13 @@
         <v>108</v>
       </c>
       <c r="C17" s="88" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="D17" s="9" t="s">
         <v>129</v>
       </c>
       <c r="E17" s="40" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="F17" s="53" t="s">
         <v>105</v>
@@ -2251,13 +2275,13 @@
         <v>109</v>
       </c>
       <c r="C18" s="88" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="D18" s="9" t="s">
         <v>130</v>
       </c>
       <c r="E18" s="40" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="F18" s="53" t="s">
         <v>105</v>
@@ -2283,13 +2307,13 @@
         <v>110</v>
       </c>
       <c r="C19" s="88" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="D19" s="9" t="s">
         <v>131</v>
       </c>
       <c r="E19" s="40" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="F19" s="53" t="s">
         <v>105</v>
@@ -2321,7 +2345,7 @@
         <v>19</v>
       </c>
       <c r="E20" s="9" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="F20" s="35"/>
       <c r="G20" s="7" t="s">
@@ -2355,7 +2379,7 @@
         <v>17</v>
       </c>
       <c r="E21" s="59" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="F21" s="59"/>
       <c r="G21" s="59" t="s">
@@ -2374,7 +2398,7 @@
         <v>152</v>
       </c>
       <c r="L21" s="81" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
     </row>
     <row r="22" spans="1:13" x14ac:dyDescent="0.35">
@@ -2389,7 +2413,7 @@
         <v>16</v>
       </c>
       <c r="E22" s="9" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="F22" s="35"/>
       <c r="G22" s="49" t="s">
@@ -2423,7 +2447,7 @@
         <v>94</v>
       </c>
       <c r="E23" s="12" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="F23" s="55"/>
       <c r="G23" s="50" t="s">
@@ -2487,7 +2511,7 @@
         <v>24</v>
       </c>
       <c r="E25" s="9" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="F25" s="35"/>
       <c r="G25" s="7" t="s">
@@ -2499,8 +2523,8 @@
       <c r="K25" s="40">
         <v>2</v>
       </c>
-      <c r="L25" s="75" t="s">
-        <v>189</v>
+      <c r="L25" s="101" t="s">
+        <v>218</v>
       </c>
     </row>
     <row r="26" spans="1:13" x14ac:dyDescent="0.35">
@@ -2511,13 +2535,13 @@
         <v>115</v>
       </c>
       <c r="C26" s="88" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="D26" s="9" t="s">
         <v>8</v>
       </c>
       <c r="E26" s="9" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="F26" s="35"/>
       <c r="G26" s="7" t="s">
@@ -2547,13 +2571,13 @@
         <v>116</v>
       </c>
       <c r="C27" s="88" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="D27" s="9" t="s">
         <v>7</v>
       </c>
       <c r="E27" s="9" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="F27" s="35"/>
       <c r="G27" s="7" t="s">
@@ -2581,13 +2605,13 @@
         <v>117</v>
       </c>
       <c r="C28" s="88" t="s">
-        <v>208</v>
-      </c>
-      <c r="D28" s="100" t="s">
+        <v>207</v>
+      </c>
+      <c r="D28" s="93" t="s">
         <v>22</v>
       </c>
       <c r="E28" s="9" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="F28" s="35"/>
       <c r="G28" s="7" t="s">
@@ -2617,13 +2641,13 @@
         <v>118</v>
       </c>
       <c r="C29" s="88" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="D29" s="9" t="s">
         <v>9</v>
       </c>
       <c r="E29" s="9" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="F29" s="35"/>
       <c r="G29" s="7" t="s">
@@ -2653,13 +2677,13 @@
         <v>119</v>
       </c>
       <c r="C30" s="88" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="D30" s="9" t="s">
         <v>10</v>
       </c>
       <c r="E30" s="9" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="F30" s="35"/>
       <c r="G30" s="7" t="s">
@@ -2687,7 +2711,7 @@
         <v>120</v>
       </c>
       <c r="C31" s="88" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="D31" s="7" t="s">
         <v>38</v>
@@ -2724,7 +2748,7 @@
         <v>123</v>
       </c>
       <c r="E32" s="40" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="F32" s="7" t="s">
         <v>105</v>
@@ -2752,7 +2776,7 @@
         <v>124</v>
       </c>
       <c r="E33" s="40" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="F33" s="7" t="s">
         <v>105</v>
@@ -2782,7 +2806,7 @@
         <v>92</v>
       </c>
       <c r="E34" s="9" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="F34" s="35"/>
       <c r="G34" s="7" t="s">
@@ -2816,7 +2840,7 @@
         <v>26</v>
       </c>
       <c r="E35" s="9" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="F35" s="35"/>
       <c r="G35" s="7" t="s">
@@ -2843,10 +2867,10 @@
       </c>
       <c r="C36" s="88"/>
       <c r="D36" s="7" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="E36" s="7" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="F36" s="7"/>
       <c r="G36" s="7" t="s">
@@ -2861,7 +2885,7 @@
         <v>65536</v>
       </c>
       <c r="L36" s="6" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
     </row>
     <row r="37" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
@@ -2870,7 +2894,7 @@
         <v>28</v>
       </c>
       <c r="C37" s="88" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="D37" s="75" t="s">
         <v>11</v>
@@ -2900,13 +2924,13 @@
         <v>29</v>
       </c>
       <c r="C38" s="88" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="D38" s="7" t="s">
         <v>30</v>
       </c>
       <c r="E38" s="40" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="F38" s="7" t="s">
         <v>105</v>
@@ -2925,22 +2949,22 @@
         <v>65536</v>
       </c>
       <c r="L38" s="75" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
     </row>
     <row r="39" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A39" s="67"/>
       <c r="B39" s="37" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="C39" s="88" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="D39" s="7" t="s">
         <v>31</v>
       </c>
       <c r="E39" s="59" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="F39" s="7" t="s">
         <v>105</v>
@@ -3002,7 +3026,7 @@
         <v>140</v>
       </c>
       <c r="E41" s="59" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="F41" s="7" t="s">
         <v>105</v>
@@ -3034,7 +3058,7 @@
         <v>33</v>
       </c>
       <c r="E42" s="59" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="F42" s="7" t="s">
         <v>105</v>
@@ -3147,7 +3171,7 @@
       </c>
       <c r="C46" s="88"/>
       <c r="D46" s="7" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="E46" s="9" t="s">
         <v>44</v>
@@ -3249,16 +3273,16 @@
     <row r="50" spans="1:13" ht="29" hidden="1" x14ac:dyDescent="0.35">
       <c r="A50" s="72"/>
       <c r="B50" s="76" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="C50" s="29" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="D50" s="11" t="s">
         <v>90</v>
       </c>
       <c r="E50" s="9" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="F50" s="59" t="s">
         <v>105</v>
@@ -3275,23 +3299,23 @@
         <v>256</v>
       </c>
       <c r="L50" s="77" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="M50" s="36"/>
     </row>
     <row r="51" spans="1:13" ht="29" hidden="1" x14ac:dyDescent="0.35">
       <c r="A51" s="72"/>
       <c r="B51" s="76" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="C51" s="29" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="D51" s="11" t="s">
         <v>89</v>
       </c>
       <c r="E51" s="9" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="F51" s="59" t="s">
         <v>105</v>
@@ -3308,7 +3332,7 @@
         <v>256</v>
       </c>
       <c r="L51" s="77" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="M51" s="36"/>
     </row>
@@ -3318,7 +3342,7 @@
         <v>71</v>
       </c>
       <c r="C52" s="88" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="D52" s="7" t="s">
         <v>137</v>
@@ -3348,7 +3372,7 @@
         <v>72</v>
       </c>
       <c r="C53" s="88" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="D53" s="7" t="s">
         <v>138</v>
@@ -3378,7 +3402,7 @@
         <v>2</v>
       </c>
       <c r="C54" s="88" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="D54" s="7" t="s">
         <v>45</v>
@@ -3407,7 +3431,7 @@
         <v>69</v>
       </c>
       <c r="C55" s="30" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="D55" s="9" t="s">
         <v>49</v>
@@ -3436,7 +3460,7 @@
         <v>6</v>
       </c>
       <c r="C56" s="30" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="D56" s="9" t="s">
         <v>50</v>
@@ -3465,7 +3489,7 @@
         <v>70</v>
       </c>
       <c r="C57" s="30" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="D57" s="9" t="s">
         <v>51</v>
@@ -3494,7 +3518,7 @@
         <v>73</v>
       </c>
       <c r="C58" s="30" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="D58" s="9" t="s">
         <v>52</v>
@@ -3523,7 +3547,7 @@
         <v>74</v>
       </c>
       <c r="C59" s="30" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="D59" s="9" t="s">
         <v>53</v>
@@ -3552,7 +3576,7 @@
         <v>75</v>
       </c>
       <c r="C60" s="30" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="D60" s="9" t="s">
         <v>54</v>
@@ -3581,7 +3605,7 @@
         <v>76</v>
       </c>
       <c r="C61" s="30" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="D61" s="9" t="s">
         <v>55</v>
@@ -3610,7 +3634,7 @@
         <v>79</v>
       </c>
       <c r="C62" s="91" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="D62" s="12" t="s">
         <v>56</v>
@@ -3639,7 +3663,7 @@
         <v>80</v>
       </c>
       <c r="C63" s="91" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="D63" s="12" t="s">
         <v>57</v>
@@ -3668,7 +3692,7 @@
         <v>77</v>
       </c>
       <c r="C64" s="91" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="D64" s="12" t="s">
         <v>58</v>
@@ -3697,7 +3721,7 @@
         <v>78</v>
       </c>
       <c r="C65" s="91" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="D65" s="12" t="s">
         <v>59</v>
@@ -3726,7 +3750,7 @@
         <v>81</v>
       </c>
       <c r="C66" s="91" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="D66" s="12" t="s">
         <v>60</v>
@@ -3905,7 +3929,7 @@
         <v>256</v>
       </c>
       <c r="L72" s="7" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
     </row>
     <row r="73" spans="2:12" hidden="1" x14ac:dyDescent="0.35">

--- a/data_input/analytics/OLAP MultiBOM.xlsx
+++ b/data_input/analytics/OLAP MultiBOM.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="15470" windowHeight="7430" tabRatio="587"/>
+    <workbookView xWindow="-110" yWindow="0" windowWidth="2260" windowHeight="0" tabRatio="587"/>
   </bookViews>
   <sheets>
     <sheet name="OLAP MultiBOM" sheetId="6" r:id="rId1"/>
@@ -875,12 +875,20 @@
   <numFmts count="1">
     <numFmt numFmtId="41" formatCode="_-* #,##0\ _₽_-;\-* #,##0\ _₽_-;_-* &quot;-&quot;\ _₽_-;_-@_-"/>
   </numFmts>
-  <fonts count="30" x14ac:knownFonts="1">
+  <fonts count="31" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1199,301 +1207,301 @@
   </borders>
   <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="102">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="2"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="2" applyAlignment="1">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="2"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="2" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="2" applyAlignment="1">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="2" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="2" applyFont="1"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="2" applyAlignment="1">
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="2" applyFont="1"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="2" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="1" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="4" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="4" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="4" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="3" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="1" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="20" fillId="0" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="18" fillId="0" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="1" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="26" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="2" applyFont="1"/>
     <xf numFmtId="0" fontId="26" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="1" xfId="2" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="27" fillId="0" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="1" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="10" fillId="0" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="4" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="9" fillId="0" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="27" fillId="0" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="4" xfId="2" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="4" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="4" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="41" fontId="8" fillId="0" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="3" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="4" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="1" xfId="2" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="41" fontId="19" fillId="0" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="23" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="41" fontId="17" fillId="0" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="3" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="4" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="1" xfId="2" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="2" applyFont="1"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="26" fillId="0" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="1" xfId="2" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="9" fillId="0" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="4" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="25" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="41" fontId="8" fillId="0" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="26" fillId="0" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="7" fillId="0" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="4" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="3" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="4" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -1801,13 +1809,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr filterMode="1">
+  <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <dimension ref="A1:M73"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="J99" sqref="J99"/>
+      <selection activeCell="D35" sqref="D35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.54296875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1845,19 +1853,19 @@
     </row>
     <row r="3" spans="1:12" ht="21" x14ac:dyDescent="0.35">
       <c r="A3" s="4"/>
-      <c r="B3" s="94" t="s">
+      <c r="B3" s="95" t="s">
         <v>174</v>
       </c>
-      <c r="C3" s="94"/>
-      <c r="D3" s="94"/>
-      <c r="E3" s="94"/>
-      <c r="F3" s="94"/>
-      <c r="G3" s="94"/>
-      <c r="H3" s="94"/>
-      <c r="I3" s="94"/>
-      <c r="J3" s="94"/>
-      <c r="K3" s="94"/>
-      <c r="L3" s="94"/>
+      <c r="C3" s="95"/>
+      <c r="D3" s="95"/>
+      <c r="E3" s="95"/>
+      <c r="F3" s="95"/>
+      <c r="G3" s="95"/>
+      <c r="H3" s="95"/>
+      <c r="I3" s="95"/>
+      <c r="J3" s="95"/>
+      <c r="K3" s="95"/>
+      <c r="L3" s="95"/>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A4" s="5"/>
@@ -1935,7 +1943,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="7" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A7" s="70"/>
       <c r="B7" s="13" t="s">
         <v>68</v>
@@ -1999,7 +2007,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="9" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A9" s="72"/>
       <c r="B9" s="37" t="s">
         <v>135</v>
@@ -2015,13 +2023,13 @@
         <v>105</v>
       </c>
       <c r="G9" s="35"/>
-      <c r="H9" s="95" t="s">
+      <c r="H9" s="96" t="s">
         <v>67</v>
       </c>
-      <c r="I9" s="95" t="s">
+      <c r="I9" s="96" t="s">
         <v>86</v>
       </c>
-      <c r="J9" s="98"/>
+      <c r="J9" s="99"/>
       <c r="K9" s="40" t="s">
         <v>153</v>
       </c>
@@ -2029,7 +2037,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="10" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A10" s="72"/>
       <c r="B10" s="37" t="s">
         <v>149</v>
@@ -2045,9 +2053,9 @@
         <v>105</v>
       </c>
       <c r="G10" s="35"/>
-      <c r="H10" s="96"/>
-      <c r="I10" s="96"/>
-      <c r="J10" s="99"/>
+      <c r="H10" s="97"/>
+      <c r="I10" s="97"/>
+      <c r="J10" s="100"/>
       <c r="K10" s="40" t="s">
         <v>154</v>
       </c>
@@ -2055,7 +2063,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="11" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A11" s="72"/>
       <c r="B11" s="37" t="s">
         <v>102</v>
@@ -2071,9 +2079,9 @@
         <v>105</v>
       </c>
       <c r="G11" s="35"/>
-      <c r="H11" s="96"/>
-      <c r="I11" s="96"/>
-      <c r="J11" s="99"/>
+      <c r="H11" s="97"/>
+      <c r="I11" s="97"/>
+      <c r="J11" s="100"/>
       <c r="K11" s="40" t="s">
         <v>153</v>
       </c>
@@ -2099,9 +2107,9 @@
       <c r="G12" s="41" t="s">
         <v>105</v>
       </c>
-      <c r="H12" s="97"/>
-      <c r="I12" s="97"/>
-      <c r="J12" s="100"/>
+      <c r="H12" s="98"/>
+      <c r="I12" s="98"/>
+      <c r="J12" s="101"/>
       <c r="K12" s="62" t="s">
         <v>153</v>
       </c>
@@ -2109,7 +2117,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="13" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A13" s="72"/>
       <c r="B13" s="37" t="s">
         <v>101</v>
@@ -2141,7 +2149,7 @@
         <v>202</v>
       </c>
     </row>
-    <row r="14" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A14" s="72"/>
       <c r="B14" s="37" t="s">
         <v>147</v>
@@ -2173,7 +2181,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="15" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A15" s="72"/>
       <c r="B15" s="13" t="s">
         <v>106</v>
@@ -2205,7 +2213,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="16" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A16" s="72"/>
       <c r="B16" s="13" t="s">
         <v>107</v>
@@ -2237,7 +2245,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="17" spans="1:13" hidden="1" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A17" s="72"/>
       <c r="B17" s="13" t="s">
         <v>108</v>
@@ -2269,7 +2277,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="18" spans="1:13" hidden="1" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A18" s="72"/>
       <c r="B18" s="13" t="s">
         <v>109</v>
@@ -2301,7 +2309,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="19" spans="1:13" hidden="1" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A19" s="72"/>
       <c r="B19" s="13" t="s">
         <v>110</v>
@@ -2469,7 +2477,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="24" spans="1:13" hidden="1" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A24" s="70"/>
       <c r="B24" s="83" t="s">
         <v>5</v>
@@ -2523,7 +2531,7 @@
       <c r="K25" s="40">
         <v>2</v>
       </c>
-      <c r="L25" s="101" t="s">
+      <c r="L25" s="94" t="s">
         <v>218</v>
       </c>
     </row>
@@ -2705,7 +2713,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="31" spans="1:13" hidden="1" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A31" s="70"/>
       <c r="B31" s="13" t="s">
         <v>120</v>
@@ -2738,7 +2746,7 @@
       </c>
       <c r="M31" s="36"/>
     </row>
-    <row r="32" spans="1:13" hidden="1" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A32" s="70"/>
       <c r="B32" s="37" t="s">
         <v>121</v>
@@ -2766,7 +2774,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="33" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A33" s="70"/>
       <c r="B33" s="37" t="s">
         <v>122</v>
@@ -2888,7 +2896,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="37" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A37" s="70"/>
       <c r="B37" s="14" t="s">
         <v>28</v>
@@ -2918,7 +2926,7 @@
       </c>
       <c r="L37" s="10"/>
     </row>
-    <row r="38" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A38" s="70"/>
       <c r="B38" s="37" t="s">
         <v>29</v>
@@ -2952,7 +2960,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="39" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A39" s="67"/>
       <c r="B39" s="37" t="s">
         <v>205</v>
@@ -2986,7 +2994,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="40" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A40" s="5"/>
       <c r="B40" s="13" t="s">
         <v>32</v>
@@ -3016,7 +3024,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="41" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A41" s="67"/>
       <c r="B41" s="37" t="s">
         <v>40</v>
@@ -3048,7 +3056,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="42" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A42" s="67"/>
       <c r="B42" s="37" t="s">
         <v>41</v>
@@ -3080,7 +3088,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="43" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A43" s="5"/>
       <c r="B43" s="13" t="s">
         <v>42</v>
@@ -3108,7 +3116,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="44" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A44" s="5"/>
       <c r="B44" s="13" t="s">
         <v>111</v>
@@ -3136,7 +3144,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="45" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A45" s="5"/>
       <c r="B45" s="13" t="s">
         <v>112</v>
@@ -3164,7 +3172,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="46" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A46" s="5"/>
       <c r="B46" s="13" t="s">
         <v>113</v>
@@ -3192,7 +3200,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="47" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A47" s="5"/>
       <c r="B47" s="66" t="s">
         <v>175</v>
@@ -3218,7 +3226,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="48" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A48" s="5"/>
       <c r="B48" s="66" t="s">
         <v>39</v>
@@ -3244,7 +3252,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="49" spans="1:13" hidden="1" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A49" s="5"/>
       <c r="B49" s="66" t="s">
         <v>164</v>
@@ -3270,7 +3278,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="50" spans="1:13" ht="29" hidden="1" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:13" ht="29" x14ac:dyDescent="0.35">
       <c r="A50" s="72"/>
       <c r="B50" s="76" t="s">
         <v>195</v>
@@ -3303,7 +3311,7 @@
       </c>
       <c r="M50" s="36"/>
     </row>
-    <row r="51" spans="1:13" ht="29" hidden="1" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:13" ht="29" x14ac:dyDescent="0.35">
       <c r="A51" s="72"/>
       <c r="B51" s="76" t="s">
         <v>196</v>
@@ -3336,7 +3344,7 @@
       </c>
       <c r="M51" s="36"/>
     </row>
-    <row r="52" spans="1:13" hidden="1" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A52" s="5"/>
       <c r="B52" s="13" t="s">
         <v>71</v>
@@ -3366,7 +3374,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="53" spans="1:13" hidden="1" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A53" s="5"/>
       <c r="B53" s="13" t="s">
         <v>72</v>
@@ -3396,7 +3404,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="54" spans="1:13" hidden="1" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A54" s="5"/>
       <c r="B54" s="13" t="s">
         <v>2</v>
@@ -3426,7 +3434,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="55" spans="1:13" hidden="1" x14ac:dyDescent="0.35">
+    <row r="55" spans="1:13" x14ac:dyDescent="0.35">
       <c r="B55" s="15" t="s">
         <v>69</v>
       </c>
@@ -3455,7 +3463,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="56" spans="1:13" hidden="1" x14ac:dyDescent="0.35">
+    <row r="56" spans="1:13" x14ac:dyDescent="0.35">
       <c r="B56" s="15" t="s">
         <v>6</v>
       </c>
@@ -3484,7 +3492,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="57" spans="1:13" hidden="1" x14ac:dyDescent="0.35">
+    <row r="57" spans="1:13" x14ac:dyDescent="0.35">
       <c r="B57" s="15" t="s">
         <v>70</v>
       </c>
@@ -3513,7 +3521,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="58" spans="1:13" hidden="1" x14ac:dyDescent="0.35">
+    <row r="58" spans="1:13" x14ac:dyDescent="0.35">
       <c r="B58" s="15" t="s">
         <v>73</v>
       </c>
@@ -3542,7 +3550,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="59" spans="1:13" hidden="1" x14ac:dyDescent="0.35">
+    <row r="59" spans="1:13" x14ac:dyDescent="0.35">
       <c r="B59" s="15" t="s">
         <v>74</v>
       </c>
@@ -3571,7 +3579,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="60" spans="1:13" hidden="1" x14ac:dyDescent="0.35">
+    <row r="60" spans="1:13" x14ac:dyDescent="0.35">
       <c r="B60" s="47" t="s">
         <v>75</v>
       </c>
@@ -3600,7 +3608,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="61" spans="1:13" hidden="1" x14ac:dyDescent="0.35">
+    <row r="61" spans="1:13" x14ac:dyDescent="0.35">
       <c r="B61" s="15" t="s">
         <v>76</v>
       </c>
@@ -3629,7 +3637,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="62" spans="1:13" hidden="1" x14ac:dyDescent="0.35">
+    <row r="62" spans="1:13" x14ac:dyDescent="0.35">
       <c r="B62" s="20" t="s">
         <v>79</v>
       </c>
@@ -3658,7 +3666,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="63" spans="1:13" hidden="1" x14ac:dyDescent="0.35">
+    <row r="63" spans="1:13" x14ac:dyDescent="0.35">
       <c r="B63" s="20" t="s">
         <v>80</v>
       </c>
@@ -3687,7 +3695,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="64" spans="1:13" hidden="1" x14ac:dyDescent="0.35">
+    <row r="64" spans="1:13" x14ac:dyDescent="0.35">
       <c r="B64" s="20" t="s">
         <v>77</v>
       </c>
@@ -3716,7 +3724,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="65" spans="2:12" hidden="1" x14ac:dyDescent="0.35">
+    <row r="65" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B65" s="20" t="s">
         <v>78</v>
       </c>
@@ -3745,7 +3753,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="66" spans="2:12" hidden="1" x14ac:dyDescent="0.35">
+    <row r="66" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B66" s="20" t="s">
         <v>81</v>
       </c>
@@ -3774,7 +3782,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="67" spans="2:12" hidden="1" x14ac:dyDescent="0.35">
+    <row r="67" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B67" s="20" t="s">
         <v>82</v>
       </c>
@@ -3801,7 +3809,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="68" spans="2:12" hidden="1" x14ac:dyDescent="0.35">
+    <row r="68" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B68" s="20" t="s">
         <v>83</v>
       </c>
@@ -3828,7 +3836,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="69" spans="2:12" hidden="1" x14ac:dyDescent="0.35">
+    <row r="69" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B69" s="20" t="s">
         <v>84</v>
       </c>
@@ -3855,7 +3863,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="70" spans="2:12" hidden="1" x14ac:dyDescent="0.35">
+    <row r="70" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B70" s="20" t="s">
         <v>85</v>
       </c>
@@ -3882,7 +3890,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="71" spans="2:12" hidden="1" x14ac:dyDescent="0.35">
+    <row r="71" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B71" s="31" t="s">
         <v>133</v>
       </c>
@@ -3907,7 +3915,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="72" spans="2:12" hidden="1" x14ac:dyDescent="0.35">
+    <row r="72" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B72" s="31" t="s">
         <v>97</v>
       </c>
@@ -3932,7 +3940,7 @@
         <v>212</v>
       </c>
     </row>
-    <row r="73" spans="2:12" hidden="1" x14ac:dyDescent="0.35">
+    <row r="73" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B73" s="44" t="s">
         <v>141</v>
       </c>
@@ -3958,13 +3966,7 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A5:L73">
-    <filterColumn colId="4">
-      <filters>
-        <filter val="Status_Components"/>
-      </filters>
-    </filterColumn>
-  </autoFilter>
+  <autoFilter ref="A5:L73"/>
   <mergeCells count="4">
     <mergeCell ref="B3:L3"/>
     <mergeCell ref="H9:H12"/>

--- a/data_input/analytics/OLAP MultiBOM.xlsx
+++ b/data_input/analytics/OLAP MultiBOM.xlsx
@@ -4,20 +4,20 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="0" windowWidth="2260" windowHeight="0" tabRatio="587"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="23260" windowHeight="12580" tabRatio="587"/>
   </bookViews>
   <sheets>
     <sheet name="OLAP MultiBOM" sheetId="6" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'OLAP MultiBOM'!$A$5:$L$73</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'OLAP MultiBOM'!$A$5:$L$74</definedName>
   </definedNames>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="152511" refMode="R1C1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="519" uniqueCount="219">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="501" uniqueCount="215">
   <si>
     <t>Чертежный номер</t>
   </si>
@@ -112,9 +112,6 @@
     <t>repair_time</t>
   </si>
   <si>
-    <t>daily_flight_hours</t>
-  </si>
-  <si>
     <t>Даты</t>
   </si>
   <si>
@@ -214,12 +211,6 @@
     <t>week</t>
   </si>
   <si>
-    <t>LC(String)[UInt8 index]</t>
-  </si>
-  <si>
-    <t>LC(String)[UInt16 index]</t>
-  </si>
-  <si>
     <t>uint8</t>
   </si>
   <si>
@@ -277,12 +268,6 @@
     <t>Неделя</t>
   </si>
   <si>
-    <t>bitmask[u8]</t>
-  </si>
-  <si>
-    <t>bitmask[u16]</t>
-  </si>
-  <si>
     <t>Только на загрузке для Ремонт</t>
   </si>
   <si>
@@ -467,39 +452,15 @@
   </si>
   <si>
     <t>Запрет совмещения ХВ</t>
-  </si>
-  <si>
-    <t>common_restricted</t>
   </si>
   <si>
     <t>AMOS - Excel
 Master Data</t>
   </si>
   <si>
-    <t>8 бит</t>
-  </si>
-  <si>
-    <t>1 бит</t>
-  </si>
-  <si>
-    <t>2 бита</t>
-  </si>
-  <si>
     <t>64 значения</t>
   </si>
   <si>
-    <t>6 бит</t>
-  </si>
-  <si>
-    <t>4 294 967 296</t>
-  </si>
-  <si>
-    <t>3 бита</t>
-  </si>
-  <si>
-    <t>16 бит</t>
-  </si>
-  <si>
     <t>В минутах</t>
   </si>
   <si>
@@ -513,9 +474,6 @@
   </si>
   <si>
     <t>Дата последнего известного статуса</t>
-  </si>
-  <si>
-    <t>10 бит</t>
   </si>
   <si>
     <t>Лизинговые ограничения</t>
@@ -541,9 +499,6 @@
       </rPr>
       <t>ручной ввод до заполнения эталонных сборок</t>
     </r>
-  </si>
-  <si>
-    <t>unit16</t>
   </si>
   <si>
     <r>
@@ -734,9 +689,6 @@
 Source Data</t>
   </si>
   <si>
-    <t>Макс значений/бит</t>
-  </si>
-  <si>
     <r>
       <t xml:space="preserve">Установка только на ВС с аналогичным собственником. Приоритетная отправка в ремонт. На любом вертикальном выравнивании проверять наличие агрегатов с таким битом в Статусе Исправен и делать своп агрегатов с аналогичным partno и ВС с аналогичным собственником, но другим собственником агрегата. </t>
     </r>
@@ -867,6 +819,42 @@
       <t>Ручная коррекция до двух статусов вместо 17.</t>
     </r>
   </si>
+  <si>
+    <t>Dict(String)[UInt16 index]</t>
+  </si>
+  <si>
+    <t>multihot[u8]</t>
+  </si>
+  <si>
+    <t>bitmask</t>
+  </si>
+  <si>
+    <t>limits:0</t>
+  </si>
+  <si>
+    <t>limits:3</t>
+  </si>
+  <si>
+    <t>limits:4</t>
+  </si>
+  <si>
+    <t>common_restricted1</t>
+  </si>
+  <si>
+    <t>common_restricted2</t>
+  </si>
+  <si>
+    <t>limits:1</t>
+  </si>
+  <si>
+    <t>limits:2</t>
+  </si>
+  <si>
+    <t>Dict[UInt8]</t>
+  </si>
+  <si>
+    <t>daily_flight</t>
+  </si>
 </sst>
 </file>
 
@@ -875,12 +863,52 @@
   <numFmts count="1">
     <numFmt numFmtId="41" formatCode="_-* #,##0\ _₽_-;\-* #,##0\ _₽_-;_-* &quot;-&quot;\ _₽_-;_-@_-"/>
   </numFmts>
-  <fonts count="31" x14ac:knownFonts="1">
+  <fonts count="36" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1207,301 +1235,334 @@
   </borders>
   <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="102">
+  <cellXfs count="113">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="2"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="2" applyAlignment="1">
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="2"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="2" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="2" applyAlignment="1">
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="2" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="2" applyFont="1"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="2" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="2" applyFont="1"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="2" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="1" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="4" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="4" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="4" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="3" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="1" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="25" fillId="0" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="23" fillId="0" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="1" xfId="2" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="2" applyFont="1"/>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="32" fillId="0" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="1" xfId="2" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="1" xfId="2" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="4" xfId="2" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="4" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="4" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="3" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="1" xfId="2" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="41" fontId="15" fillId="0" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="41" fontId="20" fillId="0" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="18" fillId="0" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="1" xfId="2" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="2" applyFont="1"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="4" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="14" fillId="0" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="4" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="27" fillId="0" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="1" xfId="2" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="10" fillId="0" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="4" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="9" fillId="0" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="27" fillId="0" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="13" fillId="0" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="4" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="0" borderId="3" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="4" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="4" fillId="0" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="8" fillId="0" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="4" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="3" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="4" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="2" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="4" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -1520,6 +1581,10 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1812,24 +1877,24 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:M73"/>
+  <dimension ref="A1:M74"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="D35" sqref="D35"/>
+    <sheetView tabSelected="1" topLeftCell="A19" zoomScale="85" zoomScaleNormal="85" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="D54" sqref="D54"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.54296875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="13" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="43.36328125" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9.54296875" style="92" customWidth="1"/>
+    <col min="3" max="3" width="9.54296875" style="88" customWidth="1"/>
     <col min="4" max="4" width="20.08984375" style="5" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="19.54296875" style="5" bestFit="1" customWidth="1"/>
     <col min="6" max="7" width="17.90625" style="5" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="21.453125" style="5" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="22.90625" style="5" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="17.36328125" style="5" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="21.453125" style="3" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="17.08984375" style="5" customWidth="1"/>
+    <col min="10" max="10" width="22.90625" style="3" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="22.08984375" style="5" customWidth="1"/>
     <col min="12" max="12" width="163.6328125" style="5" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="14.81640625" style="1" bestFit="1" customWidth="1"/>
     <col min="14" max="16384" width="8.54296875" style="1"/>
@@ -1837,11 +1902,11 @@
   <sheetData>
     <row r="1" spans="1:12" x14ac:dyDescent="0.35">
       <c r="B1" s="2"/>
-      <c r="C1" s="85"/>
+      <c r="C1" s="81"/>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.35">
       <c r="B2" s="2"/>
-      <c r="C2" s="85"/>
+      <c r="C2" s="81"/>
       <c r="D2" s="8"/>
       <c r="E2" s="8"/>
       <c r="F2" s="8"/>
@@ -1853,79 +1918,79 @@
     </row>
     <row r="3" spans="1:12" ht="21" x14ac:dyDescent="0.35">
       <c r="A3" s="4"/>
-      <c r="B3" s="95" t="s">
-        <v>174</v>
-      </c>
-      <c r="C3" s="95"/>
-      <c r="D3" s="95"/>
-      <c r="E3" s="95"/>
-      <c r="F3" s="95"/>
-      <c r="G3" s="95"/>
-      <c r="H3" s="95"/>
-      <c r="I3" s="95"/>
-      <c r="J3" s="95"/>
-      <c r="K3" s="95"/>
-      <c r="L3" s="95"/>
+      <c r="B3" s="99" t="s">
+        <v>159</v>
+      </c>
+      <c r="C3" s="99"/>
+      <c r="D3" s="99"/>
+      <c r="E3" s="99"/>
+      <c r="F3" s="99"/>
+      <c r="G3" s="99"/>
+      <c r="H3" s="99"/>
+      <c r="I3" s="99"/>
+      <c r="J3" s="99"/>
+      <c r="K3" s="99"/>
+      <c r="L3" s="99"/>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A4" s="5"/>
       <c r="B4" s="2"/>
-      <c r="C4" s="85"/>
+      <c r="C4" s="81"/>
       <c r="H4" s="8"/>
       <c r="I4" s="8"/>
       <c r="J4" s="8"/>
     </row>
     <row r="5" spans="1:12" s="2" customFormat="1" ht="43" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A5" s="74"/>
+      <c r="A5" s="71"/>
       <c r="B5" s="19" t="s">
         <v>12</v>
       </c>
-      <c r="C5" s="86" t="s">
-        <v>206</v>
+      <c r="C5" s="82" t="s">
+        <v>190</v>
       </c>
       <c r="D5" s="19" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="E5" s="19" t="s">
         <v>13</v>
       </c>
       <c r="F5" s="19" t="s">
-        <v>151</v>
+        <v>145</v>
       </c>
       <c r="G5" s="19" t="s">
+        <v>182</v>
+      </c>
+      <c r="H5" s="19" t="s">
         <v>197</v>
       </c>
-      <c r="H5" s="19" t="s">
-        <v>213</v>
-      </c>
       <c r="I5" s="19" t="s">
-        <v>214</v>
+        <v>198</v>
       </c>
       <c r="J5" s="19" t="s">
-        <v>215</v>
+        <v>199</v>
       </c>
       <c r="K5" s="19" t="s">
-        <v>198</v>
+        <v>205</v>
       </c>
       <c r="L5" s="19" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A6" s="71"/>
+      <c r="A6" s="68"/>
       <c r="B6" s="16" t="s">
-        <v>48</v>
-      </c>
-      <c r="C6" s="87"/>
+        <v>47</v>
+      </c>
+      <c r="C6" s="83"/>
       <c r="D6" s="17" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="E6" s="52" t="s">
-        <v>192</v>
+        <v>177</v>
       </c>
       <c r="F6" s="52"/>
       <c r="G6" s="52" t="s">
-        <v>103</v>
+        <v>98</v>
       </c>
       <c r="H6" s="18" t="s">
         <v>27</v>
@@ -1936,299 +2001,277 @@
       <c r="J6" s="18" t="s">
         <v>27</v>
       </c>
-      <c r="K6" s="23">
-        <v>65536</v>
-      </c>
-      <c r="L6" s="69" t="s">
-        <v>184</v>
+      <c r="K6" s="23"/>
+      <c r="L6" s="66" t="s">
+        <v>169</v>
       </c>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A7" s="70"/>
+      <c r="A7" s="67"/>
       <c r="B7" s="13" t="s">
-        <v>68</v>
-      </c>
-      <c r="C7" s="88"/>
+        <v>65</v>
+      </c>
+      <c r="C7" s="84"/>
       <c r="D7" s="7" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="E7" s="33" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F7" s="35"/>
       <c r="G7" s="35"/>
       <c r="H7" s="10"/>
       <c r="I7" s="10" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="J7" s="10" t="s">
-        <v>67</v>
-      </c>
-      <c r="K7" s="23">
-        <v>256</v>
-      </c>
+        <v>64</v>
+      </c>
+      <c r="K7" s="61"/>
       <c r="L7" s="39" t="s">
-        <v>136</v>
+        <v>131</v>
       </c>
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A8" s="70">
-        <v>1</v>
-      </c>
+      <c r="A8" s="67"/>
       <c r="B8" s="13" t="s">
         <v>0</v>
       </c>
-      <c r="C8" s="88"/>
+      <c r="C8" s="84"/>
       <c r="D8" s="9" t="s">
         <v>1</v>
       </c>
       <c r="E8" s="52" t="s">
-        <v>192</v>
+        <v>177</v>
       </c>
       <c r="F8" s="40" t="s">
-        <v>104</v>
+        <v>99</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>104</v>
+        <v>99</v>
       </c>
       <c r="H8" s="42" t="s">
-        <v>66</v>
-      </c>
-      <c r="I8" s="63" t="s">
-        <v>87</v>
+        <v>203</v>
+      </c>
+      <c r="I8" s="61" t="s">
+        <v>14</v>
       </c>
       <c r="J8" s="42" t="s">
-        <v>66</v>
-      </c>
-      <c r="K8" s="40" t="s">
-        <v>165</v>
-      </c>
+        <v>203</v>
+      </c>
+      <c r="K8" s="9"/>
       <c r="L8" s="7" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A9" s="72"/>
+        <v>154</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" ht="14.4" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A9" s="69"/>
       <c r="B9" s="37" t="s">
-        <v>135</v>
-      </c>
-      <c r="C9" s="88"/>
+        <v>130</v>
+      </c>
+      <c r="C9" s="84"/>
       <c r="D9" s="48" t="s">
-        <v>146</v>
+        <v>141</v>
       </c>
       <c r="E9" s="40" t="s">
-        <v>193</v>
-      </c>
-      <c r="F9" s="40" t="s">
-        <v>105</v>
+        <v>178</v>
+      </c>
+      <c r="F9" s="95" t="s">
+        <v>100</v>
       </c>
       <c r="G9" s="35"/>
-      <c r="H9" s="96" t="s">
-        <v>67</v>
-      </c>
-      <c r="I9" s="96" t="s">
-        <v>86</v>
-      </c>
-      <c r="J9" s="99"/>
-      <c r="K9" s="40" t="s">
+      <c r="H9" s="100" t="s">
+        <v>204</v>
+      </c>
+      <c r="I9" s="103" t="s">
+        <v>204</v>
+      </c>
+      <c r="J9" s="106" t="s">
+        <v>204</v>
+      </c>
+      <c r="K9" s="93" t="s">
+        <v>206</v>
+      </c>
+      <c r="L9" s="70" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A10" s="69"/>
+      <c r="B10" s="109" t="s">
+        <v>144</v>
+      </c>
+      <c r="C10" s="84"/>
+      <c r="D10" s="97" t="s">
+        <v>209</v>
+      </c>
+      <c r="E10" s="40" t="s">
+        <v>178</v>
+      </c>
+      <c r="F10" s="95" t="s">
+        <v>100</v>
+      </c>
+      <c r="G10" s="35"/>
+      <c r="H10" s="101"/>
+      <c r="I10" s="104"/>
+      <c r="J10" s="107"/>
+      <c r="K10" s="93" t="s">
+        <v>211</v>
+      </c>
+      <c r="L10" s="111" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A11" s="69"/>
+      <c r="B11" s="110"/>
+      <c r="C11" s="84"/>
+      <c r="D11" s="94" t="s">
+        <v>210</v>
+      </c>
+      <c r="E11" s="40" t="s">
+        <v>178</v>
+      </c>
+      <c r="F11" s="95" t="s">
+        <v>100</v>
+      </c>
+      <c r="G11" s="35"/>
+      <c r="H11" s="101"/>
+      <c r="I11" s="104"/>
+      <c r="J11" s="107"/>
+      <c r="K11" s="93" t="s">
+        <v>212</v>
+      </c>
+      <c r="L11" s="112"/>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A12" s="69"/>
+      <c r="B12" s="37" t="s">
+        <v>97</v>
+      </c>
+      <c r="C12" s="84"/>
+      <c r="D12" s="72" t="s">
+        <v>121</v>
+      </c>
+      <c r="E12" s="40" t="s">
+        <v>178</v>
+      </c>
+      <c r="F12" s="95" t="s">
+        <v>100</v>
+      </c>
+      <c r="G12" s="35"/>
+      <c r="H12" s="101"/>
+      <c r="I12" s="104"/>
+      <c r="J12" s="107"/>
+      <c r="K12" s="93" t="s">
+        <v>207</v>
+      </c>
+      <c r="L12" s="77" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" ht="29" x14ac:dyDescent="0.35">
+      <c r="A13" s="69"/>
+      <c r="B13" s="54" t="s">
+        <v>152</v>
+      </c>
+      <c r="C13" s="85"/>
+      <c r="D13" s="70" t="s">
         <v>153</v>
       </c>
-      <c r="L9" s="73" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A10" s="72"/>
-      <c r="B10" s="37" t="s">
-        <v>149</v>
-      </c>
-      <c r="C10" s="88"/>
-      <c r="D10" s="75" t="s">
-        <v>150</v>
-      </c>
-      <c r="E10" s="40" t="s">
-        <v>193</v>
-      </c>
-      <c r="F10" s="40" t="s">
-        <v>105</v>
-      </c>
-      <c r="G10" s="35"/>
-      <c r="H10" s="97"/>
-      <c r="I10" s="97"/>
-      <c r="J10" s="100"/>
-      <c r="K10" s="40" t="s">
-        <v>154</v>
-      </c>
-      <c r="L10" s="80" t="s">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A11" s="72"/>
-      <c r="B11" s="37" t="s">
-        <v>102</v>
-      </c>
-      <c r="C11" s="88"/>
-      <c r="D11" s="75" t="s">
-        <v>126</v>
-      </c>
-      <c r="E11" s="40" t="s">
-        <v>193</v>
-      </c>
-      <c r="F11" s="40" t="s">
-        <v>105</v>
-      </c>
-      <c r="G11" s="35"/>
-      <c r="H11" s="97"/>
-      <c r="I11" s="97"/>
-      <c r="J11" s="100"/>
-      <c r="K11" s="40" t="s">
-        <v>153</v>
-      </c>
-      <c r="L11" s="81" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="12" spans="1:12" ht="29" x14ac:dyDescent="0.35">
-      <c r="A12" s="72">
-        <v>1</v>
-      </c>
-      <c r="B12" s="54" t="s">
-        <v>166</v>
-      </c>
-      <c r="C12" s="89"/>
-      <c r="D12" s="73" t="s">
-        <v>167</v>
-      </c>
-      <c r="E12" s="78" t="s">
-        <v>192</v>
-      </c>
-      <c r="F12" s="41"/>
-      <c r="G12" s="41" t="s">
-        <v>105</v>
-      </c>
-      <c r="H12" s="98"/>
-      <c r="I12" s="98"/>
-      <c r="J12" s="101"/>
-      <c r="K12" s="62" t="s">
-        <v>153</v>
-      </c>
-      <c r="L12" s="79" t="s">
-        <v>199</v>
-      </c>
-    </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A13" s="72"/>
-      <c r="B13" s="37" t="s">
-        <v>101</v>
-      </c>
-      <c r="C13" s="88"/>
-      <c r="D13" s="9" t="s">
-        <v>125</v>
-      </c>
-      <c r="E13" s="40" t="s">
-        <v>193</v>
-      </c>
-      <c r="F13" s="57" t="s">
-        <v>105</v>
-      </c>
-      <c r="G13" s="35"/>
-      <c r="H13" s="42" t="s">
-        <v>67</v>
-      </c>
-      <c r="I13" s="42" t="s">
-        <v>67</v>
-      </c>
-      <c r="J13" s="42" t="s">
-        <v>67</v>
-      </c>
-      <c r="K13" s="40">
-        <v>256</v>
-      </c>
-      <c r="L13" s="82" t="s">
-        <v>202</v>
+      <c r="E13" s="75" t="s">
+        <v>177</v>
+      </c>
+      <c r="F13" s="41"/>
+      <c r="G13" s="96" t="s">
+        <v>100</v>
+      </c>
+      <c r="H13" s="102"/>
+      <c r="I13" s="105"/>
+      <c r="J13" s="108"/>
+      <c r="K13" s="93" t="s">
+        <v>208</v>
+      </c>
+      <c r="L13" s="76" t="s">
+        <v>183</v>
       </c>
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A14" s="72"/>
+      <c r="A14" s="69"/>
       <c r="B14" s="37" t="s">
-        <v>147</v>
-      </c>
-      <c r="C14" s="88"/>
-      <c r="D14" s="46" t="s">
-        <v>132</v>
+        <v>96</v>
+      </c>
+      <c r="C14" s="84"/>
+      <c r="D14" s="9" t="s">
+        <v>120</v>
       </c>
       <c r="E14" s="40" t="s">
-        <v>193</v>
-      </c>
-      <c r="F14" s="68" t="s">
-        <v>148</v>
+        <v>178</v>
+      </c>
+      <c r="F14" s="57" t="s">
+        <v>100</v>
       </c>
       <c r="G14" s="35"/>
       <c r="H14" s="42" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="I14" s="42" t="s">
-        <v>67</v>
-      </c>
-      <c r="J14" s="63" t="s">
-        <v>67</v>
-      </c>
-      <c r="K14" s="25">
-        <v>256</v>
-      </c>
-      <c r="L14" s="58" t="s">
-        <v>169</v>
+        <v>64</v>
+      </c>
+      <c r="J14" s="42" t="s">
+        <v>64</v>
+      </c>
+      <c r="K14" s="40"/>
+      <c r="L14" s="78" t="s">
+        <v>186</v>
       </c>
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A15" s="72"/>
-      <c r="B15" s="13" t="s">
-        <v>106</v>
-      </c>
-      <c r="C15" s="88" t="s">
-        <v>207</v>
-      </c>
-      <c r="D15" s="9" t="s">
+      <c r="A15" s="69"/>
+      <c r="B15" s="37" t="s">
+        <v>142</v>
+      </c>
+      <c r="C15" s="84"/>
+      <c r="D15" s="46" t="s">
         <v>127</v>
       </c>
       <c r="E15" s="40" t="s">
-        <v>193</v>
-      </c>
-      <c r="F15" s="53" t="s">
-        <v>105</v>
+        <v>178</v>
+      </c>
+      <c r="F15" s="65" t="s">
+        <v>143</v>
       </c>
       <c r="G15" s="35"/>
-      <c r="H15" s="29" t="s">
-        <v>21</v>
-      </c>
-      <c r="I15" s="29" t="s">
-        <v>21</v>
-      </c>
-      <c r="J15" s="29"/>
-      <c r="K15" s="51" t="s">
-        <v>157</v>
-      </c>
-      <c r="L15" s="49" t="s">
-        <v>160</v>
+      <c r="H15" s="42" t="s">
+        <v>64</v>
+      </c>
+      <c r="I15" s="42" t="s">
+        <v>64</v>
+      </c>
+      <c r="J15" s="61" t="s">
+        <v>64</v>
+      </c>
+      <c r="K15" s="25"/>
+      <c r="L15" s="58" t="s">
+        <v>155</v>
       </c>
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A16" s="72"/>
+      <c r="A16" s="69"/>
       <c r="B16" s="13" t="s">
-        <v>107</v>
-      </c>
-      <c r="C16" s="88" t="s">
-        <v>207</v>
+        <v>101</v>
+      </c>
+      <c r="C16" s="84" t="s">
+        <v>191</v>
       </c>
       <c r="D16" s="9" t="s">
-        <v>128</v>
+        <v>122</v>
       </c>
       <c r="E16" s="40" t="s">
-        <v>193</v>
+        <v>178</v>
       </c>
       <c r="F16" s="53" t="s">
-        <v>105</v>
+        <v>100</v>
       </c>
       <c r="G16" s="35"/>
       <c r="H16" s="29" t="s">
@@ -2238,29 +2281,27 @@
         <v>21</v>
       </c>
       <c r="J16" s="29"/>
-      <c r="K16" s="51" t="s">
-        <v>157</v>
-      </c>
+      <c r="K16" s="51"/>
       <c r="L16" s="49" t="s">
-        <v>160</v>
+        <v>147</v>
       </c>
     </row>
     <row r="17" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A17" s="72"/>
+      <c r="A17" s="69"/>
       <c r="B17" s="13" t="s">
-        <v>108</v>
-      </c>
-      <c r="C17" s="88" t="s">
-        <v>207</v>
+        <v>102</v>
+      </c>
+      <c r="C17" s="84" t="s">
+        <v>191</v>
       </c>
       <c r="D17" s="9" t="s">
-        <v>129</v>
+        <v>123</v>
       </c>
       <c r="E17" s="40" t="s">
-        <v>193</v>
+        <v>178</v>
       </c>
       <c r="F17" s="53" t="s">
-        <v>105</v>
+        <v>100</v>
       </c>
       <c r="G17" s="35"/>
       <c r="H17" s="29" t="s">
@@ -2270,29 +2311,27 @@
         <v>21</v>
       </c>
       <c r="J17" s="29"/>
-      <c r="K17" s="51" t="s">
-        <v>157</v>
-      </c>
+      <c r="K17" s="51"/>
       <c r="L17" s="49" t="s">
-        <v>160</v>
+        <v>147</v>
       </c>
     </row>
     <row r="18" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A18" s="72"/>
+      <c r="A18" s="69"/>
       <c r="B18" s="13" t="s">
-        <v>109</v>
-      </c>
-      <c r="C18" s="88" t="s">
-        <v>207</v>
+        <v>103</v>
+      </c>
+      <c r="C18" s="84" t="s">
+        <v>191</v>
       </c>
       <c r="D18" s="9" t="s">
-        <v>130</v>
+        <v>124</v>
       </c>
       <c r="E18" s="40" t="s">
-        <v>193</v>
+        <v>178</v>
       </c>
       <c r="F18" s="53" t="s">
-        <v>105</v>
+        <v>100</v>
       </c>
       <c r="G18" s="35"/>
       <c r="H18" s="29" t="s">
@@ -2302,29 +2341,27 @@
         <v>21</v>
       </c>
       <c r="J18" s="29"/>
-      <c r="K18" s="51" t="s">
-        <v>157</v>
-      </c>
+      <c r="K18" s="51"/>
       <c r="L18" s="49" t="s">
-        <v>160</v>
+        <v>147</v>
       </c>
     </row>
     <row r="19" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A19" s="72"/>
+      <c r="A19" s="69"/>
       <c r="B19" s="13" t="s">
-        <v>110</v>
-      </c>
-      <c r="C19" s="88" t="s">
-        <v>207</v>
+        <v>104</v>
+      </c>
+      <c r="C19" s="84" t="s">
+        <v>191</v>
       </c>
       <c r="D19" s="9" t="s">
-        <v>131</v>
+        <v>125</v>
       </c>
       <c r="E19" s="40" t="s">
-        <v>193</v>
+        <v>178</v>
       </c>
       <c r="F19" s="53" t="s">
-        <v>105</v>
+        <v>100</v>
       </c>
       <c r="G19" s="35"/>
       <c r="H19" s="29" t="s">
@@ -2334,262 +2371,232 @@
         <v>21</v>
       </c>
       <c r="J19" s="29"/>
-      <c r="K19" s="51" t="s">
-        <v>157</v>
-      </c>
+      <c r="K19" s="51"/>
       <c r="L19" s="49" t="s">
-        <v>160</v>
+        <v>147</v>
       </c>
     </row>
     <row r="20" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A20" s="70">
-        <v>1</v>
-      </c>
+      <c r="A20" s="69"/>
       <c r="B20" s="13" t="s">
+        <v>105</v>
+      </c>
+      <c r="C20" s="84" t="s">
+        <v>191</v>
+      </c>
+      <c r="D20" s="9" t="s">
+        <v>126</v>
+      </c>
+      <c r="E20" s="40" t="s">
+        <v>178</v>
+      </c>
+      <c r="F20" s="53" t="s">
+        <v>100</v>
+      </c>
+      <c r="G20" s="35"/>
+      <c r="H20" s="29" t="s">
+        <v>21</v>
+      </c>
+      <c r="I20" s="29" t="s">
+        <v>21</v>
+      </c>
+      <c r="J20" s="29"/>
+      <c r="K20" s="51"/>
+      <c r="L20" s="49" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="21" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A21" s="67"/>
+      <c r="B21" s="13" t="s">
         <v>18</v>
       </c>
-      <c r="C20" s="88"/>
-      <c r="D20" s="9" t="s">
+      <c r="C21" s="84"/>
+      <c r="D21" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="E20" s="9" t="s">
-        <v>192</v>
-      </c>
-      <c r="F20" s="35"/>
-      <c r="G20" s="7" t="s">
-        <v>105</v>
-      </c>
-      <c r="H20" s="29" t="s">
-        <v>14</v>
-      </c>
-      <c r="I20" s="29" t="s">
-        <v>14</v>
-      </c>
-      <c r="J20" s="29" t="s">
-        <v>14</v>
-      </c>
-      <c r="K20" s="40">
-        <v>65536</v>
-      </c>
-      <c r="L20" s="75" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="21" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A21" s="72">
-        <v>1</v>
-      </c>
-      <c r="B21" s="13" t="s">
+      <c r="E21" s="9" t="s">
+        <v>177</v>
+      </c>
+      <c r="F21" s="35"/>
+      <c r="G21" s="7" t="s">
+        <v>100</v>
+      </c>
+      <c r="H21" s="29" t="s">
+        <v>14</v>
+      </c>
+      <c r="I21" s="29" t="s">
+        <v>14</v>
+      </c>
+      <c r="J21" s="29" t="s">
+        <v>14</v>
+      </c>
+      <c r="K21" s="40"/>
+      <c r="L21" s="72" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="22" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A22" s="69"/>
+      <c r="B22" s="13" t="s">
         <v>4</v>
       </c>
-      <c r="C21" s="88"/>
-      <c r="D21" s="75" t="s">
+      <c r="C22" s="84"/>
+      <c r="D22" s="92" t="s">
         <v>17</v>
       </c>
-      <c r="E21" s="59" t="s">
-        <v>192</v>
-      </c>
-      <c r="F21" s="59"/>
-      <c r="G21" s="59" t="s">
-        <v>104</v>
-      </c>
-      <c r="H21" s="29" t="s">
-        <v>65</v>
-      </c>
-      <c r="I21" s="60" t="s">
-        <v>86</v>
-      </c>
-      <c r="J21" s="60" t="s">
-        <v>65</v>
-      </c>
-      <c r="K21" s="57" t="s">
-        <v>152</v>
-      </c>
-      <c r="L21" s="81" t="s">
+      <c r="E22" s="59" t="s">
+        <v>177</v>
+      </c>
+      <c r="F22" s="59"/>
+      <c r="G22" s="59" t="s">
+        <v>99</v>
+      </c>
+      <c r="H22" s="91" t="s">
+        <v>204</v>
+      </c>
+      <c r="I22" s="91" t="s">
+        <v>204</v>
+      </c>
+      <c r="J22" s="91" t="s">
+        <v>204</v>
+      </c>
+      <c r="K22" s="92" t="s">
+        <v>17</v>
+      </c>
+      <c r="L22" s="77" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="23" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A23" s="67"/>
+      <c r="B23" s="13" t="s">
+        <v>15</v>
+      </c>
+      <c r="C23" s="84"/>
+      <c r="D23" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="E23" s="9" t="s">
+        <v>177</v>
+      </c>
+      <c r="F23" s="35"/>
+      <c r="G23" s="49" t="s">
+        <v>99</v>
+      </c>
+      <c r="H23" s="42" t="s">
         <v>203</v>
       </c>
-    </row>
-    <row r="22" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A22" s="70">
-        <v>1</v>
-      </c>
-      <c r="B22" s="13" t="s">
-        <v>15</v>
-      </c>
-      <c r="C22" s="88"/>
-      <c r="D22" s="9" t="s">
-        <v>16</v>
-      </c>
-      <c r="E22" s="9" t="s">
-        <v>192</v>
-      </c>
-      <c r="F22" s="35"/>
-      <c r="G22" s="49" t="s">
-        <v>104</v>
-      </c>
-      <c r="H22" s="42" t="s">
-        <v>66</v>
-      </c>
-      <c r="I22" s="63" t="s">
-        <v>87</v>
-      </c>
-      <c r="J22" s="42" t="s">
-        <v>66</v>
-      </c>
-      <c r="K22" s="40" t="s">
-        <v>159</v>
-      </c>
-      <c r="L22" s="59" t="s">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="23" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A23" s="70">
-        <v>1</v>
-      </c>
-      <c r="B23" s="13" t="s">
-        <v>93</v>
-      </c>
-      <c r="C23" s="88"/>
-      <c r="D23" s="61" t="s">
-        <v>94</v>
-      </c>
-      <c r="E23" s="12" t="s">
-        <v>192</v>
-      </c>
-      <c r="F23" s="55"/>
-      <c r="G23" s="50" t="s">
-        <v>104</v>
-      </c>
-      <c r="H23" s="56" t="s">
-        <v>66</v>
-      </c>
-      <c r="I23" s="64" t="s">
-        <v>87</v>
-      </c>
-      <c r="J23" s="56" t="s">
-        <v>66</v>
-      </c>
-      <c r="K23" s="62" t="s">
-        <v>156</v>
-      </c>
-      <c r="L23" s="49" t="s">
-        <v>155</v>
+      <c r="I23" s="61" t="s">
+        <v>14</v>
+      </c>
+      <c r="J23" s="42" t="s">
+        <v>203</v>
+      </c>
+      <c r="K23" s="9"/>
+      <c r="L23" s="59" t="s">
+        <v>158</v>
       </c>
     </row>
     <row r="24" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A24" s="70"/>
-      <c r="B24" s="83" t="s">
+      <c r="A24" s="67"/>
+      <c r="B24" s="13" t="s">
+        <v>88</v>
+      </c>
+      <c r="C24" s="84"/>
+      <c r="D24" s="60" t="s">
+        <v>89</v>
+      </c>
+      <c r="E24" s="12" t="s">
+        <v>177</v>
+      </c>
+      <c r="F24" s="55"/>
+      <c r="G24" s="50" t="s">
+        <v>99</v>
+      </c>
+      <c r="H24" s="56" t="s">
+        <v>203</v>
+      </c>
+      <c r="I24" s="61" t="s">
+        <v>14</v>
+      </c>
+      <c r="J24" s="56" t="s">
+        <v>203</v>
+      </c>
+      <c r="K24" s="60"/>
+      <c r="L24" s="49" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="25" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A25" s="67"/>
+      <c r="B25" s="79" t="s">
         <v>5</v>
       </c>
-      <c r="C24" s="90"/>
-      <c r="D24" s="33" t="s">
-        <v>114</v>
-      </c>
-      <c r="E24" s="33" t="s">
-        <v>44</v>
-      </c>
-      <c r="F24" s="35"/>
-      <c r="G24" s="50"/>
-      <c r="H24" s="29" t="s">
-        <v>65</v>
-      </c>
-      <c r="I24" s="60" t="s">
-        <v>86</v>
-      </c>
-      <c r="J24" s="60" t="s">
-        <v>65</v>
-      </c>
-      <c r="K24" s="40" t="s">
-        <v>158</v>
-      </c>
-      <c r="L24" s="84" t="s">
-        <v>181</v>
-      </c>
-    </row>
-    <row r="25" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A25" s="70">
-        <v>1</v>
-      </c>
-      <c r="B25" s="14" t="s">
+      <c r="C25" s="86"/>
+      <c r="D25" s="33" t="s">
+        <v>109</v>
+      </c>
+      <c r="E25" s="33" t="s">
+        <v>43</v>
+      </c>
+      <c r="F25" s="35"/>
+      <c r="G25" s="50"/>
+      <c r="H25" s="29" t="s">
+        <v>213</v>
+      </c>
+      <c r="I25" s="98" t="s">
+        <v>64</v>
+      </c>
+      <c r="J25" s="98" t="s">
+        <v>213</v>
+      </c>
+      <c r="K25" s="33"/>
+      <c r="L25" s="80" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="26" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A26" s="67"/>
+      <c r="B26" s="14" t="s">
         <v>23</v>
       </c>
-      <c r="C25" s="88"/>
-      <c r="D25" s="9" t="s">
+      <c r="C26" s="84"/>
+      <c r="D26" s="9" t="s">
         <v>24</v>
       </c>
-      <c r="E25" s="9" t="s">
-        <v>192</v>
-      </c>
-      <c r="F25" s="35"/>
-      <c r="G25" s="7" t="s">
-        <v>104</v>
-      </c>
-      <c r="H25" s="29"/>
-      <c r="I25" s="11"/>
-      <c r="J25" s="29"/>
-      <c r="K25" s="40">
-        <v>2</v>
-      </c>
-      <c r="L25" s="94" t="s">
-        <v>218</v>
-      </c>
-    </row>
-    <row r="26" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A26" s="70">
-        <v>1</v>
-      </c>
-      <c r="B26" s="34" t="s">
-        <v>115</v>
-      </c>
-      <c r="C26" s="88" t="s">
-        <v>207</v>
-      </c>
-      <c r="D26" s="9" t="s">
-        <v>8</v>
-      </c>
       <c r="E26" s="9" t="s">
-        <v>192</v>
+        <v>177</v>
       </c>
       <c r="F26" s="35"/>
       <c r="G26" s="7" t="s">
-        <v>105</v>
-      </c>
-      <c r="H26" s="10" t="s">
-        <v>21</v>
-      </c>
-      <c r="I26" s="10" t="s">
-        <v>21</v>
-      </c>
-      <c r="J26" s="30" t="s">
-        <v>21</v>
-      </c>
-      <c r="K26" s="51" t="s">
-        <v>157</v>
-      </c>
-      <c r="L26" s="65" t="s">
-        <v>161</v>
+        <v>99</v>
+      </c>
+      <c r="H26" s="29"/>
+      <c r="I26" s="11"/>
+      <c r="J26" s="29"/>
+      <c r="K26" s="40"/>
+      <c r="L26" s="90" t="s">
+        <v>202</v>
       </c>
     </row>
     <row r="27" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A27" s="70">
-        <v>1</v>
-      </c>
+      <c r="A27" s="67"/>
       <c r="B27" s="34" t="s">
-        <v>116</v>
-      </c>
-      <c r="C27" s="88" t="s">
-        <v>207</v>
+        <v>110</v>
+      </c>
+      <c r="C27" s="84" t="s">
+        <v>191</v>
       </c>
       <c r="D27" s="9" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="E27" s="9" t="s">
-        <v>192</v>
+        <v>177</v>
       </c>
       <c r="F27" s="35"/>
       <c r="G27" s="7" t="s">
-        <v>105</v>
+        <v>100</v>
       </c>
       <c r="H27" s="10" t="s">
         <v>21</v>
@@ -2600,30 +2607,28 @@
       <c r="J27" s="30" t="s">
         <v>21</v>
       </c>
-      <c r="K27" s="51" t="s">
-        <v>157</v>
-      </c>
-      <c r="L27" s="49" t="s">
-        <v>161</v>
+      <c r="K27" s="51"/>
+      <c r="L27" s="62" t="s">
+        <v>148</v>
       </c>
     </row>
     <row r="28" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A28" s="70"/>
+      <c r="A28" s="67"/>
       <c r="B28" s="34" t="s">
-        <v>117</v>
-      </c>
-      <c r="C28" s="88" t="s">
-        <v>207</v>
-      </c>
-      <c r="D28" s="93" t="s">
-        <v>22</v>
+        <v>111</v>
+      </c>
+      <c r="C28" s="84" t="s">
+        <v>191</v>
+      </c>
+      <c r="D28" s="9" t="s">
+        <v>7</v>
       </c>
       <c r="E28" s="9" t="s">
-        <v>192</v>
+        <v>177</v>
       </c>
       <c r="F28" s="35"/>
       <c r="G28" s="7" t="s">
-        <v>105</v>
+        <v>100</v>
       </c>
       <c r="H28" s="10" t="s">
         <v>21</v>
@@ -2634,32 +2639,28 @@
       <c r="J28" s="30" t="s">
         <v>21</v>
       </c>
-      <c r="K28" s="51" t="s">
-        <v>157</v>
-      </c>
+      <c r="K28" s="51"/>
       <c r="L28" s="49" t="s">
-        <v>161</v>
+        <v>148</v>
       </c>
     </row>
     <row r="29" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A29" s="70">
-        <v>1</v>
-      </c>
+      <c r="A29" s="67"/>
       <c r="B29" s="34" t="s">
-        <v>118</v>
-      </c>
-      <c r="C29" s="88" t="s">
-        <v>207</v>
-      </c>
-      <c r="D29" s="9" t="s">
-        <v>9</v>
+        <v>112</v>
+      </c>
+      <c r="C29" s="84" t="s">
+        <v>191</v>
+      </c>
+      <c r="D29" s="89" t="s">
+        <v>22</v>
       </c>
       <c r="E29" s="9" t="s">
-        <v>192</v>
+        <v>177</v>
       </c>
       <c r="F29" s="35"/>
       <c r="G29" s="7" t="s">
-        <v>105</v>
+        <v>100</v>
       </c>
       <c r="H29" s="10" t="s">
         <v>21</v>
@@ -2670,32 +2671,28 @@
       <c r="J29" s="30" t="s">
         <v>21</v>
       </c>
-      <c r="K29" s="51" t="s">
-        <v>157</v>
-      </c>
+      <c r="K29" s="51"/>
       <c r="L29" s="49" t="s">
-        <v>160</v>
+        <v>148</v>
       </c>
     </row>
     <row r="30" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A30" s="70">
-        <v>1</v>
-      </c>
+      <c r="A30" s="67"/>
       <c r="B30" s="34" t="s">
-        <v>119</v>
-      </c>
-      <c r="C30" s="88" t="s">
-        <v>207</v>
+        <v>113</v>
+      </c>
+      <c r="C30" s="84" t="s">
+        <v>191</v>
       </c>
       <c r="D30" s="9" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E30" s="9" t="s">
-        <v>192</v>
+        <v>177</v>
       </c>
       <c r="F30" s="35"/>
       <c r="G30" s="7" t="s">
-        <v>105</v>
+        <v>100</v>
       </c>
       <c r="H30" s="10" t="s">
         <v>21</v>
@@ -2706,88 +2703,88 @@
       <c r="J30" s="30" t="s">
         <v>21</v>
       </c>
-      <c r="K30" s="51" t="s">
-        <v>157</v>
-      </c>
+      <c r="K30" s="51"/>
       <c r="L30" s="49" t="s">
-        <v>160</v>
+        <v>147</v>
       </c>
     </row>
     <row r="31" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A31" s="70"/>
-      <c r="B31" s="13" t="s">
-        <v>120</v>
-      </c>
-      <c r="C31" s="88" t="s">
-        <v>207</v>
-      </c>
-      <c r="D31" s="7" t="s">
-        <v>38</v>
-      </c>
-      <c r="E31" s="10" t="s">
-        <v>44</v>
+      <c r="A31" s="67"/>
+      <c r="B31" s="34" t="s">
+        <v>114</v>
+      </c>
+      <c r="C31" s="84" t="s">
+        <v>191</v>
+      </c>
+      <c r="D31" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="E31" s="9" t="s">
+        <v>177</v>
       </c>
       <c r="F31" s="35"/>
-      <c r="G31" s="35"/>
-      <c r="H31" s="7" t="s">
+      <c r="G31" s="7" t="s">
+        <v>100</v>
+      </c>
+      <c r="H31" s="10" t="s">
         <v>21</v>
       </c>
-      <c r="I31" s="7" t="s">
+      <c r="I31" s="10" t="s">
         <v>21</v>
       </c>
       <c r="J31" s="30" t="s">
         <v>21</v>
       </c>
-      <c r="K31" s="51" t="s">
-        <v>157</v>
-      </c>
+      <c r="K31" s="51"/>
       <c r="L31" s="49" t="s">
-        <v>160</v>
-      </c>
-      <c r="M31" s="36"/>
+        <v>147</v>
+      </c>
     </row>
     <row r="32" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A32" s="70"/>
-      <c r="B32" s="37" t="s">
-        <v>121</v>
-      </c>
-      <c r="C32" s="88"/>
-      <c r="D32" s="9" t="s">
-        <v>123</v>
-      </c>
-      <c r="E32" s="40" t="s">
-        <v>193</v>
-      </c>
-      <c r="F32" s="7" t="s">
-        <v>105</v>
-      </c>
+      <c r="A32" s="67"/>
+      <c r="B32" s="13" t="s">
+        <v>115</v>
+      </c>
+      <c r="C32" s="84" t="s">
+        <v>191</v>
+      </c>
+      <c r="D32" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="E32" s="10" t="s">
+        <v>43</v>
+      </c>
+      <c r="F32" s="35"/>
       <c r="G32" s="35"/>
-      <c r="H32" s="39" t="s">
-        <v>20</v>
-      </c>
-      <c r="I32" s="10"/>
-      <c r="J32" s="30"/>
-      <c r="K32" s="51" t="s">
-        <v>157</v>
-      </c>
-      <c r="L32" s="75" t="s">
-        <v>186</v>
-      </c>
+      <c r="H32" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="I32" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="J32" s="30" t="s">
+        <v>21</v>
+      </c>
+      <c r="K32" s="51"/>
+      <c r="L32" s="49" t="s">
+        <v>147</v>
+      </c>
+      <c r="M32" s="36"/>
     </row>
     <row r="33" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A33" s="70"/>
+      <c r="A33" s="67"/>
       <c r="B33" s="37" t="s">
-        <v>122</v>
-      </c>
-      <c r="C33" s="88"/>
+        <v>116</v>
+      </c>
+      <c r="C33" s="84"/>
       <c r="D33" s="9" t="s">
-        <v>124</v>
+        <v>118</v>
       </c>
       <c r="E33" s="40" t="s">
-        <v>193</v>
+        <v>178</v>
       </c>
       <c r="F33" s="7" t="s">
-        <v>105</v>
+        <v>100</v>
       </c>
       <c r="G33" s="35"/>
       <c r="H33" s="39" t="s">
@@ -2795,60 +2792,48 @@
       </c>
       <c r="I33" s="10"/>
       <c r="J33" s="30"/>
-      <c r="K33" s="51" t="s">
-        <v>157</v>
-      </c>
-      <c r="L33" s="75" t="s">
-        <v>186</v>
+      <c r="K33" s="51"/>
+      <c r="L33" s="72" t="s">
+        <v>171</v>
       </c>
     </row>
     <row r="34" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A34" s="70">
-        <v>1</v>
-      </c>
-      <c r="B34" s="13" t="s">
-        <v>91</v>
-      </c>
-      <c r="C34" s="88"/>
-      <c r="D34" s="7" t="s">
-        <v>92</v>
-      </c>
-      <c r="E34" s="9" t="s">
-        <v>192</v>
-      </c>
-      <c r="F34" s="35"/>
-      <c r="G34" s="7" t="s">
-        <v>27</v>
-      </c>
-      <c r="H34" s="9" t="s">
-        <v>27</v>
-      </c>
-      <c r="I34" s="9" t="s">
-        <v>27</v>
-      </c>
-      <c r="J34" s="9" t="s">
-        <v>27</v>
-      </c>
-      <c r="K34" s="23">
-        <v>65536</v>
-      </c>
-      <c r="L34" s="33" t="s">
+      <c r="A34" s="67"/>
+      <c r="B34" s="37" t="s">
+        <v>117</v>
+      </c>
+      <c r="C34" s="84"/>
+      <c r="D34" s="9" t="s">
+        <v>119</v>
+      </c>
+      <c r="E34" s="40" t="s">
+        <v>178</v>
+      </c>
+      <c r="F34" s="7" t="s">
         <v>100</v>
       </c>
+      <c r="G34" s="35"/>
+      <c r="H34" s="39" t="s">
+        <v>20</v>
+      </c>
+      <c r="I34" s="10"/>
+      <c r="J34" s="30"/>
+      <c r="K34" s="51"/>
+      <c r="L34" s="72" t="s">
+        <v>171</v>
+      </c>
     </row>
     <row r="35" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A35" s="70">
-        <v>1</v>
-      </c>
-      <c r="B35" s="14" t="s">
-        <v>25</v>
-      </c>
-      <c r="C35" s="88"/>
-      <c r="D35" s="9" t="s">
-        <v>26</v>
+      <c r="A35" s="67"/>
+      <c r="B35" s="13" t="s">
+        <v>86</v>
+      </c>
+      <c r="C35" s="84"/>
+      <c r="D35" s="7" t="s">
+        <v>87</v>
       </c>
       <c r="E35" s="9" t="s">
-        <v>192</v>
+        <v>177</v>
       </c>
       <c r="F35" s="35"/>
       <c r="G35" s="7" t="s">
@@ -2857,92 +2842,84 @@
       <c r="H35" s="9" t="s">
         <v>27</v>
       </c>
-      <c r="I35" s="9"/>
-      <c r="J35" s="9"/>
-      <c r="K35" s="23">
-        <v>65536</v>
-      </c>
-      <c r="L35" s="10" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="36" spans="1:12" ht="29" x14ac:dyDescent="0.35">
-      <c r="A36" s="70">
-        <v>1</v>
-      </c>
-      <c r="B36" s="13" t="s">
-        <v>134</v>
-      </c>
-      <c r="C36" s="88"/>
-      <c r="D36" s="7" t="s">
-        <v>217</v>
-      </c>
-      <c r="E36" s="7" t="s">
-        <v>192</v>
-      </c>
-      <c r="F36" s="7"/>
+      <c r="I35" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="J35" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="K35" s="23"/>
+      <c r="L35" s="33" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="36" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A36" s="67"/>
+      <c r="B36" s="14" t="s">
+        <v>25</v>
+      </c>
+      <c r="C36" s="84"/>
+      <c r="D36" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="E36" s="9" t="s">
+        <v>177</v>
+      </c>
+      <c r="F36" s="35"/>
       <c r="G36" s="7" t="s">
         <v>27</v>
       </c>
-      <c r="H36" s="39" t="s">
+      <c r="H36" s="9" t="s">
         <v>27</v>
       </c>
       <c r="I36" s="9"/>
-      <c r="J36" s="30"/>
-      <c r="K36" s="23">
-        <v>65536</v>
-      </c>
-      <c r="L36" s="6" t="s">
-        <v>204</v>
-      </c>
-    </row>
-    <row r="37" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A37" s="70"/>
-      <c r="B37" s="14" t="s">
+      <c r="J36" s="9"/>
+      <c r="K36" s="23"/>
+      <c r="L36" s="10" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="37" spans="1:12" ht="29" x14ac:dyDescent="0.35">
+      <c r="A37" s="67"/>
+      <c r="B37" s="13" t="s">
+        <v>129</v>
+      </c>
+      <c r="C37" s="84"/>
+      <c r="D37" s="7" t="s">
+        <v>201</v>
+      </c>
+      <c r="E37" s="7" t="s">
+        <v>177</v>
+      </c>
+      <c r="F37" s="7"/>
+      <c r="G37" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="H37" s="39" t="s">
+        <v>27</v>
+      </c>
+      <c r="I37" s="9"/>
+      <c r="J37" s="30"/>
+      <c r="K37" s="23"/>
+      <c r="L37" s="6" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="38" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A38" s="67"/>
+      <c r="B38" s="14" t="s">
         <v>28</v>
       </c>
-      <c r="C37" s="88" t="s">
-        <v>210</v>
-      </c>
-      <c r="D37" s="75" t="s">
+      <c r="C38" s="84" t="s">
+        <v>194</v>
+      </c>
+      <c r="D38" s="72" t="s">
         <v>11</v>
       </c>
-      <c r="E37" s="9" t="s">
-        <v>44</v>
-      </c>
-      <c r="F37" s="35"/>
-      <c r="G37" s="35"/>
-      <c r="H37" s="10" t="s">
-        <v>14</v>
-      </c>
-      <c r="I37" s="10" t="s">
-        <v>14</v>
-      </c>
-      <c r="J37" s="30" t="s">
-        <v>14</v>
-      </c>
-      <c r="K37" s="23">
-        <v>65536</v>
-      </c>
-      <c r="L37" s="10"/>
-    </row>
-    <row r="38" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A38" s="70"/>
-      <c r="B38" s="37" t="s">
-        <v>29</v>
-      </c>
-      <c r="C38" s="88" t="s">
-        <v>210</v>
-      </c>
-      <c r="D38" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="E38" s="40" t="s">
-        <v>193</v>
-      </c>
-      <c r="F38" s="7" t="s">
-        <v>105</v>
-      </c>
+      <c r="E38" s="9" t="s">
+        <v>43</v>
+      </c>
+      <c r="F38" s="35"/>
       <c r="G38" s="35"/>
       <c r="H38" s="10" t="s">
         <v>14</v>
@@ -2953,123 +2930,115 @@
       <c r="J38" s="30" t="s">
         <v>14</v>
       </c>
-      <c r="K38" s="23">
-        <v>65536</v>
-      </c>
-      <c r="L38" s="75" t="s">
-        <v>189</v>
-      </c>
+      <c r="K38" s="23"/>
+      <c r="L38" s="10"/>
     </row>
     <row r="39" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A39" s="67"/>
       <c r="B39" s="37" t="s">
-        <v>205</v>
-      </c>
-      <c r="C39" s="88" t="s">
-        <v>207</v>
+        <v>29</v>
+      </c>
+      <c r="C39" s="84" t="s">
+        <v>194</v>
       </c>
       <c r="D39" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="E39" s="40" t="s">
+        <v>178</v>
+      </c>
+      <c r="F39" s="7" t="s">
+        <v>100</v>
+      </c>
+      <c r="G39" s="35"/>
+      <c r="H39" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="I39" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="J39" s="30" t="s">
+        <v>14</v>
+      </c>
+      <c r="K39" s="23"/>
+      <c r="L39" s="72" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="40" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A40" s="64"/>
+      <c r="B40" s="37" t="s">
+        <v>189</v>
+      </c>
+      <c r="C40" s="84" t="s">
+        <v>191</v>
+      </c>
+      <c r="D40" s="7" t="s">
+        <v>214</v>
+      </c>
+      <c r="E40" s="59" t="s">
+        <v>179</v>
+      </c>
+      <c r="F40" s="7" t="s">
+        <v>100</v>
+      </c>
+      <c r="G40" s="35"/>
+      <c r="H40" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="I40" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="J40" s="30" t="s">
+        <v>21</v>
+      </c>
+      <c r="K40" s="23"/>
+      <c r="L40" s="59" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="41" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A41" s="5"/>
+      <c r="B41" s="13" t="s">
         <v>31</v>
       </c>
-      <c r="E39" s="59" t="s">
-        <v>194</v>
-      </c>
-      <c r="F39" s="7" t="s">
-        <v>105</v>
-      </c>
-      <c r="G39" s="35"/>
-      <c r="H39" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="I39" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="J39" s="30" t="s">
-        <v>21</v>
-      </c>
-      <c r="K39" s="23">
-        <v>4294967296</v>
-      </c>
-      <c r="L39" s="59" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="40" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A40" s="5"/>
-      <c r="B40" s="13" t="s">
-        <v>32</v>
-      </c>
-      <c r="C40" s="88"/>
-      <c r="D40" s="6" t="s">
-        <v>37</v>
-      </c>
-      <c r="E40" s="9" t="s">
-        <v>44</v>
-      </c>
-      <c r="F40" s="7"/>
-      <c r="G40" s="35"/>
-      <c r="H40" s="59" t="s">
-        <v>14</v>
-      </c>
-      <c r="I40" s="10" t="s">
-        <v>14</v>
-      </c>
-      <c r="J40" s="29" t="s">
+      <c r="C41" s="84"/>
+      <c r="D41" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="E41" s="9" t="s">
+        <v>43</v>
+      </c>
+      <c r="F41" s="7"/>
+      <c r="G41" s="35"/>
+      <c r="H41" s="59" t="s">
+        <v>14</v>
+      </c>
+      <c r="I41" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="J41" s="29" t="s">
         <v>27</v>
       </c>
-      <c r="K40" s="23">
-        <v>65536</v>
-      </c>
-      <c r="L40" s="65" t="s">
-        <v>185</v>
-      </c>
-    </row>
-    <row r="41" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A41" s="67"/>
-      <c r="B41" s="37" t="s">
-        <v>40</v>
-      </c>
-      <c r="C41" s="88"/>
-      <c r="D41" s="39" t="s">
-        <v>140</v>
-      </c>
-      <c r="E41" s="59" t="s">
-        <v>194</v>
-      </c>
-      <c r="F41" s="7" t="s">
-        <v>105</v>
-      </c>
-      <c r="G41" s="35"/>
-      <c r="H41" s="26" t="s">
-        <v>14</v>
-      </c>
-      <c r="I41" s="26" t="s">
-        <v>14</v>
-      </c>
-      <c r="J41" s="65" t="s">
-        <v>14</v>
-      </c>
-      <c r="K41" s="23">
-        <v>65536</v>
-      </c>
-      <c r="L41" s="59" t="s">
-        <v>172</v>
+      <c r="K41" s="23"/>
+      <c r="L41" s="62" t="s">
+        <v>170</v>
       </c>
     </row>
     <row r="42" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A42" s="67"/>
+      <c r="A42" s="64"/>
       <c r="B42" s="37" t="s">
-        <v>41</v>
-      </c>
-      <c r="C42" s="88"/>
-      <c r="D42" s="38" t="s">
-        <v>33</v>
+        <v>39</v>
+      </c>
+      <c r="C42" s="84"/>
+      <c r="D42" s="39" t="s">
+        <v>135</v>
       </c>
       <c r="E42" s="59" t="s">
-        <v>194</v>
+        <v>179</v>
       </c>
       <c r="F42" s="7" t="s">
-        <v>105</v>
+        <v>100</v>
       </c>
       <c r="G42" s="35"/>
       <c r="H42" s="26" t="s">
@@ -3078,318 +3047,302 @@
       <c r="I42" s="26" t="s">
         <v>14</v>
       </c>
-      <c r="J42" s="65" t="s">
-        <v>14</v>
-      </c>
-      <c r="K42" s="23">
-        <v>65536</v>
-      </c>
+      <c r="J42" s="62" t="s">
+        <v>14</v>
+      </c>
+      <c r="K42" s="23"/>
       <c r="L42" s="59" t="s">
-        <v>172</v>
+        <v>157</v>
       </c>
     </row>
     <row r="43" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A43" s="5"/>
-      <c r="B43" s="13" t="s">
-        <v>42</v>
-      </c>
-      <c r="C43" s="88"/>
-      <c r="D43" s="6" t="s">
-        <v>36</v>
-      </c>
-      <c r="E43" s="9" t="s">
-        <v>44</v>
-      </c>
-      <c r="F43" s="35"/>
+      <c r="A43" s="64"/>
+      <c r="B43" s="37" t="s">
+        <v>40</v>
+      </c>
+      <c r="C43" s="84"/>
+      <c r="D43" s="38" t="s">
+        <v>32</v>
+      </c>
+      <c r="E43" s="59" t="s">
+        <v>179</v>
+      </c>
+      <c r="F43" s="7" t="s">
+        <v>100</v>
+      </c>
       <c r="G43" s="35"/>
-      <c r="H43" s="10"/>
+      <c r="H43" s="26" t="s">
+        <v>14</v>
+      </c>
       <c r="I43" s="26" t="s">
         <v>14</v>
       </c>
-      <c r="J43" s="65" t="s">
-        <v>14</v>
-      </c>
-      <c r="K43" s="23">
-        <v>65536</v>
-      </c>
-      <c r="L43" s="65" t="s">
-        <v>183</v>
+      <c r="J43" s="62" t="s">
+        <v>14</v>
+      </c>
+      <c r="K43" s="23"/>
+      <c r="L43" s="59" t="s">
+        <v>157</v>
       </c>
     </row>
     <row r="44" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A44" s="5"/>
       <c r="B44" s="13" t="s">
-        <v>111</v>
-      </c>
-      <c r="C44" s="88"/>
-      <c r="D44" s="7" t="s">
-        <v>34</v>
+        <v>41</v>
+      </c>
+      <c r="C44" s="84"/>
+      <c r="D44" s="6" t="s">
+        <v>35</v>
       </c>
       <c r="E44" s="9" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F44" s="35"/>
       <c r="G44" s="35"/>
       <c r="H44" s="10"/>
-      <c r="I44" s="10" t="s">
-        <v>67</v>
-      </c>
-      <c r="J44" s="65" t="s">
-        <v>67</v>
-      </c>
-      <c r="K44" s="23">
-        <v>256</v>
-      </c>
-      <c r="L44" s="49" t="s">
-        <v>163</v>
+      <c r="I44" s="26" t="s">
+        <v>14</v>
+      </c>
+      <c r="J44" s="62" t="s">
+        <v>14</v>
+      </c>
+      <c r="K44" s="23"/>
+      <c r="L44" s="62" t="s">
+        <v>168</v>
       </c>
     </row>
     <row r="45" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A45" s="5"/>
       <c r="B45" s="13" t="s">
-        <v>112</v>
-      </c>
-      <c r="C45" s="88"/>
+        <v>106</v>
+      </c>
+      <c r="C45" s="84"/>
       <c r="D45" s="7" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="E45" s="9" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F45" s="35"/>
       <c r="G45" s="35"/>
       <c r="H45" s="10"/>
       <c r="I45" s="10" t="s">
-        <v>67</v>
-      </c>
-      <c r="J45" s="65" t="s">
-        <v>67</v>
-      </c>
-      <c r="K45" s="23">
-        <v>256</v>
-      </c>
+        <v>64</v>
+      </c>
+      <c r="J45" s="62" t="s">
+        <v>64</v>
+      </c>
+      <c r="K45" s="23"/>
       <c r="L45" s="49" t="s">
-        <v>163</v>
+        <v>150</v>
       </c>
     </row>
     <row r="46" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A46" s="5"/>
       <c r="B46" s="13" t="s">
-        <v>113</v>
-      </c>
-      <c r="C46" s="88"/>
+        <v>107</v>
+      </c>
+      <c r="C46" s="84"/>
       <c r="D46" s="7" t="s">
-        <v>216</v>
+        <v>34</v>
       </c>
       <c r="E46" s="9" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F46" s="35"/>
       <c r="G46" s="35"/>
       <c r="H46" s="10"/>
       <c r="I46" s="10" t="s">
-        <v>67</v>
-      </c>
-      <c r="J46" s="65" t="s">
-        <v>67</v>
-      </c>
-      <c r="K46" s="23">
-        <v>256</v>
-      </c>
+        <v>64</v>
+      </c>
+      <c r="J46" s="62" t="s">
+        <v>64</v>
+      </c>
+      <c r="K46" s="23"/>
       <c r="L46" s="49" t="s">
-        <v>163</v>
+        <v>150</v>
       </c>
     </row>
     <row r="47" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A47" s="5"/>
-      <c r="B47" s="66" t="s">
-        <v>175</v>
-      </c>
-      <c r="C47" s="88"/>
+      <c r="B47" s="13" t="s">
+        <v>108</v>
+      </c>
+      <c r="C47" s="84"/>
       <c r="D47" s="7" t="s">
-        <v>179</v>
+        <v>200</v>
       </c>
       <c r="E47" s="9" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F47" s="35"/>
       <c r="G47" s="35"/>
       <c r="H47" s="10"/>
-      <c r="I47" s="11" t="s">
-        <v>170</v>
-      </c>
-      <c r="J47" s="24"/>
-      <c r="K47" s="57" t="s">
-        <v>158</v>
-      </c>
-      <c r="L47" s="65" t="s">
-        <v>180</v>
+      <c r="I47" s="10" t="s">
+        <v>64</v>
+      </c>
+      <c r="J47" s="62" t="s">
+        <v>64</v>
+      </c>
+      <c r="K47" s="23"/>
+      <c r="L47" s="49" t="s">
+        <v>150</v>
       </c>
     </row>
     <row r="48" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A48" s="5"/>
-      <c r="B48" s="66" t="s">
-        <v>39</v>
-      </c>
-      <c r="C48" s="88"/>
+      <c r="B48" s="63" t="s">
+        <v>160</v>
+      </c>
+      <c r="C48" s="84"/>
       <c r="D48" s="7" t="s">
-        <v>178</v>
+        <v>164</v>
       </c>
       <c r="E48" s="9" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F48" s="35"/>
       <c r="G48" s="35"/>
       <c r="H48" s="10"/>
-      <c r="I48" s="11" t="s">
-        <v>170</v>
+      <c r="I48" s="91" t="s">
+        <v>204</v>
       </c>
       <c r="J48" s="24"/>
-      <c r="K48" s="57" t="s">
-        <v>158</v>
-      </c>
-      <c r="L48" s="65" t="s">
-        <v>176</v>
+      <c r="K48" s="7" t="s">
+        <v>164</v>
+      </c>
+      <c r="L48" s="62" t="s">
+        <v>165</v>
       </c>
     </row>
     <row r="49" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A49" s="5"/>
-      <c r="B49" s="66" t="s">
-        <v>164</v>
-      </c>
-      <c r="C49" s="88"/>
+      <c r="B49" s="63" t="s">
+        <v>38</v>
+      </c>
+      <c r="C49" s="84"/>
       <c r="D49" s="7" t="s">
-        <v>177</v>
+        <v>163</v>
       </c>
       <c r="E49" s="9" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F49" s="35"/>
       <c r="G49" s="35"/>
-      <c r="H49" s="26"/>
-      <c r="I49" s="10" t="s">
-        <v>14</v>
+      <c r="H49" s="10"/>
+      <c r="I49" s="91" t="s">
+        <v>204</v>
       </c>
       <c r="J49" s="24"/>
-      <c r="K49" s="23">
-        <v>65536</v>
-      </c>
-      <c r="L49" s="65" t="s">
-        <v>182</v>
-      </c>
-    </row>
-    <row r="50" spans="1:13" ht="29" x14ac:dyDescent="0.35">
-      <c r="A50" s="72"/>
-      <c r="B50" s="76" t="s">
-        <v>195</v>
-      </c>
-      <c r="C50" s="29" t="s">
-        <v>210</v>
-      </c>
-      <c r="D50" s="11" t="s">
-        <v>90</v>
+      <c r="K49" s="7" t="s">
+        <v>163</v>
+      </c>
+      <c r="L49" s="62" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="50" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A50" s="5"/>
+      <c r="B50" s="63" t="s">
+        <v>151</v>
+      </c>
+      <c r="C50" s="84"/>
+      <c r="D50" s="7" t="s">
+        <v>162</v>
       </c>
       <c r="E50" s="9" t="s">
-        <v>193</v>
-      </c>
-      <c r="F50" s="59" t="s">
-        <v>105</v>
-      </c>
+        <v>43</v>
+      </c>
+      <c r="F50" s="35"/>
       <c r="G50" s="35"/>
-      <c r="H50" s="10" t="s">
-        <v>67</v>
-      </c>
+      <c r="H50" s="26"/>
       <c r="I50" s="10" t="s">
-        <v>67</v>
+        <v>14</v>
       </c>
       <c r="J50" s="24"/>
-      <c r="K50" s="23">
-        <v>256</v>
-      </c>
-      <c r="L50" s="77" t="s">
-        <v>191</v>
-      </c>
-      <c r="M50" s="36"/>
+      <c r="K50" s="23"/>
+      <c r="L50" s="62" t="s">
+        <v>167</v>
+      </c>
     </row>
     <row r="51" spans="1:13" ht="29" x14ac:dyDescent="0.35">
-      <c r="A51" s="72"/>
-      <c r="B51" s="76" t="s">
-        <v>196</v>
+      <c r="A51" s="69"/>
+      <c r="B51" s="73" t="s">
+        <v>180</v>
       </c>
       <c r="C51" s="29" t="s">
-        <v>210</v>
+        <v>194</v>
       </c>
       <c r="D51" s="11" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="E51" s="9" t="s">
-        <v>193</v>
+        <v>178</v>
       </c>
       <c r="F51" s="59" t="s">
-        <v>105</v>
+        <v>100</v>
       </c>
       <c r="G51" s="35"/>
       <c r="H51" s="10" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="I51" s="10" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="J51" s="24"/>
-      <c r="K51" s="23">
-        <v>256</v>
-      </c>
-      <c r="L51" s="77" t="s">
-        <v>190</v>
+      <c r="K51" s="23"/>
+      <c r="L51" s="74" t="s">
+        <v>176</v>
       </c>
       <c r="M51" s="36"/>
     </row>
-    <row r="52" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A52" s="5"/>
-      <c r="B52" s="13" t="s">
-        <v>71</v>
-      </c>
-      <c r="C52" s="88" t="s">
-        <v>211</v>
-      </c>
-      <c r="D52" s="7" t="s">
-        <v>137</v>
+    <row r="52" spans="1:13" ht="29" x14ac:dyDescent="0.35">
+      <c r="A52" s="69"/>
+      <c r="B52" s="73" t="s">
+        <v>181</v>
+      </c>
+      <c r="C52" s="29" t="s">
+        <v>194</v>
+      </c>
+      <c r="D52" s="11" t="s">
+        <v>84</v>
       </c>
       <c r="E52" s="9" t="s">
-        <v>44</v>
-      </c>
-      <c r="F52" s="35"/>
+        <v>178</v>
+      </c>
+      <c r="F52" s="59" t="s">
+        <v>100</v>
+      </c>
       <c r="G52" s="35"/>
-      <c r="H52" s="10"/>
-      <c r="I52" s="26" t="s">
-        <v>14</v>
-      </c>
-      <c r="J52" s="26" t="s">
-        <v>14</v>
-      </c>
-      <c r="K52" s="23">
-        <v>65536</v>
-      </c>
-      <c r="L52" s="27" t="s">
-        <v>95</v>
-      </c>
+      <c r="H52" s="10" t="s">
+        <v>64</v>
+      </c>
+      <c r="I52" s="10" t="s">
+        <v>64</v>
+      </c>
+      <c r="J52" s="24"/>
+      <c r="K52" s="23"/>
+      <c r="L52" s="74" t="s">
+        <v>175</v>
+      </c>
+      <c r="M52" s="36"/>
     </row>
     <row r="53" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A53" s="5"/>
       <c r="B53" s="13" t="s">
-        <v>72</v>
-      </c>
-      <c r="C53" s="88" t="s">
-        <v>211</v>
+        <v>68</v>
+      </c>
+      <c r="C53" s="84" t="s">
+        <v>195</v>
       </c>
       <c r="D53" s="7" t="s">
-        <v>138</v>
+        <v>132</v>
       </c>
       <c r="E53" s="9" t="s">
-        <v>44</v>
-      </c>
-      <c r="F53" s="9"/>
-      <c r="G53" s="9"/>
+        <v>43</v>
+      </c>
+      <c r="F53" s="35"/>
+      <c r="G53" s="35"/>
       <c r="H53" s="10"/>
       <c r="I53" s="26" t="s">
         <v>14</v>
@@ -3397,26 +3350,24 @@
       <c r="J53" s="26" t="s">
         <v>14</v>
       </c>
-      <c r="K53" s="23">
-        <v>65536</v>
-      </c>
+      <c r="K53" s="23"/>
       <c r="L53" s="27" t="s">
-        <v>95</v>
+        <v>90</v>
       </c>
     </row>
     <row r="54" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A54" s="5"/>
       <c r="B54" s="13" t="s">
-        <v>2</v>
-      </c>
-      <c r="C54" s="88" t="s">
-        <v>211</v>
+        <v>69</v>
+      </c>
+      <c r="C54" s="84" t="s">
+        <v>195</v>
       </c>
       <c r="D54" s="7" t="s">
-        <v>45</v>
+        <v>133</v>
       </c>
       <c r="E54" s="9" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F54" s="9"/>
       <c r="G54" s="9"/>
@@ -3427,25 +3378,24 @@
       <c r="J54" s="26" t="s">
         <v>14</v>
       </c>
-      <c r="K54" s="23">
-        <v>65536</v>
-      </c>
+      <c r="K54" s="23"/>
       <c r="L54" s="27" t="s">
-        <v>95</v>
+        <v>90</v>
       </c>
     </row>
     <row r="55" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="B55" s="15" t="s">
-        <v>69</v>
-      </c>
-      <c r="C55" s="30" t="s">
-        <v>211</v>
-      </c>
-      <c r="D55" s="9" t="s">
-        <v>49</v>
+      <c r="A55" s="5"/>
+      <c r="B55" s="13" t="s">
+        <v>2</v>
+      </c>
+      <c r="C55" s="84" t="s">
+        <v>195</v>
+      </c>
+      <c r="D55" s="7" t="s">
+        <v>44</v>
       </c>
       <c r="E55" s="9" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F55" s="9"/>
       <c r="G55" s="9"/>
@@ -3456,25 +3406,23 @@
       <c r="J55" s="26" t="s">
         <v>14</v>
       </c>
-      <c r="K55" s="23">
-        <v>65536</v>
-      </c>
+      <c r="K55" s="23"/>
       <c r="L55" s="27" t="s">
-        <v>95</v>
+        <v>90</v>
       </c>
     </row>
     <row r="56" spans="1:13" x14ac:dyDescent="0.35">
       <c r="B56" s="15" t="s">
-        <v>6</v>
+        <v>66</v>
       </c>
       <c r="C56" s="30" t="s">
-        <v>211</v>
+        <v>195</v>
       </c>
       <c r="D56" s="9" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="E56" s="9" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F56" s="9"/>
       <c r="G56" s="9"/>
@@ -3485,25 +3433,23 @@
       <c r="J56" s="26" t="s">
         <v>14</v>
       </c>
-      <c r="K56" s="23">
-        <v>65536</v>
-      </c>
+      <c r="K56" s="23"/>
       <c r="L56" s="27" t="s">
-        <v>95</v>
+        <v>90</v>
       </c>
     </row>
     <row r="57" spans="1:13" x14ac:dyDescent="0.35">
       <c r="B57" s="15" t="s">
-        <v>70</v>
+        <v>6</v>
       </c>
       <c r="C57" s="30" t="s">
-        <v>211</v>
+        <v>195</v>
       </c>
       <c r="D57" s="9" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="E57" s="9" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F57" s="9"/>
       <c r="G57" s="9"/>
@@ -3514,25 +3460,23 @@
       <c r="J57" s="26" t="s">
         <v>14</v>
       </c>
-      <c r="K57" s="23">
-        <v>65536</v>
-      </c>
+      <c r="K57" s="23"/>
       <c r="L57" s="27" t="s">
-        <v>95</v>
+        <v>90</v>
       </c>
     </row>
     <row r="58" spans="1:13" x14ac:dyDescent="0.35">
       <c r="B58" s="15" t="s">
-        <v>73</v>
+        <v>67</v>
       </c>
       <c r="C58" s="30" t="s">
-        <v>211</v>
+        <v>195</v>
       </c>
       <c r="D58" s="9" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="E58" s="9" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F58" s="9"/>
       <c r="G58" s="9"/>
@@ -3543,25 +3487,23 @@
       <c r="J58" s="26" t="s">
         <v>14</v>
       </c>
-      <c r="K58" s="23">
-        <v>65536</v>
-      </c>
+      <c r="K58" s="23"/>
       <c r="L58" s="27" t="s">
-        <v>95</v>
+        <v>90</v>
       </c>
     </row>
     <row r="59" spans="1:13" x14ac:dyDescent="0.35">
       <c r="B59" s="15" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="C59" s="30" t="s">
-        <v>211</v>
+        <v>195</v>
       </c>
       <c r="D59" s="9" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="E59" s="9" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F59" s="9"/>
       <c r="G59" s="9"/>
@@ -3572,25 +3514,23 @@
       <c r="J59" s="26" t="s">
         <v>14</v>
       </c>
-      <c r="K59" s="23">
-        <v>65536</v>
-      </c>
+      <c r="K59" s="23"/>
       <c r="L59" s="27" t="s">
-        <v>95</v>
+        <v>90</v>
       </c>
     </row>
     <row r="60" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="B60" s="47" t="s">
-        <v>75</v>
+      <c r="B60" s="15" t="s">
+        <v>71</v>
       </c>
       <c r="C60" s="30" t="s">
-        <v>211</v>
+        <v>195</v>
       </c>
       <c r="D60" s="9" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="E60" s="9" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F60" s="9"/>
       <c r="G60" s="9"/>
@@ -3601,25 +3541,23 @@
       <c r="J60" s="26" t="s">
         <v>14</v>
       </c>
-      <c r="K60" s="23">
-        <v>65536</v>
-      </c>
+      <c r="K60" s="23"/>
       <c r="L60" s="27" t="s">
-        <v>95</v>
+        <v>90</v>
       </c>
     </row>
     <row r="61" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="B61" s="15" t="s">
-        <v>76</v>
+      <c r="B61" s="47" t="s">
+        <v>72</v>
       </c>
       <c r="C61" s="30" t="s">
-        <v>211</v>
+        <v>195</v>
       </c>
       <c r="D61" s="9" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="E61" s="9" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F61" s="9"/>
       <c r="G61" s="9"/>
@@ -3630,54 +3568,50 @@
       <c r="J61" s="26" t="s">
         <v>14</v>
       </c>
-      <c r="K61" s="23">
-        <v>65536</v>
-      </c>
+      <c r="K61" s="23"/>
       <c r="L61" s="27" t="s">
-        <v>95</v>
+        <v>90</v>
       </c>
     </row>
     <row r="62" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="B62" s="20" t="s">
-        <v>79</v>
-      </c>
-      <c r="C62" s="91" t="s">
-        <v>209</v>
-      </c>
-      <c r="D62" s="12" t="s">
-        <v>56</v>
-      </c>
-      <c r="E62" s="12" t="s">
-        <v>44</v>
-      </c>
-      <c r="F62" s="12"/>
-      <c r="G62" s="12"/>
-      <c r="H62" s="21"/>
-      <c r="I62" s="21" t="s">
-        <v>20</v>
-      </c>
-      <c r="J62" s="21" t="s">
-        <v>20</v>
-      </c>
-      <c r="K62" s="51" t="s">
-        <v>157</v>
-      </c>
-      <c r="L62" s="28" t="s">
-        <v>96</v>
+      <c r="B62" s="15" t="s">
+        <v>73</v>
+      </c>
+      <c r="C62" s="30" t="s">
+        <v>195</v>
+      </c>
+      <c r="D62" s="9" t="s">
+        <v>54</v>
+      </c>
+      <c r="E62" s="9" t="s">
+        <v>43</v>
+      </c>
+      <c r="F62" s="9"/>
+      <c r="G62" s="9"/>
+      <c r="H62" s="10"/>
+      <c r="I62" s="26" t="s">
+        <v>14</v>
+      </c>
+      <c r="J62" s="26" t="s">
+        <v>14</v>
+      </c>
+      <c r="K62" s="23"/>
+      <c r="L62" s="27" t="s">
+        <v>90</v>
       </c>
     </row>
     <row r="63" spans="1:13" x14ac:dyDescent="0.35">
       <c r="B63" s="20" t="s">
-        <v>80</v>
-      </c>
-      <c r="C63" s="91" t="s">
-        <v>208</v>
+        <v>76</v>
+      </c>
+      <c r="C63" s="87" t="s">
+        <v>193</v>
       </c>
       <c r="D63" s="12" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="E63" s="12" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F63" s="12"/>
       <c r="G63" s="12"/>
@@ -3688,25 +3622,23 @@
       <c r="J63" s="21" t="s">
         <v>20</v>
       </c>
-      <c r="K63" s="51" t="s">
-        <v>157</v>
-      </c>
-      <c r="L63" s="27" t="s">
-        <v>95</v>
+      <c r="K63" s="51"/>
+      <c r="L63" s="28" t="s">
+        <v>91</v>
       </c>
     </row>
     <row r="64" spans="1:13" x14ac:dyDescent="0.35">
       <c r="B64" s="20" t="s">
         <v>77</v>
       </c>
-      <c r="C64" s="91" t="s">
-        <v>209</v>
+      <c r="C64" s="87" t="s">
+        <v>192</v>
       </c>
       <c r="D64" s="12" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="E64" s="12" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F64" s="12"/>
       <c r="G64" s="12"/>
@@ -3717,25 +3649,23 @@
       <c r="J64" s="21" t="s">
         <v>20</v>
       </c>
-      <c r="K64" s="51" t="s">
-        <v>157</v>
-      </c>
+      <c r="K64" s="51"/>
       <c r="L64" s="27" t="s">
-        <v>95</v>
+        <v>90</v>
       </c>
     </row>
     <row r="65" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B65" s="20" t="s">
-        <v>78</v>
-      </c>
-      <c r="C65" s="91" t="s">
-        <v>208</v>
+        <v>74</v>
+      </c>
+      <c r="C65" s="87" t="s">
+        <v>193</v>
       </c>
       <c r="D65" s="12" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="E65" s="12" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F65" s="12"/>
       <c r="G65" s="12"/>
@@ -3746,25 +3676,23 @@
       <c r="J65" s="21" t="s">
         <v>20</v>
       </c>
-      <c r="K65" s="51" t="s">
-        <v>157</v>
-      </c>
+      <c r="K65" s="51"/>
       <c r="L65" s="27" t="s">
-        <v>95</v>
+        <v>90</v>
       </c>
     </row>
     <row r="66" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B66" s="20" t="s">
-        <v>81</v>
-      </c>
-      <c r="C66" s="91" t="s">
-        <v>209</v>
+        <v>75</v>
+      </c>
+      <c r="C66" s="87" t="s">
+        <v>192</v>
       </c>
       <c r="D66" s="12" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="E66" s="12" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F66" s="12"/>
       <c r="G66" s="12"/>
@@ -3775,203 +3703,216 @@
       <c r="J66" s="21" t="s">
         <v>20</v>
       </c>
-      <c r="K66" s="51" t="s">
-        <v>157</v>
-      </c>
-      <c r="L66" s="43" t="s">
-        <v>143</v>
+      <c r="K66" s="51"/>
+      <c r="L66" s="27" t="s">
+        <v>90</v>
       </c>
     </row>
     <row r="67" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B67" s="20" t="s">
-        <v>82</v>
-      </c>
-      <c r="C67" s="91"/>
+        <v>78</v>
+      </c>
+      <c r="C67" s="87" t="s">
+        <v>193</v>
+      </c>
       <c r="D67" s="12" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="E67" s="12" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F67" s="12"/>
       <c r="G67" s="12"/>
       <c r="H67" s="21"/>
       <c r="I67" s="21" t="s">
-        <v>14</v>
+        <v>20</v>
       </c>
       <c r="J67" s="21" t="s">
-        <v>14</v>
-      </c>
-      <c r="K67" s="23">
-        <v>65536</v>
-      </c>
-      <c r="L67" s="50" t="s">
-        <v>162</v>
+        <v>20</v>
+      </c>
+      <c r="K67" s="51"/>
+      <c r="L67" s="43" t="s">
+        <v>138</v>
       </c>
     </row>
     <row r="68" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B68" s="20" t="s">
-        <v>83</v>
-      </c>
-      <c r="C68" s="91"/>
+        <v>79</v>
+      </c>
+      <c r="C68" s="87"/>
       <c r="D68" s="12" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="E68" s="12" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F68" s="12"/>
       <c r="G68" s="12"/>
       <c r="H68" s="21"/>
       <c r="I68" s="21" t="s">
-        <v>67</v>
+        <v>14</v>
       </c>
       <c r="J68" s="21" t="s">
-        <v>67</v>
-      </c>
-      <c r="K68" s="23">
-        <v>256</v>
-      </c>
+        <v>14</v>
+      </c>
+      <c r="K68" s="23"/>
       <c r="L68" s="50" t="s">
-        <v>162</v>
+        <v>149</v>
       </c>
     </row>
     <row r="69" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B69" s="20" t="s">
-        <v>84</v>
-      </c>
-      <c r="C69" s="91"/>
+        <v>80</v>
+      </c>
+      <c r="C69" s="87"/>
       <c r="D69" s="12" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="E69" s="12" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F69" s="12"/>
       <c r="G69" s="12"/>
       <c r="H69" s="21"/>
       <c r="I69" s="21" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="J69" s="21" t="s">
-        <v>67</v>
-      </c>
-      <c r="K69" s="23">
-        <v>256</v>
-      </c>
+        <v>64</v>
+      </c>
+      <c r="K69" s="23"/>
       <c r="L69" s="50" t="s">
-        <v>162</v>
+        <v>149</v>
       </c>
     </row>
     <row r="70" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B70" s="20" t="s">
-        <v>85</v>
-      </c>
-      <c r="C70" s="91"/>
-      <c r="D70" s="22" t="s">
-        <v>64</v>
+        <v>81</v>
+      </c>
+      <c r="C70" s="87"/>
+      <c r="D70" s="12" t="s">
+        <v>62</v>
       </c>
       <c r="E70" s="12" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F70" s="12"/>
       <c r="G70" s="12"/>
       <c r="H70" s="21"/>
       <c r="I70" s="21" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="J70" s="21" t="s">
-        <v>67</v>
-      </c>
-      <c r="K70" s="23">
-        <v>256</v>
-      </c>
+        <v>64</v>
+      </c>
+      <c r="K70" s="23"/>
       <c r="L70" s="50" t="s">
-        <v>162</v>
+        <v>149</v>
       </c>
     </row>
     <row r="71" spans="2:12" x14ac:dyDescent="0.35">
-      <c r="B71" s="31" t="s">
-        <v>133</v>
-      </c>
-      <c r="C71" s="30"/>
-      <c r="D71" s="26" t="s">
-        <v>99</v>
+      <c r="B71" s="20" t="s">
+        <v>82</v>
+      </c>
+      <c r="C71" s="87"/>
+      <c r="D71" s="22" t="s">
+        <v>63</v>
       </c>
       <c r="E71" s="12" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F71" s="12"/>
       <c r="G71" s="12"/>
-      <c r="H71" s="32"/>
-      <c r="I71" s="41" t="s">
-        <v>67</v>
-      </c>
-      <c r="J71" s="21"/>
-      <c r="K71" s="23">
-        <v>256</v>
-      </c>
-      <c r="L71" s="7" t="s">
-        <v>139</v>
+      <c r="H71" s="21"/>
+      <c r="I71" s="21" t="s">
+        <v>64</v>
+      </c>
+      <c r="J71" s="21" t="s">
+        <v>64</v>
+      </c>
+      <c r="K71" s="23"/>
+      <c r="L71" s="50" t="s">
+        <v>149</v>
       </c>
     </row>
     <row r="72" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B72" s="31" t="s">
-        <v>97</v>
+        <v>128</v>
       </c>
       <c r="C72" s="30"/>
       <c r="D72" s="26" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="E72" s="12" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F72" s="12"/>
       <c r="G72" s="12"/>
       <c r="H72" s="32"/>
       <c r="I72" s="41" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="J72" s="21"/>
-      <c r="K72" s="23">
-        <v>256</v>
-      </c>
+      <c r="K72" s="23"/>
       <c r="L72" s="7" t="s">
-        <v>212</v>
+        <v>134</v>
       </c>
     </row>
     <row r="73" spans="2:12" x14ac:dyDescent="0.35">
-      <c r="B73" s="44" t="s">
-        <v>141</v>
+      <c r="B73" s="31" t="s">
+        <v>92</v>
       </c>
       <c r="C73" s="30"/>
-      <c r="D73" s="39" t="s">
-        <v>142</v>
+      <c r="D73" s="26" t="s">
+        <v>93</v>
       </c>
       <c r="E73" s="12" t="s">
-        <v>44</v>
-      </c>
-      <c r="F73" s="32"/>
-      <c r="G73" s="32"/>
+        <v>43</v>
+      </c>
+      <c r="F73" s="12"/>
+      <c r="G73" s="12"/>
       <c r="H73" s="32"/>
       <c r="I73" s="41" t="s">
-        <v>145</v>
-      </c>
-      <c r="J73" s="45"/>
-      <c r="K73" s="51" t="s">
-        <v>157</v>
-      </c>
-      <c r="L73" s="39" t="s">
-        <v>144</v>
+        <v>64</v>
+      </c>
+      <c r="J73" s="21"/>
+      <c r="K73" s="23"/>
+      <c r="L73" s="7" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="74" spans="2:12" x14ac:dyDescent="0.35">
+      <c r="B74" s="44" t="s">
+        <v>136</v>
+      </c>
+      <c r="C74" s="30"/>
+      <c r="D74" s="39" t="s">
+        <v>137</v>
+      </c>
+      <c r="E74" s="12" t="s">
+        <v>43</v>
+      </c>
+      <c r="F74" s="32"/>
+      <c r="G74" s="32"/>
+      <c r="H74" s="32"/>
+      <c r="I74" s="41" t="s">
+        <v>140</v>
+      </c>
+      <c r="J74" s="45"/>
+      <c r="K74" s="51"/>
+      <c r="L74" s="39" t="s">
+        <v>139</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A5:L73"/>
-  <mergeCells count="4">
+  <autoFilter ref="A5:L74"/>
+  <mergeCells count="6">
     <mergeCell ref="B3:L3"/>
-    <mergeCell ref="H9:H12"/>
-    <mergeCell ref="I9:I12"/>
-    <mergeCell ref="J9:J12"/>
+    <mergeCell ref="H9:H13"/>
+    <mergeCell ref="I9:I13"/>
+    <mergeCell ref="J9:J13"/>
+    <mergeCell ref="B10:B11"/>
+    <mergeCell ref="L10:L11"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" scale="54" fitToHeight="0" orientation="landscape" r:id="rId1"/>

--- a/data_input/analytics/OLAP MultiBOM.xlsx
+++ b/data_input/analytics/OLAP MultiBOM.xlsx
@@ -10,14 +10,14 @@
     <sheet name="OLAP MultiBOM" sheetId="6" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'OLAP MultiBOM'!$A$5:$L$74</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'OLAP MultiBOM'!$A$5:$M$74</definedName>
   </definedNames>
   <calcPr calcId="152511" refMode="R1C1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="501" uniqueCount="215">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="506" uniqueCount="220">
   <si>
     <t>Чертежный номер</t>
   </si>
@@ -143,9 +143,6 @@
   </si>
   <si>
     <t>Потребное число всего</t>
-  </si>
-  <si>
-    <t>Название</t>
   </si>
   <si>
     <t>Расчет</t>
@@ -854,6 +851,24 @@
   </si>
   <si>
     <t>daily_flight</t>
+  </si>
+  <si>
+    <t>Поле</t>
+  </si>
+  <si>
+    <t>partno_id</t>
+  </si>
+  <si>
+    <t>Поле Словаря</t>
+  </si>
+  <si>
+    <t>ac_typ_mask</t>
+  </si>
+  <si>
+    <t>serialno_id</t>
+  </si>
+  <si>
+    <t>owner_id</t>
   </si>
 </sst>
 </file>
@@ -1238,7 +1253,7 @@
     <xf numFmtId="0" fontId="27" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="26" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="113">
+  <cellXfs count="117">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="2"/>
     <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="2" applyAlignment="1">
@@ -1563,6 +1578,18 @@
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="4" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -1877,10 +1904,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:M74"/>
+  <dimension ref="A1:N74"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" zoomScale="85" zoomScaleNormal="85" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="D54" sqref="D54"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="E26" sqref="E26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.54296875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1889,22 +1916,23 @@
     <col min="2" max="2" width="43.36328125" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="9.54296875" style="88" customWidth="1"/>
     <col min="4" max="4" width="20.08984375" style="5" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="19.54296875" style="5" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="17.90625" style="5" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="22.90625" style="5" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="17.36328125" style="5" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="22.90625" style="3" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="22.08984375" style="5" customWidth="1"/>
-    <col min="12" max="12" width="163.6328125" style="5" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.81640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="16384" width="8.54296875" style="1"/>
+    <col min="5" max="5" width="20.08984375" style="5" customWidth="1"/>
+    <col min="6" max="6" width="19.54296875" style="5" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="17.90625" style="5" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="22.90625" style="5" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="17.36328125" style="5" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="22.90625" style="3" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="22.08984375" style="5" customWidth="1"/>
+    <col min="13" max="13" width="163.6328125" style="5" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.81640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="16384" width="8.54296875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.35">
       <c r="B1" s="2"/>
       <c r="C1" s="81"/>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:13" x14ac:dyDescent="0.35">
       <c r="B2" s="2"/>
       <c r="C2" s="81"/>
       <c r="D2" s="8"/>
@@ -1915,11 +1943,12 @@
       <c r="I2" s="8"/>
       <c r="J2" s="8"/>
       <c r="K2" s="8"/>
-    </row>
-    <row r="3" spans="1:12" ht="21" x14ac:dyDescent="0.35">
+      <c r="L2" s="8"/>
+    </row>
+    <row r="3" spans="1:13" ht="21" x14ac:dyDescent="0.35">
       <c r="A3" s="4"/>
       <c r="B3" s="99" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="C3" s="99"/>
       <c r="D3" s="99"/>
@@ -1931,69 +1960,71 @@
       <c r="J3" s="99"/>
       <c r="K3" s="99"/>
       <c r="L3" s="99"/>
-    </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="M3" s="99"/>
+    </row>
+    <row r="4" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A4" s="5"/>
       <c r="B4" s="2"/>
       <c r="C4" s="81"/>
-      <c r="H4" s="8"/>
       <c r="I4" s="8"/>
       <c r="J4" s="8"/>
-    </row>
-    <row r="5" spans="1:12" s="2" customFormat="1" ht="43" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="K4" s="8"/>
+    </row>
+    <row r="5" spans="1:13" s="2" customFormat="1" ht="43" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A5" s="71"/>
       <c r="B5" s="19" t="s">
         <v>12</v>
       </c>
       <c r="C5" s="82" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="D5" s="19" t="s">
-        <v>42</v>
+        <v>214</v>
       </c>
       <c r="E5" s="19" t="s">
+        <v>216</v>
+      </c>
+      <c r="F5" s="19" t="s">
         <v>13</v>
       </c>
-      <c r="F5" s="19" t="s">
-        <v>145</v>
-      </c>
       <c r="G5" s="19" t="s">
-        <v>182</v>
+        <v>144</v>
       </c>
       <c r="H5" s="19" t="s">
+        <v>181</v>
+      </c>
+      <c r="I5" s="19" t="s">
+        <v>196</v>
+      </c>
+      <c r="J5" s="19" t="s">
         <v>197</v>
       </c>
-      <c r="I5" s="19" t="s">
+      <c r="K5" s="19" t="s">
         <v>198</v>
       </c>
-      <c r="J5" s="19" t="s">
-        <v>199</v>
-      </c>
-      <c r="K5" s="19" t="s">
-        <v>205</v>
-      </c>
       <c r="L5" s="19" t="s">
+        <v>204</v>
+      </c>
+      <c r="M5" s="19" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A6" s="68"/>
       <c r="B6" s="16" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C6" s="83"/>
       <c r="D6" s="17" t="s">
-        <v>46</v>
-      </c>
-      <c r="E6" s="52" t="s">
-        <v>177</v>
-      </c>
-      <c r="F6" s="52"/>
-      <c r="G6" s="52" t="s">
-        <v>98</v>
-      </c>
-      <c r="H6" s="18" t="s">
-        <v>27</v>
+        <v>45</v>
+      </c>
+      <c r="E6" s="17"/>
+      <c r="F6" s="52" t="s">
+        <v>176</v>
+      </c>
+      <c r="G6" s="52"/>
+      <c r="H6" s="52" t="s">
+        <v>97</v>
       </c>
       <c r="I6" s="18" t="s">
         <v>27</v>
@@ -2001,38 +2032,42 @@
       <c r="J6" s="18" t="s">
         <v>27</v>
       </c>
-      <c r="K6" s="23"/>
-      <c r="L6" s="66" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="K6" s="18" t="s">
+        <v>27</v>
+      </c>
+      <c r="L6" s="23"/>
+      <c r="M6" s="66" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A7" s="67"/>
       <c r="B7" s="13" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C7" s="84"/>
       <c r="D7" s="7" t="s">
-        <v>45</v>
-      </c>
-      <c r="E7" s="33" t="s">
-        <v>43</v>
-      </c>
-      <c r="F7" s="35"/>
+        <v>44</v>
+      </c>
+      <c r="E7" s="7"/>
+      <c r="F7" s="33" t="s">
+        <v>42</v>
+      </c>
       <c r="G7" s="35"/>
-      <c r="H7" s="10"/>
-      <c r="I7" s="10" t="s">
-        <v>64</v>
-      </c>
+      <c r="H7" s="35"/>
+      <c r="I7" s="10"/>
       <c r="J7" s="10" t="s">
-        <v>64</v>
-      </c>
-      <c r="K7" s="61"/>
-      <c r="L7" s="39" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.35">
+        <v>63</v>
+      </c>
+      <c r="K7" s="10" t="s">
+        <v>63</v>
+      </c>
+      <c r="L7" s="61"/>
+      <c r="M7" s="39" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A8" s="67"/>
       <c r="B8" s="13" t="s">
         <v>0</v>
@@ -2041,372 +2076,387 @@
       <c r="D8" s="9" t="s">
         <v>1</v>
       </c>
-      <c r="E8" s="52" t="s">
-        <v>177</v>
-      </c>
-      <c r="F8" s="40" t="s">
-        <v>99</v>
-      </c>
-      <c r="G8" s="7" t="s">
-        <v>99</v>
-      </c>
-      <c r="H8" s="42" t="s">
-        <v>203</v>
-      </c>
-      <c r="I8" s="61" t="s">
-        <v>14</v>
-      </c>
-      <c r="J8" s="42" t="s">
-        <v>203</v>
-      </c>
-      <c r="K8" s="9"/>
-      <c r="L8" s="7" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="9" spans="1:12" ht="14.4" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="E8" s="114" t="s">
+        <v>215</v>
+      </c>
+      <c r="F8" s="52" t="s">
+        <v>176</v>
+      </c>
+      <c r="G8" s="40" t="s">
+        <v>98</v>
+      </c>
+      <c r="H8" s="7" t="s">
+        <v>98</v>
+      </c>
+      <c r="I8" s="42" t="s">
+        <v>202</v>
+      </c>
+      <c r="J8" s="61" t="s">
+        <v>14</v>
+      </c>
+      <c r="K8" s="42" t="s">
+        <v>202</v>
+      </c>
+      <c r="L8" s="9"/>
+      <c r="M8" s="7" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13" ht="14.4" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A9" s="69"/>
       <c r="B9" s="37" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="C9" s="84"/>
       <c r="D9" s="48" t="s">
-        <v>141</v>
-      </c>
-      <c r="E9" s="40" t="s">
-        <v>178</v>
-      </c>
-      <c r="F9" s="95" t="s">
-        <v>100</v>
-      </c>
-      <c r="G9" s="35"/>
-      <c r="H9" s="100" t="s">
-        <v>204</v>
-      </c>
-      <c r="I9" s="103" t="s">
-        <v>204</v>
-      </c>
-      <c r="J9" s="106" t="s">
-        <v>204</v>
-      </c>
-      <c r="K9" s="93" t="s">
-        <v>206</v>
-      </c>
-      <c r="L9" s="70" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.35">
+        <v>140</v>
+      </c>
+      <c r="E9" s="48"/>
+      <c r="F9" s="40" t="s">
+        <v>177</v>
+      </c>
+      <c r="G9" s="95" t="s">
+        <v>99</v>
+      </c>
+      <c r="H9" s="35"/>
+      <c r="I9" s="100" t="s">
+        <v>203</v>
+      </c>
+      <c r="J9" s="103" t="s">
+        <v>203</v>
+      </c>
+      <c r="K9" s="106" t="s">
+        <v>203</v>
+      </c>
+      <c r="L9" s="93" t="s">
+        <v>205</v>
+      </c>
+      <c r="M9" s="70" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A10" s="69"/>
       <c r="B10" s="109" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="C10" s="84"/>
       <c r="D10" s="97" t="s">
-        <v>209</v>
-      </c>
-      <c r="E10" s="40" t="s">
-        <v>178</v>
-      </c>
-      <c r="F10" s="95" t="s">
-        <v>100</v>
-      </c>
-      <c r="G10" s="35"/>
-      <c r="H10" s="101"/>
-      <c r="I10" s="104"/>
-      <c r="J10" s="107"/>
-      <c r="K10" s="93" t="s">
-        <v>211</v>
-      </c>
-      <c r="L10" s="111" t="s">
-        <v>184</v>
-      </c>
-    </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.35">
+        <v>208</v>
+      </c>
+      <c r="E10" s="97"/>
+      <c r="F10" s="40" t="s">
+        <v>177</v>
+      </c>
+      <c r="G10" s="95" t="s">
+        <v>99</v>
+      </c>
+      <c r="H10" s="35"/>
+      <c r="I10" s="101"/>
+      <c r="J10" s="104"/>
+      <c r="K10" s="107"/>
+      <c r="L10" s="93" t="s">
+        <v>210</v>
+      </c>
+      <c r="M10" s="111" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A11" s="69"/>
       <c r="B11" s="110"/>
       <c r="C11" s="84"/>
       <c r="D11" s="94" t="s">
-        <v>210</v>
-      </c>
-      <c r="E11" s="40" t="s">
-        <v>178</v>
-      </c>
-      <c r="F11" s="95" t="s">
-        <v>100</v>
-      </c>
-      <c r="G11" s="35"/>
-      <c r="H11" s="101"/>
-      <c r="I11" s="104"/>
-      <c r="J11" s="107"/>
-      <c r="K11" s="93" t="s">
-        <v>212</v>
-      </c>
-      <c r="L11" s="112"/>
-    </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.35">
+        <v>209</v>
+      </c>
+      <c r="E11" s="94"/>
+      <c r="F11" s="40" t="s">
+        <v>177</v>
+      </c>
+      <c r="G11" s="95" t="s">
+        <v>99</v>
+      </c>
+      <c r="H11" s="35"/>
+      <c r="I11" s="101"/>
+      <c r="J11" s="104"/>
+      <c r="K11" s="107"/>
+      <c r="L11" s="93" t="s">
+        <v>211</v>
+      </c>
+      <c r="M11" s="112"/>
+    </row>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A12" s="69"/>
       <c r="B12" s="37" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="C12" s="84"/>
       <c r="D12" s="72" t="s">
-        <v>121</v>
-      </c>
-      <c r="E12" s="40" t="s">
-        <v>178</v>
-      </c>
-      <c r="F12" s="95" t="s">
-        <v>100</v>
-      </c>
-      <c r="G12" s="35"/>
-      <c r="H12" s="101"/>
-      <c r="I12" s="104"/>
-      <c r="J12" s="107"/>
-      <c r="K12" s="93" t="s">
-        <v>207</v>
-      </c>
-      <c r="L12" s="77" t="s">
-        <v>185</v>
-      </c>
-    </row>
-    <row r="13" spans="1:12" ht="29" x14ac:dyDescent="0.35">
+        <v>120</v>
+      </c>
+      <c r="E12" s="72"/>
+      <c r="F12" s="40" t="s">
+        <v>177</v>
+      </c>
+      <c r="G12" s="95" t="s">
+        <v>99</v>
+      </c>
+      <c r="H12" s="35"/>
+      <c r="I12" s="101"/>
+      <c r="J12" s="104"/>
+      <c r="K12" s="107"/>
+      <c r="L12" s="93" t="s">
+        <v>206</v>
+      </c>
+      <c r="M12" s="77" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13" ht="29" x14ac:dyDescent="0.35">
       <c r="A13" s="69"/>
       <c r="B13" s="54" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="C13" s="85"/>
       <c r="D13" s="70" t="s">
-        <v>153</v>
-      </c>
-      <c r="E13" s="75" t="s">
-        <v>177</v>
-      </c>
-      <c r="F13" s="41"/>
-      <c r="G13" s="96" t="s">
-        <v>100</v>
-      </c>
-      <c r="H13" s="102"/>
-      <c r="I13" s="105"/>
-      <c r="J13" s="108"/>
-      <c r="K13" s="93" t="s">
-        <v>208</v>
-      </c>
-      <c r="L13" s="76" t="s">
-        <v>183</v>
-      </c>
-    </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.35">
+        <v>152</v>
+      </c>
+      <c r="E13" s="113"/>
+      <c r="F13" s="75" t="s">
+        <v>176</v>
+      </c>
+      <c r="G13" s="41"/>
+      <c r="H13" s="96" t="s">
+        <v>99</v>
+      </c>
+      <c r="I13" s="102"/>
+      <c r="J13" s="105"/>
+      <c r="K13" s="108"/>
+      <c r="L13" s="93" t="s">
+        <v>207</v>
+      </c>
+      <c r="M13" s="76" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A14" s="69"/>
       <c r="B14" s="37" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C14" s="84"/>
       <c r="D14" s="9" t="s">
-        <v>120</v>
-      </c>
-      <c r="E14" s="40" t="s">
-        <v>178</v>
-      </c>
-      <c r="F14" s="57" t="s">
-        <v>100</v>
-      </c>
-      <c r="G14" s="35"/>
-      <c r="H14" s="42" t="s">
-        <v>64</v>
-      </c>
+        <v>119</v>
+      </c>
+      <c r="E14" s="9"/>
+      <c r="F14" s="40" t="s">
+        <v>177</v>
+      </c>
+      <c r="G14" s="57" t="s">
+        <v>99</v>
+      </c>
+      <c r="H14" s="35"/>
       <c r="I14" s="42" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="J14" s="42" t="s">
-        <v>64</v>
-      </c>
-      <c r="K14" s="40"/>
-      <c r="L14" s="78" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.35">
+        <v>63</v>
+      </c>
+      <c r="K14" s="42" t="s">
+        <v>63</v>
+      </c>
+      <c r="L14" s="40"/>
+      <c r="M14" s="78" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A15" s="69"/>
       <c r="B15" s="37" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="C15" s="84"/>
       <c r="D15" s="46" t="s">
-        <v>127</v>
-      </c>
-      <c r="E15" s="40" t="s">
-        <v>178</v>
-      </c>
-      <c r="F15" s="65" t="s">
-        <v>143</v>
-      </c>
-      <c r="G15" s="35"/>
-      <c r="H15" s="42" t="s">
-        <v>64</v>
-      </c>
+        <v>126</v>
+      </c>
+      <c r="E15" s="46"/>
+      <c r="F15" s="40" t="s">
+        <v>177</v>
+      </c>
+      <c r="G15" s="65" t="s">
+        <v>142</v>
+      </c>
+      <c r="H15" s="35"/>
       <c r="I15" s="42" t="s">
-        <v>64</v>
-      </c>
-      <c r="J15" s="61" t="s">
-        <v>64</v>
-      </c>
-      <c r="K15" s="25"/>
-      <c r="L15" s="58" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.35">
+        <v>63</v>
+      </c>
+      <c r="J15" s="42" t="s">
+        <v>63</v>
+      </c>
+      <c r="K15" s="61" t="s">
+        <v>63</v>
+      </c>
+      <c r="L15" s="25"/>
+      <c r="M15" s="58" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A16" s="69"/>
       <c r="B16" s="13" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C16" s="84" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="D16" s="9" t="s">
-        <v>122</v>
-      </c>
-      <c r="E16" s="40" t="s">
-        <v>178</v>
-      </c>
-      <c r="F16" s="53" t="s">
-        <v>100</v>
-      </c>
-      <c r="G16" s="35"/>
-      <c r="H16" s="29" t="s">
-        <v>21</v>
-      </c>
+        <v>121</v>
+      </c>
+      <c r="E16" s="9"/>
+      <c r="F16" s="40" t="s">
+        <v>177</v>
+      </c>
+      <c r="G16" s="53" t="s">
+        <v>99</v>
+      </c>
+      <c r="H16" s="35"/>
       <c r="I16" s="29" t="s">
         <v>21</v>
       </c>
-      <c r="J16" s="29"/>
-      <c r="K16" s="51"/>
-      <c r="L16" s="49" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="17" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="J16" s="29" t="s">
+        <v>21</v>
+      </c>
+      <c r="K16" s="29"/>
+      <c r="L16" s="51"/>
+      <c r="M16" s="49" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="17" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A17" s="69"/>
       <c r="B17" s="13" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="C17" s="84" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="D17" s="9" t="s">
-        <v>123</v>
-      </c>
-      <c r="E17" s="40" t="s">
-        <v>178</v>
-      </c>
-      <c r="F17" s="53" t="s">
-        <v>100</v>
-      </c>
-      <c r="G17" s="35"/>
-      <c r="H17" s="29" t="s">
-        <v>21</v>
-      </c>
+        <v>122</v>
+      </c>
+      <c r="E17" s="9"/>
+      <c r="F17" s="40" t="s">
+        <v>177</v>
+      </c>
+      <c r="G17" s="53" t="s">
+        <v>99</v>
+      </c>
+      <c r="H17" s="35"/>
       <c r="I17" s="29" t="s">
         <v>21</v>
       </c>
-      <c r="J17" s="29"/>
-      <c r="K17" s="51"/>
-      <c r="L17" s="49" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="18" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="J17" s="29" t="s">
+        <v>21</v>
+      </c>
+      <c r="K17" s="29"/>
+      <c r="L17" s="51"/>
+      <c r="M17" s="49" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="18" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A18" s="69"/>
       <c r="B18" s="13" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="C18" s="84" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="D18" s="9" t="s">
-        <v>124</v>
-      </c>
-      <c r="E18" s="40" t="s">
-        <v>178</v>
-      </c>
-      <c r="F18" s="53" t="s">
-        <v>100</v>
-      </c>
-      <c r="G18" s="35"/>
-      <c r="H18" s="29" t="s">
-        <v>21</v>
-      </c>
+        <v>123</v>
+      </c>
+      <c r="E18" s="9"/>
+      <c r="F18" s="40" t="s">
+        <v>177</v>
+      </c>
+      <c r="G18" s="53" t="s">
+        <v>99</v>
+      </c>
+      <c r="H18" s="35"/>
       <c r="I18" s="29" t="s">
         <v>21</v>
       </c>
-      <c r="J18" s="29"/>
-      <c r="K18" s="51"/>
-      <c r="L18" s="49" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="19" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="J18" s="29" t="s">
+        <v>21</v>
+      </c>
+      <c r="K18" s="29"/>
+      <c r="L18" s="51"/>
+      <c r="M18" s="49" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="19" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A19" s="69"/>
       <c r="B19" s="13" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C19" s="84" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="D19" s="9" t="s">
-        <v>125</v>
-      </c>
-      <c r="E19" s="40" t="s">
-        <v>178</v>
-      </c>
-      <c r="F19" s="53" t="s">
-        <v>100</v>
-      </c>
-      <c r="G19" s="35"/>
-      <c r="H19" s="29" t="s">
-        <v>21</v>
-      </c>
+        <v>124</v>
+      </c>
+      <c r="E19" s="9"/>
+      <c r="F19" s="40" t="s">
+        <v>177</v>
+      </c>
+      <c r="G19" s="53" t="s">
+        <v>99</v>
+      </c>
+      <c r="H19" s="35"/>
       <c r="I19" s="29" t="s">
         <v>21</v>
       </c>
-      <c r="J19" s="29"/>
-      <c r="K19" s="51"/>
-      <c r="L19" s="49" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="20" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="J19" s="29" t="s">
+        <v>21</v>
+      </c>
+      <c r="K19" s="29"/>
+      <c r="L19" s="51"/>
+      <c r="M19" s="49" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="20" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A20" s="69"/>
       <c r="B20" s="13" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="C20" s="84" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="D20" s="9" t="s">
-        <v>126</v>
-      </c>
-      <c r="E20" s="40" t="s">
-        <v>178</v>
-      </c>
-      <c r="F20" s="53" t="s">
-        <v>100</v>
-      </c>
-      <c r="G20" s="35"/>
-      <c r="H20" s="29" t="s">
-        <v>21</v>
-      </c>
+        <v>125</v>
+      </c>
+      <c r="E20" s="9"/>
+      <c r="F20" s="40" t="s">
+        <v>177</v>
+      </c>
+      <c r="G20" s="53" t="s">
+        <v>99</v>
+      </c>
+      <c r="H20" s="35"/>
       <c r="I20" s="29" t="s">
         <v>21</v>
       </c>
-      <c r="J20" s="29"/>
-      <c r="K20" s="51"/>
-      <c r="L20" s="49" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="21" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="J20" s="29" t="s">
+        <v>21</v>
+      </c>
+      <c r="K20" s="29"/>
+      <c r="L20" s="51"/>
+      <c r="M20" s="49" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="21" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A21" s="67"/>
       <c r="B21" s="13" t="s">
         <v>18</v>
@@ -2415,15 +2465,13 @@
       <c r="D21" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="E21" s="9" t="s">
-        <v>177</v>
-      </c>
-      <c r="F21" s="35"/>
-      <c r="G21" s="7" t="s">
-        <v>100</v>
-      </c>
-      <c r="H21" s="29" t="s">
-        <v>14</v>
+      <c r="E21" s="9"/>
+      <c r="F21" s="9" t="s">
+        <v>176</v>
+      </c>
+      <c r="G21" s="35"/>
+      <c r="H21" s="7" t="s">
+        <v>99</v>
       </c>
       <c r="I21" s="29" t="s">
         <v>14</v>
@@ -2431,12 +2479,15 @@
       <c r="J21" s="29" t="s">
         <v>14</v>
       </c>
-      <c r="K21" s="40"/>
-      <c r="L21" s="72" t="s">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="22" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="K21" s="29" t="s">
+        <v>14</v>
+      </c>
+      <c r="L21" s="40"/>
+      <c r="M21" s="72" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="22" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A22" s="69"/>
       <c r="B22" s="13" t="s">
         <v>4</v>
@@ -2445,30 +2496,33 @@
       <c r="D22" s="92" t="s">
         <v>17</v>
       </c>
-      <c r="E22" s="59" t="s">
-        <v>177</v>
-      </c>
-      <c r="F22" s="59"/>
-      <c r="G22" s="59" t="s">
-        <v>99</v>
-      </c>
-      <c r="H22" s="91" t="s">
-        <v>204</v>
+      <c r="E22" s="115" t="s">
+        <v>217</v>
+      </c>
+      <c r="F22" s="59" t="s">
+        <v>176</v>
+      </c>
+      <c r="G22" s="59"/>
+      <c r="H22" s="59" t="s">
+        <v>98</v>
       </c>
       <c r="I22" s="91" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="J22" s="91" t="s">
-        <v>204</v>
-      </c>
-      <c r="K22" s="92" t="s">
+        <v>203</v>
+      </c>
+      <c r="K22" s="91" t="s">
+        <v>203</v>
+      </c>
+      <c r="L22" s="92" t="s">
         <v>17</v>
       </c>
-      <c r="L22" s="77" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="23" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="M22" s="77" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="23" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A23" s="67"/>
       <c r="B23" s="13" t="s">
         <v>15</v>
@@ -2477,86 +2531,93 @@
       <c r="D23" s="9" t="s">
         <v>16</v>
       </c>
-      <c r="E23" s="9" t="s">
-        <v>177</v>
-      </c>
-      <c r="F23" s="35"/>
-      <c r="G23" s="49" t="s">
-        <v>99</v>
-      </c>
-      <c r="H23" s="42" t="s">
-        <v>203</v>
-      </c>
-      <c r="I23" s="61" t="s">
-        <v>14</v>
-      </c>
-      <c r="J23" s="42" t="s">
-        <v>203</v>
-      </c>
-      <c r="K23" s="9"/>
-      <c r="L23" s="59" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="24" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="E23" s="115" t="s">
+        <v>218</v>
+      </c>
+      <c r="F23" s="9" t="s">
+        <v>176</v>
+      </c>
+      <c r="G23" s="35"/>
+      <c r="H23" s="49" t="s">
+        <v>98</v>
+      </c>
+      <c r="I23" s="42" t="s">
+        <v>202</v>
+      </c>
+      <c r="J23" s="61" t="s">
+        <v>14</v>
+      </c>
+      <c r="K23" s="42" t="s">
+        <v>202</v>
+      </c>
+      <c r="L23" s="9"/>
+      <c r="M23" s="59" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="24" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A24" s="67"/>
       <c r="B24" s="13" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C24" s="84"/>
       <c r="D24" s="60" t="s">
-        <v>89</v>
-      </c>
-      <c r="E24" s="12" t="s">
-        <v>177</v>
-      </c>
-      <c r="F24" s="55"/>
-      <c r="G24" s="50" t="s">
-        <v>99</v>
-      </c>
-      <c r="H24" s="56" t="s">
-        <v>203</v>
-      </c>
-      <c r="I24" s="61" t="s">
-        <v>14</v>
-      </c>
-      <c r="J24" s="56" t="s">
-        <v>203</v>
-      </c>
-      <c r="K24" s="60"/>
-      <c r="L24" s="49" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="25" spans="1:13" x14ac:dyDescent="0.35">
+        <v>88</v>
+      </c>
+      <c r="E24" s="116" t="s">
+        <v>219</v>
+      </c>
+      <c r="F24" s="12" t="s">
+        <v>176</v>
+      </c>
+      <c r="G24" s="55"/>
+      <c r="H24" s="50" t="s">
+        <v>98</v>
+      </c>
+      <c r="I24" s="56" t="s">
+        <v>202</v>
+      </c>
+      <c r="J24" s="61" t="s">
+        <v>14</v>
+      </c>
+      <c r="K24" s="56" t="s">
+        <v>202</v>
+      </c>
+      <c r="L24" s="60"/>
+      <c r="M24" s="49" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="25" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A25" s="67"/>
       <c r="B25" s="79" t="s">
         <v>5</v>
       </c>
       <c r="C25" s="86"/>
       <c r="D25" s="33" t="s">
-        <v>109</v>
-      </c>
-      <c r="E25" s="33" t="s">
-        <v>43</v>
-      </c>
-      <c r="F25" s="35"/>
-      <c r="G25" s="50"/>
-      <c r="H25" s="29" t="s">
-        <v>213</v>
-      </c>
-      <c r="I25" s="98" t="s">
-        <v>64</v>
+        <v>108</v>
+      </c>
+      <c r="E25" s="33"/>
+      <c r="F25" s="33" t="s">
+        <v>42</v>
+      </c>
+      <c r="G25" s="35"/>
+      <c r="H25" s="50"/>
+      <c r="I25" s="29" t="s">
+        <v>212</v>
       </c>
       <c r="J25" s="98" t="s">
-        <v>213</v>
-      </c>
-      <c r="K25" s="33"/>
-      <c r="L25" s="80" t="s">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="26" spans="1:13" x14ac:dyDescent="0.35">
+        <v>63</v>
+      </c>
+      <c r="K25" s="98" t="s">
+        <v>212</v>
+      </c>
+      <c r="L25" s="33"/>
+      <c r="M25" s="80" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="26" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A26" s="67"/>
       <c r="B26" s="14" t="s">
         <v>23</v>
@@ -2565,281 +2626,288 @@
       <c r="D26" s="9" t="s">
         <v>24</v>
       </c>
-      <c r="E26" s="9" t="s">
-        <v>177</v>
-      </c>
-      <c r="F26" s="35"/>
-      <c r="G26" s="7" t="s">
-        <v>99</v>
-      </c>
-      <c r="H26" s="29"/>
-      <c r="I26" s="11"/>
-      <c r="J26" s="29"/>
-      <c r="K26" s="40"/>
-      <c r="L26" s="90" t="s">
-        <v>202</v>
-      </c>
-    </row>
-    <row r="27" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="E26" s="9"/>
+      <c r="F26" s="9" t="s">
+        <v>176</v>
+      </c>
+      <c r="G26" s="35"/>
+      <c r="H26" s="7" t="s">
+        <v>98</v>
+      </c>
+      <c r="I26" s="29"/>
+      <c r="J26" s="11"/>
+      <c r="K26" s="29"/>
+      <c r="L26" s="40"/>
+      <c r="M26" s="90" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="27" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A27" s="67"/>
       <c r="B27" s="34" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="C27" s="84" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="D27" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="E27" s="9" t="s">
-        <v>177</v>
-      </c>
-      <c r="F27" s="35"/>
-      <c r="G27" s="7" t="s">
-        <v>100</v>
-      </c>
-      <c r="H27" s="10" t="s">
-        <v>21</v>
+      <c r="E27" s="9"/>
+      <c r="F27" s="9" t="s">
+        <v>176</v>
+      </c>
+      <c r="G27" s="35"/>
+      <c r="H27" s="7" t="s">
+        <v>99</v>
       </c>
       <c r="I27" s="10" t="s">
         <v>21</v>
       </c>
-      <c r="J27" s="30" t="s">
+      <c r="J27" s="10" t="s">
         <v>21</v>
       </c>
-      <c r="K27" s="51"/>
-      <c r="L27" s="62" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="28" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="K27" s="30" t="s">
+        <v>21</v>
+      </c>
+      <c r="L27" s="51"/>
+      <c r="M27" s="62" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="28" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A28" s="67"/>
       <c r="B28" s="34" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="C28" s="84" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="D28" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="E28" s="9" t="s">
-        <v>177</v>
-      </c>
-      <c r="F28" s="35"/>
-      <c r="G28" s="7" t="s">
-        <v>100</v>
-      </c>
-      <c r="H28" s="10" t="s">
-        <v>21</v>
+      <c r="E28" s="9"/>
+      <c r="F28" s="9" t="s">
+        <v>176</v>
+      </c>
+      <c r="G28" s="35"/>
+      <c r="H28" s="7" t="s">
+        <v>99</v>
       </c>
       <c r="I28" s="10" t="s">
         <v>21</v>
       </c>
-      <c r="J28" s="30" t="s">
+      <c r="J28" s="10" t="s">
         <v>21</v>
       </c>
-      <c r="K28" s="51"/>
-      <c r="L28" s="49" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="29" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="K28" s="30" t="s">
+        <v>21</v>
+      </c>
+      <c r="L28" s="51"/>
+      <c r="M28" s="49" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="29" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A29" s="67"/>
       <c r="B29" s="34" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="C29" s="84" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="D29" s="89" t="s">
         <v>22</v>
       </c>
-      <c r="E29" s="9" t="s">
-        <v>177</v>
-      </c>
-      <c r="F29" s="35"/>
-      <c r="G29" s="7" t="s">
-        <v>100</v>
-      </c>
-      <c r="H29" s="10" t="s">
-        <v>21</v>
+      <c r="E29" s="89"/>
+      <c r="F29" s="9" t="s">
+        <v>176</v>
+      </c>
+      <c r="G29" s="35"/>
+      <c r="H29" s="7" t="s">
+        <v>99</v>
       </c>
       <c r="I29" s="10" t="s">
         <v>21</v>
       </c>
-      <c r="J29" s="30" t="s">
+      <c r="J29" s="10" t="s">
         <v>21</v>
       </c>
-      <c r="K29" s="51"/>
-      <c r="L29" s="49" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="30" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="K29" s="30" t="s">
+        <v>21</v>
+      </c>
+      <c r="L29" s="51"/>
+      <c r="M29" s="49" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="30" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A30" s="67"/>
       <c r="B30" s="34" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="C30" s="84" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="D30" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="E30" s="9" t="s">
-        <v>177</v>
-      </c>
-      <c r="F30" s="35"/>
-      <c r="G30" s="7" t="s">
-        <v>100</v>
-      </c>
-      <c r="H30" s="10" t="s">
-        <v>21</v>
+      <c r="E30" s="9"/>
+      <c r="F30" s="9" t="s">
+        <v>176</v>
+      </c>
+      <c r="G30" s="35"/>
+      <c r="H30" s="7" t="s">
+        <v>99</v>
       </c>
       <c r="I30" s="10" t="s">
         <v>21</v>
       </c>
-      <c r="J30" s="30" t="s">
+      <c r="J30" s="10" t="s">
         <v>21</v>
       </c>
-      <c r="K30" s="51"/>
-      <c r="L30" s="49" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="31" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="K30" s="30" t="s">
+        <v>21</v>
+      </c>
+      <c r="L30" s="51"/>
+      <c r="M30" s="49" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="31" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A31" s="67"/>
       <c r="B31" s="34" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="C31" s="84" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="D31" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="E31" s="9" t="s">
-        <v>177</v>
-      </c>
-      <c r="F31" s="35"/>
-      <c r="G31" s="7" t="s">
-        <v>100</v>
-      </c>
-      <c r="H31" s="10" t="s">
-        <v>21</v>
+      <c r="E31" s="9"/>
+      <c r="F31" s="9" t="s">
+        <v>176</v>
+      </c>
+      <c r="G31" s="35"/>
+      <c r="H31" s="7" t="s">
+        <v>99</v>
       </c>
       <c r="I31" s="10" t="s">
         <v>21</v>
       </c>
-      <c r="J31" s="30" t="s">
+      <c r="J31" s="10" t="s">
         <v>21</v>
       </c>
-      <c r="K31" s="51"/>
-      <c r="L31" s="49" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="32" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="K31" s="30" t="s">
+        <v>21</v>
+      </c>
+      <c r="L31" s="51"/>
+      <c r="M31" s="49" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="32" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A32" s="67"/>
       <c r="B32" s="13" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="C32" s="84" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="D32" s="7" t="s">
         <v>37</v>
       </c>
-      <c r="E32" s="10" t="s">
-        <v>43</v>
-      </c>
-      <c r="F32" s="35"/>
+      <c r="E32" s="7"/>
+      <c r="F32" s="10" t="s">
+        <v>42</v>
+      </c>
       <c r="G32" s="35"/>
-      <c r="H32" s="7" t="s">
-        <v>21</v>
-      </c>
+      <c r="H32" s="35"/>
       <c r="I32" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="J32" s="30" t="s">
+      <c r="J32" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="K32" s="51"/>
-      <c r="L32" s="49" t="s">
-        <v>147</v>
-      </c>
-      <c r="M32" s="36"/>
-    </row>
-    <row r="33" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="K32" s="30" t="s">
+        <v>21</v>
+      </c>
+      <c r="L32" s="51"/>
+      <c r="M32" s="49" t="s">
+        <v>146</v>
+      </c>
+      <c r="N32" s="36"/>
+    </row>
+    <row r="33" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A33" s="67"/>
       <c r="B33" s="37" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="C33" s="84"/>
       <c r="D33" s="9" t="s">
-        <v>118</v>
-      </c>
-      <c r="E33" s="40" t="s">
-        <v>178</v>
-      </c>
-      <c r="F33" s="7" t="s">
-        <v>100</v>
-      </c>
-      <c r="G33" s="35"/>
-      <c r="H33" s="39" t="s">
+        <v>117</v>
+      </c>
+      <c r="E33" s="9"/>
+      <c r="F33" s="40" t="s">
+        <v>177</v>
+      </c>
+      <c r="G33" s="7" t="s">
+        <v>99</v>
+      </c>
+      <c r="H33" s="35"/>
+      <c r="I33" s="39" t="s">
         <v>20</v>
       </c>
-      <c r="I33" s="10"/>
-      <c r="J33" s="30"/>
-      <c r="K33" s="51"/>
-      <c r="L33" s="72" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="34" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="J33" s="10"/>
+      <c r="K33" s="30"/>
+      <c r="L33" s="51"/>
+      <c r="M33" s="72" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="34" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A34" s="67"/>
       <c r="B34" s="37" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="C34" s="84"/>
       <c r="D34" s="9" t="s">
-        <v>119</v>
-      </c>
-      <c r="E34" s="40" t="s">
-        <v>178</v>
-      </c>
-      <c r="F34" s="7" t="s">
-        <v>100</v>
-      </c>
-      <c r="G34" s="35"/>
-      <c r="H34" s="39" t="s">
+        <v>118</v>
+      </c>
+      <c r="E34" s="9"/>
+      <c r="F34" s="40" t="s">
+        <v>177</v>
+      </c>
+      <c r="G34" s="7" t="s">
+        <v>99</v>
+      </c>
+      <c r="H34" s="35"/>
+      <c r="I34" s="39" t="s">
         <v>20</v>
       </c>
-      <c r="I34" s="10"/>
-      <c r="J34" s="30"/>
-      <c r="K34" s="51"/>
-      <c r="L34" s="72" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="35" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="J34" s="10"/>
+      <c r="K34" s="30"/>
+      <c r="L34" s="51"/>
+      <c r="M34" s="72" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="35" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A35" s="67"/>
       <c r="B35" s="13" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C35" s="84"/>
       <c r="D35" s="7" t="s">
-        <v>87</v>
-      </c>
-      <c r="E35" s="9" t="s">
-        <v>177</v>
-      </c>
-      <c r="F35" s="35"/>
-      <c r="G35" s="7" t="s">
-        <v>27</v>
-      </c>
-      <c r="H35" s="9" t="s">
+        <v>86</v>
+      </c>
+      <c r="E35" s="7"/>
+      <c r="F35" s="9" t="s">
+        <v>176</v>
+      </c>
+      <c r="G35" s="35"/>
+      <c r="H35" s="7" t="s">
         <v>27</v>
       </c>
       <c r="I35" s="9" t="s">
@@ -2848,12 +2916,15 @@
       <c r="J35" s="9" t="s">
         <v>27</v>
       </c>
-      <c r="K35" s="23"/>
-      <c r="L35" s="33" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="36" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="K35" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="L35" s="23"/>
+      <c r="M35" s="33" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="36" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A36" s="67"/>
       <c r="B36" s="14" t="s">
         <v>25</v>
@@ -2862,142 +2933,147 @@
       <c r="D36" s="9" t="s">
         <v>26</v>
       </c>
-      <c r="E36" s="9" t="s">
-        <v>177</v>
-      </c>
-      <c r="F36" s="35"/>
-      <c r="G36" s="7" t="s">
+      <c r="E36" s="9"/>
+      <c r="F36" s="9" t="s">
+        <v>176</v>
+      </c>
+      <c r="G36" s="35"/>
+      <c r="H36" s="7" t="s">
         <v>27</v>
       </c>
-      <c r="H36" s="9" t="s">
+      <c r="I36" s="9" t="s">
         <v>27</v>
       </c>
-      <c r="I36" s="9"/>
       <c r="J36" s="9"/>
-      <c r="K36" s="23"/>
-      <c r="L36" s="10" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="37" spans="1:12" ht="29" x14ac:dyDescent="0.35">
+      <c r="K36" s="9"/>
+      <c r="L36" s="23"/>
+      <c r="M36" s="10" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="37" spans="1:13" ht="29" x14ac:dyDescent="0.35">
       <c r="A37" s="67"/>
       <c r="B37" s="13" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="C37" s="84"/>
       <c r="D37" s="7" t="s">
-        <v>201</v>
-      </c>
-      <c r="E37" s="7" t="s">
-        <v>177</v>
-      </c>
-      <c r="F37" s="7"/>
-      <c r="G37" s="7" t="s">
+        <v>200</v>
+      </c>
+      <c r="E37" s="7"/>
+      <c r="F37" s="7" t="s">
+        <v>176</v>
+      </c>
+      <c r="G37" s="7"/>
+      <c r="H37" s="7" t="s">
         <v>27</v>
       </c>
-      <c r="H37" s="39" t="s">
+      <c r="I37" s="39" t="s">
         <v>27</v>
       </c>
-      <c r="I37" s="9"/>
-      <c r="J37" s="30"/>
-      <c r="K37" s="23"/>
-      <c r="L37" s="6" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="38" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="J37" s="9"/>
+      <c r="K37" s="30"/>
+      <c r="L37" s="23"/>
+      <c r="M37" s="6" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="38" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A38" s="67"/>
       <c r="B38" s="14" t="s">
         <v>28</v>
       </c>
       <c r="C38" s="84" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="D38" s="72" t="s">
         <v>11</v>
       </c>
-      <c r="E38" s="9" t="s">
-        <v>43</v>
-      </c>
-      <c r="F38" s="35"/>
+      <c r="E38" s="72"/>
+      <c r="F38" s="9" t="s">
+        <v>42</v>
+      </c>
       <c r="G38" s="35"/>
-      <c r="H38" s="10" t="s">
-        <v>14</v>
-      </c>
+      <c r="H38" s="35"/>
       <c r="I38" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="J38" s="30" t="s">
-        <v>14</v>
-      </c>
-      <c r="K38" s="23"/>
-      <c r="L38" s="10"/>
-    </row>
-    <row r="39" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="J38" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="K38" s="30" t="s">
+        <v>14</v>
+      </c>
+      <c r="L38" s="23"/>
+      <c r="M38" s="10"/>
+    </row>
+    <row r="39" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A39" s="67"/>
       <c r="B39" s="37" t="s">
         <v>29</v>
       </c>
       <c r="C39" s="84" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="D39" s="7" t="s">
         <v>30</v>
       </c>
-      <c r="E39" s="40" t="s">
-        <v>178</v>
-      </c>
-      <c r="F39" s="7" t="s">
-        <v>100</v>
-      </c>
-      <c r="G39" s="35"/>
-      <c r="H39" s="10" t="s">
-        <v>14</v>
-      </c>
+      <c r="E39" s="7"/>
+      <c r="F39" s="40" t="s">
+        <v>177</v>
+      </c>
+      <c r="G39" s="7" t="s">
+        <v>99</v>
+      </c>
+      <c r="H39" s="35"/>
       <c r="I39" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="J39" s="30" t="s">
-        <v>14</v>
-      </c>
-      <c r="K39" s="23"/>
-      <c r="L39" s="72" t="s">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="40" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="J39" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="K39" s="30" t="s">
+        <v>14</v>
+      </c>
+      <c r="L39" s="23"/>
+      <c r="M39" s="72" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="40" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A40" s="64"/>
       <c r="B40" s="37" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="C40" s="84" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="D40" s="7" t="s">
-        <v>214</v>
-      </c>
-      <c r="E40" s="59" t="s">
-        <v>179</v>
-      </c>
-      <c r="F40" s="7" t="s">
-        <v>100</v>
-      </c>
-      <c r="G40" s="35"/>
-      <c r="H40" s="7" t="s">
-        <v>21</v>
-      </c>
+        <v>213</v>
+      </c>
+      <c r="E40" s="7"/>
+      <c r="F40" s="59" t="s">
+        <v>178</v>
+      </c>
+      <c r="G40" s="7" t="s">
+        <v>99</v>
+      </c>
+      <c r="H40" s="35"/>
       <c r="I40" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="J40" s="30" t="s">
+      <c r="J40" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="K40" s="23"/>
-      <c r="L40" s="59" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="41" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="K40" s="30" t="s">
+        <v>21</v>
+      </c>
+      <c r="L40" s="23"/>
+      <c r="M40" s="59" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="41" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A41" s="5"/>
       <c r="B41" s="13" t="s">
         <v>31</v>
@@ -3006,56 +3082,58 @@
       <c r="D41" s="6" t="s">
         <v>36</v>
       </c>
-      <c r="E41" s="9" t="s">
-        <v>43</v>
-      </c>
-      <c r="F41" s="7"/>
-      <c r="G41" s="35"/>
-      <c r="H41" s="59" t="s">
-        <v>14</v>
-      </c>
-      <c r="I41" s="10" t="s">
-        <v>14</v>
-      </c>
-      <c r="J41" s="29" t="s">
+      <c r="E41" s="6"/>
+      <c r="F41" s="9" t="s">
+        <v>42</v>
+      </c>
+      <c r="G41" s="7"/>
+      <c r="H41" s="35"/>
+      <c r="I41" s="59" t="s">
+        <v>14</v>
+      </c>
+      <c r="J41" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="K41" s="29" t="s">
         <v>27</v>
       </c>
-      <c r="K41" s="23"/>
-      <c r="L41" s="62" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="42" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="L41" s="23"/>
+      <c r="M41" s="62" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="42" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A42" s="64"/>
       <c r="B42" s="37" t="s">
         <v>39</v>
       </c>
       <c r="C42" s="84"/>
       <c r="D42" s="39" t="s">
-        <v>135</v>
-      </c>
-      <c r="E42" s="59" t="s">
-        <v>179</v>
-      </c>
-      <c r="F42" s="7" t="s">
-        <v>100</v>
-      </c>
-      <c r="G42" s="35"/>
-      <c r="H42" s="26" t="s">
-        <v>14</v>
-      </c>
+        <v>134</v>
+      </c>
+      <c r="E42" s="39"/>
+      <c r="F42" s="59" t="s">
+        <v>178</v>
+      </c>
+      <c r="G42" s="7" t="s">
+        <v>99</v>
+      </c>
+      <c r="H42" s="35"/>
       <c r="I42" s="26" t="s">
         <v>14</v>
       </c>
-      <c r="J42" s="62" t="s">
-        <v>14</v>
-      </c>
-      <c r="K42" s="23"/>
-      <c r="L42" s="59" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="43" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="J42" s="26" t="s">
+        <v>14</v>
+      </c>
+      <c r="K42" s="62" t="s">
+        <v>14</v>
+      </c>
+      <c r="L42" s="23"/>
+      <c r="M42" s="59" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="43" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A43" s="64"/>
       <c r="B43" s="37" t="s">
         <v>40</v>
@@ -3064,28 +3142,29 @@
       <c r="D43" s="38" t="s">
         <v>32</v>
       </c>
-      <c r="E43" s="59" t="s">
-        <v>179</v>
-      </c>
-      <c r="F43" s="7" t="s">
-        <v>100</v>
-      </c>
-      <c r="G43" s="35"/>
-      <c r="H43" s="26" t="s">
-        <v>14</v>
-      </c>
+      <c r="E43" s="38"/>
+      <c r="F43" s="59" t="s">
+        <v>178</v>
+      </c>
+      <c r="G43" s="7" t="s">
+        <v>99</v>
+      </c>
+      <c r="H43" s="35"/>
       <c r="I43" s="26" t="s">
         <v>14</v>
       </c>
-      <c r="J43" s="62" t="s">
-        <v>14</v>
-      </c>
-      <c r="K43" s="23"/>
-      <c r="L43" s="59" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="44" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="J43" s="26" t="s">
+        <v>14</v>
+      </c>
+      <c r="K43" s="62" t="s">
+        <v>14</v>
+      </c>
+      <c r="L43" s="23"/>
+      <c r="M43" s="59" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="44" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A44" s="5"/>
       <c r="B44" s="13" t="s">
         <v>41</v>
@@ -3094,825 +3173,856 @@
       <c r="D44" s="6" t="s">
         <v>35</v>
       </c>
-      <c r="E44" s="9" t="s">
-        <v>43</v>
-      </c>
-      <c r="F44" s="35"/>
+      <c r="E44" s="6"/>
+      <c r="F44" s="9" t="s">
+        <v>42</v>
+      </c>
       <c r="G44" s="35"/>
-      <c r="H44" s="10"/>
-      <c r="I44" s="26" t="s">
-        <v>14</v>
-      </c>
-      <c r="J44" s="62" t="s">
-        <v>14</v>
-      </c>
-      <c r="K44" s="23"/>
-      <c r="L44" s="62" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="45" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="H44" s="35"/>
+      <c r="I44" s="10"/>
+      <c r="J44" s="26" t="s">
+        <v>14</v>
+      </c>
+      <c r="K44" s="62" t="s">
+        <v>14</v>
+      </c>
+      <c r="L44" s="23"/>
+      <c r="M44" s="62" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="45" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A45" s="5"/>
       <c r="B45" s="13" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="C45" s="84"/>
       <c r="D45" s="7" t="s">
         <v>33</v>
       </c>
-      <c r="E45" s="9" t="s">
-        <v>43</v>
-      </c>
-      <c r="F45" s="35"/>
+      <c r="E45" s="7"/>
+      <c r="F45" s="9" t="s">
+        <v>42</v>
+      </c>
       <c r="G45" s="35"/>
-      <c r="H45" s="10"/>
-      <c r="I45" s="10" t="s">
-        <v>64</v>
-      </c>
-      <c r="J45" s="62" t="s">
-        <v>64</v>
-      </c>
-      <c r="K45" s="23"/>
-      <c r="L45" s="49" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="46" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="H45" s="35"/>
+      <c r="I45" s="10"/>
+      <c r="J45" s="10" t="s">
+        <v>63</v>
+      </c>
+      <c r="K45" s="62" t="s">
+        <v>63</v>
+      </c>
+      <c r="L45" s="23"/>
+      <c r="M45" s="49" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="46" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A46" s="5"/>
       <c r="B46" s="13" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="C46" s="84"/>
       <c r="D46" s="7" t="s">
         <v>34</v>
       </c>
-      <c r="E46" s="9" t="s">
-        <v>43</v>
-      </c>
-      <c r="F46" s="35"/>
+      <c r="E46" s="7"/>
+      <c r="F46" s="9" t="s">
+        <v>42</v>
+      </c>
       <c r="G46" s="35"/>
-      <c r="H46" s="10"/>
-      <c r="I46" s="10" t="s">
-        <v>64</v>
-      </c>
-      <c r="J46" s="62" t="s">
-        <v>64</v>
-      </c>
-      <c r="K46" s="23"/>
-      <c r="L46" s="49" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="47" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="H46" s="35"/>
+      <c r="I46" s="10"/>
+      <c r="J46" s="10" t="s">
+        <v>63</v>
+      </c>
+      <c r="K46" s="62" t="s">
+        <v>63</v>
+      </c>
+      <c r="L46" s="23"/>
+      <c r="M46" s="49" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="47" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A47" s="5"/>
       <c r="B47" s="13" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="C47" s="84"/>
       <c r="D47" s="7" t="s">
-        <v>200</v>
-      </c>
-      <c r="E47" s="9" t="s">
-        <v>43</v>
-      </c>
-      <c r="F47" s="35"/>
+        <v>199</v>
+      </c>
+      <c r="E47" s="7"/>
+      <c r="F47" s="9" t="s">
+        <v>42</v>
+      </c>
       <c r="G47" s="35"/>
-      <c r="H47" s="10"/>
-      <c r="I47" s="10" t="s">
-        <v>64</v>
-      </c>
-      <c r="J47" s="62" t="s">
-        <v>64</v>
-      </c>
-      <c r="K47" s="23"/>
-      <c r="L47" s="49" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="48" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="H47" s="35"/>
+      <c r="I47" s="10"/>
+      <c r="J47" s="10" t="s">
+        <v>63</v>
+      </c>
+      <c r="K47" s="62" t="s">
+        <v>63</v>
+      </c>
+      <c r="L47" s="23"/>
+      <c r="M47" s="49" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="48" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A48" s="5"/>
       <c r="B48" s="63" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="C48" s="84"/>
       <c r="D48" s="7" t="s">
+        <v>163</v>
+      </c>
+      <c r="E48" s="7"/>
+      <c r="F48" s="9" t="s">
+        <v>42</v>
+      </c>
+      <c r="G48" s="35"/>
+      <c r="H48" s="35"/>
+      <c r="I48" s="10"/>
+      <c r="J48" s="91" t="s">
+        <v>203</v>
+      </c>
+      <c r="K48" s="24"/>
+      <c r="L48" s="7" t="s">
+        <v>163</v>
+      </c>
+      <c r="M48" s="62" t="s">
         <v>164</v>
       </c>
-      <c r="E48" s="9" t="s">
-        <v>43</v>
-      </c>
-      <c r="F48" s="35"/>
-      <c r="G48" s="35"/>
-      <c r="H48" s="10"/>
-      <c r="I48" s="91" t="s">
-        <v>204</v>
-      </c>
-      <c r="J48" s="24"/>
-      <c r="K48" s="7" t="s">
-        <v>164</v>
-      </c>
-      <c r="L48" s="62" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="49" spans="1:13" x14ac:dyDescent="0.35">
+    </row>
+    <row r="49" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A49" s="5"/>
       <c r="B49" s="63" t="s">
         <v>38</v>
       </c>
       <c r="C49" s="84"/>
       <c r="D49" s="7" t="s">
-        <v>163</v>
-      </c>
-      <c r="E49" s="9" t="s">
-        <v>43</v>
-      </c>
-      <c r="F49" s="35"/>
+        <v>162</v>
+      </c>
+      <c r="E49" s="7"/>
+      <c r="F49" s="9" t="s">
+        <v>42</v>
+      </c>
       <c r="G49" s="35"/>
-      <c r="H49" s="10"/>
-      <c r="I49" s="91" t="s">
-        <v>204</v>
-      </c>
-      <c r="J49" s="24"/>
-      <c r="K49" s="7" t="s">
-        <v>163</v>
-      </c>
-      <c r="L49" s="62" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="50" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="H49" s="35"/>
+      <c r="I49" s="10"/>
+      <c r="J49" s="91" t="s">
+        <v>203</v>
+      </c>
+      <c r="K49" s="24"/>
+      <c r="L49" s="7" t="s">
+        <v>162</v>
+      </c>
+      <c r="M49" s="62" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="50" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A50" s="5"/>
       <c r="B50" s="63" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="C50" s="84"/>
       <c r="D50" s="7" t="s">
-        <v>162</v>
-      </c>
-      <c r="E50" s="9" t="s">
-        <v>43</v>
-      </c>
-      <c r="F50" s="35"/>
+        <v>161</v>
+      </c>
+      <c r="E50" s="7"/>
+      <c r="F50" s="9" t="s">
+        <v>42</v>
+      </c>
       <c r="G50" s="35"/>
-      <c r="H50" s="26"/>
-      <c r="I50" s="10" t="s">
-        <v>14</v>
-      </c>
-      <c r="J50" s="24"/>
-      <c r="K50" s="23"/>
-      <c r="L50" s="62" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="51" spans="1:13" ht="29" x14ac:dyDescent="0.35">
+      <c r="H50" s="35"/>
+      <c r="I50" s="26"/>
+      <c r="J50" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="K50" s="24"/>
+      <c r="L50" s="23"/>
+      <c r="M50" s="62" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="51" spans="1:14" ht="29" x14ac:dyDescent="0.35">
       <c r="A51" s="69"/>
       <c r="B51" s="73" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="C51" s="29" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="D51" s="11" t="s">
-        <v>85</v>
-      </c>
-      <c r="E51" s="9" t="s">
-        <v>178</v>
-      </c>
-      <c r="F51" s="59" t="s">
-        <v>100</v>
-      </c>
-      <c r="G51" s="35"/>
-      <c r="H51" s="10" t="s">
-        <v>64</v>
-      </c>
+        <v>84</v>
+      </c>
+      <c r="E51" s="11"/>
+      <c r="F51" s="9" t="s">
+        <v>177</v>
+      </c>
+      <c r="G51" s="59" t="s">
+        <v>99</v>
+      </c>
+      <c r="H51" s="35"/>
       <c r="I51" s="10" t="s">
-        <v>64</v>
-      </c>
-      <c r="J51" s="24"/>
-      <c r="K51" s="23"/>
-      <c r="L51" s="74" t="s">
-        <v>176</v>
-      </c>
-      <c r="M51" s="36"/>
-    </row>
-    <row r="52" spans="1:13" ht="29" x14ac:dyDescent="0.35">
+        <v>63</v>
+      </c>
+      <c r="J51" s="10" t="s">
+        <v>63</v>
+      </c>
+      <c r="K51" s="24"/>
+      <c r="L51" s="23"/>
+      <c r="M51" s="74" t="s">
+        <v>175</v>
+      </c>
+      <c r="N51" s="36"/>
+    </row>
+    <row r="52" spans="1:14" ht="29" x14ac:dyDescent="0.35">
       <c r="A52" s="69"/>
       <c r="B52" s="73" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="C52" s="29" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="D52" s="11" t="s">
-        <v>84</v>
-      </c>
-      <c r="E52" s="9" t="s">
-        <v>178</v>
-      </c>
-      <c r="F52" s="59" t="s">
-        <v>100</v>
-      </c>
-      <c r="G52" s="35"/>
-      <c r="H52" s="10" t="s">
-        <v>64</v>
-      </c>
+        <v>83</v>
+      </c>
+      <c r="E52" s="11"/>
+      <c r="F52" s="9" t="s">
+        <v>177</v>
+      </c>
+      <c r="G52" s="59" t="s">
+        <v>99</v>
+      </c>
+      <c r="H52" s="35"/>
       <c r="I52" s="10" t="s">
-        <v>64</v>
-      </c>
-      <c r="J52" s="24"/>
-      <c r="K52" s="23"/>
-      <c r="L52" s="74" t="s">
-        <v>175</v>
-      </c>
-      <c r="M52" s="36"/>
-    </row>
-    <row r="53" spans="1:13" x14ac:dyDescent="0.35">
+        <v>63</v>
+      </c>
+      <c r="J52" s="10" t="s">
+        <v>63</v>
+      </c>
+      <c r="K52" s="24"/>
+      <c r="L52" s="23"/>
+      <c r="M52" s="74" t="s">
+        <v>174</v>
+      </c>
+      <c r="N52" s="36"/>
+    </row>
+    <row r="53" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A53" s="5"/>
       <c r="B53" s="13" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C53" s="84" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="D53" s="7" t="s">
-        <v>132</v>
-      </c>
-      <c r="E53" s="9" t="s">
-        <v>43</v>
-      </c>
-      <c r="F53" s="35"/>
+        <v>131</v>
+      </c>
+      <c r="E53" s="7"/>
+      <c r="F53" s="9" t="s">
+        <v>42</v>
+      </c>
       <c r="G53" s="35"/>
-      <c r="H53" s="10"/>
-      <c r="I53" s="26" t="s">
-        <v>14</v>
-      </c>
+      <c r="H53" s="35"/>
+      <c r="I53" s="10"/>
       <c r="J53" s="26" t="s">
         <v>14</v>
       </c>
-      <c r="K53" s="23"/>
-      <c r="L53" s="27" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="54" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="K53" s="26" t="s">
+        <v>14</v>
+      </c>
+      <c r="L53" s="23"/>
+      <c r="M53" s="27" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="54" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A54" s="5"/>
       <c r="B54" s="13" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C54" s="84" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="D54" s="7" t="s">
-        <v>133</v>
-      </c>
-      <c r="E54" s="9" t="s">
-        <v>43</v>
-      </c>
-      <c r="F54" s="9"/>
+        <v>132</v>
+      </c>
+      <c r="E54" s="7"/>
+      <c r="F54" s="9" t="s">
+        <v>42</v>
+      </c>
       <c r="G54" s="9"/>
-      <c r="H54" s="10"/>
-      <c r="I54" s="26" t="s">
-        <v>14</v>
-      </c>
+      <c r="H54" s="9"/>
+      <c r="I54" s="10"/>
       <c r="J54" s="26" t="s">
         <v>14</v>
       </c>
-      <c r="K54" s="23"/>
-      <c r="L54" s="27" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="55" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="K54" s="26" t="s">
+        <v>14</v>
+      </c>
+      <c r="L54" s="23"/>
+      <c r="M54" s="27" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="55" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A55" s="5"/>
       <c r="B55" s="13" t="s">
         <v>2</v>
       </c>
       <c r="C55" s="84" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="D55" s="7" t="s">
-        <v>44</v>
-      </c>
-      <c r="E55" s="9" t="s">
         <v>43</v>
       </c>
-      <c r="F55" s="9"/>
+      <c r="E55" s="7"/>
+      <c r="F55" s="9" t="s">
+        <v>42</v>
+      </c>
       <c r="G55" s="9"/>
-      <c r="H55" s="10"/>
-      <c r="I55" s="26" t="s">
-        <v>14</v>
-      </c>
+      <c r="H55" s="9"/>
+      <c r="I55" s="10"/>
       <c r="J55" s="26" t="s">
         <v>14</v>
       </c>
-      <c r="K55" s="23"/>
-      <c r="L55" s="27" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="56" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="K55" s="26" t="s">
+        <v>14</v>
+      </c>
+      <c r="L55" s="23"/>
+      <c r="M55" s="27" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="56" spans="1:14" x14ac:dyDescent="0.35">
       <c r="B56" s="15" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C56" s="30" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="D56" s="9" t="s">
-        <v>48</v>
-      </c>
-      <c r="E56" s="9" t="s">
-        <v>43</v>
-      </c>
-      <c r="F56" s="9"/>
+        <v>47</v>
+      </c>
+      <c r="E56" s="9"/>
+      <c r="F56" s="9" t="s">
+        <v>42</v>
+      </c>
       <c r="G56" s="9"/>
-      <c r="H56" s="10"/>
-      <c r="I56" s="26" t="s">
-        <v>14</v>
-      </c>
+      <c r="H56" s="9"/>
+      <c r="I56" s="10"/>
       <c r="J56" s="26" t="s">
         <v>14</v>
       </c>
-      <c r="K56" s="23"/>
-      <c r="L56" s="27" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="57" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="K56" s="26" t="s">
+        <v>14</v>
+      </c>
+      <c r="L56" s="23"/>
+      <c r="M56" s="27" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="57" spans="1:14" x14ac:dyDescent="0.35">
       <c r="B57" s="15" t="s">
         <v>6</v>
       </c>
       <c r="C57" s="30" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="D57" s="9" t="s">
+        <v>48</v>
+      </c>
+      <c r="E57" s="9"/>
+      <c r="F57" s="9" t="s">
+        <v>42</v>
+      </c>
+      <c r="G57" s="9"/>
+      <c r="H57" s="9"/>
+      <c r="I57" s="10"/>
+      <c r="J57" s="26" t="s">
+        <v>14</v>
+      </c>
+      <c r="K57" s="26" t="s">
+        <v>14</v>
+      </c>
+      <c r="L57" s="23"/>
+      <c r="M57" s="27" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="58" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="B58" s="15" t="s">
+        <v>66</v>
+      </c>
+      <c r="C58" s="30" t="s">
+        <v>194</v>
+      </c>
+      <c r="D58" s="9" t="s">
         <v>49</v>
       </c>
-      <c r="E57" s="9" t="s">
-        <v>43</v>
-      </c>
-      <c r="F57" s="9"/>
-      <c r="G57" s="9"/>
-      <c r="H57" s="10"/>
-      <c r="I57" s="26" t="s">
-        <v>14</v>
-      </c>
-      <c r="J57" s="26" t="s">
-        <v>14</v>
-      </c>
-      <c r="K57" s="23"/>
-      <c r="L57" s="27" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="58" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="B58" s="15" t="s">
-        <v>67</v>
-      </c>
-      <c r="C58" s="30" t="s">
-        <v>195</v>
-      </c>
-      <c r="D58" s="9" t="s">
+      <c r="E58" s="9"/>
+      <c r="F58" s="9" t="s">
+        <v>42</v>
+      </c>
+      <c r="G58" s="9"/>
+      <c r="H58" s="9"/>
+      <c r="I58" s="10"/>
+      <c r="J58" s="26" t="s">
+        <v>14</v>
+      </c>
+      <c r="K58" s="26" t="s">
+        <v>14</v>
+      </c>
+      <c r="L58" s="23"/>
+      <c r="M58" s="27" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="59" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="B59" s="15" t="s">
+        <v>69</v>
+      </c>
+      <c r="C59" s="30" t="s">
+        <v>194</v>
+      </c>
+      <c r="D59" s="9" t="s">
         <v>50</v>
       </c>
-      <c r="E58" s="9" t="s">
-        <v>43</v>
-      </c>
-      <c r="F58" s="9"/>
-      <c r="G58" s="9"/>
-      <c r="H58" s="10"/>
-      <c r="I58" s="26" t="s">
-        <v>14</v>
-      </c>
-      <c r="J58" s="26" t="s">
-        <v>14</v>
-      </c>
-      <c r="K58" s="23"/>
-      <c r="L58" s="27" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="59" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="B59" s="15" t="s">
+      <c r="E59" s="9"/>
+      <c r="F59" s="9" t="s">
+        <v>42</v>
+      </c>
+      <c r="G59" s="9"/>
+      <c r="H59" s="9"/>
+      <c r="I59" s="10"/>
+      <c r="J59" s="26" t="s">
+        <v>14</v>
+      </c>
+      <c r="K59" s="26" t="s">
+        <v>14</v>
+      </c>
+      <c r="L59" s="23"/>
+      <c r="M59" s="27" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="60" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="B60" s="15" t="s">
         <v>70</v>
       </c>
-      <c r="C59" s="30" t="s">
-        <v>195</v>
-      </c>
-      <c r="D59" s="9" t="s">
+      <c r="C60" s="30" t="s">
+        <v>194</v>
+      </c>
+      <c r="D60" s="9" t="s">
         <v>51</v>
       </c>
-      <c r="E59" s="9" t="s">
-        <v>43</v>
-      </c>
-      <c r="F59" s="9"/>
-      <c r="G59" s="9"/>
-      <c r="H59" s="10"/>
-      <c r="I59" s="26" t="s">
-        <v>14</v>
-      </c>
-      <c r="J59" s="26" t="s">
-        <v>14</v>
-      </c>
-      <c r="K59" s="23"/>
-      <c r="L59" s="27" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="60" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="B60" s="15" t="s">
+      <c r="E60" s="9"/>
+      <c r="F60" s="9" t="s">
+        <v>42</v>
+      </c>
+      <c r="G60" s="9"/>
+      <c r="H60" s="9"/>
+      <c r="I60" s="10"/>
+      <c r="J60" s="26" t="s">
+        <v>14</v>
+      </c>
+      <c r="K60" s="26" t="s">
+        <v>14</v>
+      </c>
+      <c r="L60" s="23"/>
+      <c r="M60" s="27" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="61" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="B61" s="47" t="s">
         <v>71</v>
       </c>
-      <c r="C60" s="30" t="s">
-        <v>195</v>
-      </c>
-      <c r="D60" s="9" t="s">
+      <c r="C61" s="30" t="s">
+        <v>194</v>
+      </c>
+      <c r="D61" s="9" t="s">
         <v>52</v>
       </c>
-      <c r="E60" s="9" t="s">
-        <v>43</v>
-      </c>
-      <c r="F60" s="9"/>
-      <c r="G60" s="9"/>
-      <c r="H60" s="10"/>
-      <c r="I60" s="26" t="s">
-        <v>14</v>
-      </c>
-      <c r="J60" s="26" t="s">
-        <v>14</v>
-      </c>
-      <c r="K60" s="23"/>
-      <c r="L60" s="27" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="61" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="B61" s="47" t="s">
+      <c r="E61" s="9"/>
+      <c r="F61" s="9" t="s">
+        <v>42</v>
+      </c>
+      <c r="G61" s="9"/>
+      <c r="H61" s="9"/>
+      <c r="I61" s="10"/>
+      <c r="J61" s="26" t="s">
+        <v>14</v>
+      </c>
+      <c r="K61" s="26" t="s">
+        <v>14</v>
+      </c>
+      <c r="L61" s="23"/>
+      <c r="M61" s="27" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="62" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="B62" s="15" t="s">
         <v>72</v>
       </c>
-      <c r="C61" s="30" t="s">
-        <v>195</v>
-      </c>
-      <c r="D61" s="9" t="s">
+      <c r="C62" s="30" t="s">
+        <v>194</v>
+      </c>
+      <c r="D62" s="9" t="s">
         <v>53</v>
       </c>
-      <c r="E61" s="9" t="s">
-        <v>43</v>
-      </c>
-      <c r="F61" s="9"/>
-      <c r="G61" s="9"/>
-      <c r="H61" s="10"/>
-      <c r="I61" s="26" t="s">
-        <v>14</v>
-      </c>
-      <c r="J61" s="26" t="s">
-        <v>14</v>
-      </c>
-      <c r="K61" s="23"/>
-      <c r="L61" s="27" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="62" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="B62" s="15" t="s">
-        <v>73</v>
-      </c>
-      <c r="C62" s="30" t="s">
-        <v>195</v>
-      </c>
-      <c r="D62" s="9" t="s">
+      <c r="E62" s="9"/>
+      <c r="F62" s="9" t="s">
+        <v>42</v>
+      </c>
+      <c r="G62" s="9"/>
+      <c r="H62" s="9"/>
+      <c r="I62" s="10"/>
+      <c r="J62" s="26" t="s">
+        <v>14</v>
+      </c>
+      <c r="K62" s="26" t="s">
+        <v>14</v>
+      </c>
+      <c r="L62" s="23"/>
+      <c r="M62" s="27" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="63" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="B63" s="20" t="s">
+        <v>75</v>
+      </c>
+      <c r="C63" s="87" t="s">
+        <v>192</v>
+      </c>
+      <c r="D63" s="12" t="s">
         <v>54</v>
       </c>
-      <c r="E62" s="9" t="s">
-        <v>43</v>
-      </c>
-      <c r="F62" s="9"/>
-      <c r="G62" s="9"/>
-      <c r="H62" s="10"/>
-      <c r="I62" s="26" t="s">
-        <v>14</v>
-      </c>
-      <c r="J62" s="26" t="s">
-        <v>14</v>
-      </c>
-      <c r="K62" s="23"/>
-      <c r="L62" s="27" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="63" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="B63" s="20" t="s">
-        <v>76</v>
-      </c>
-      <c r="C63" s="87" t="s">
-        <v>193</v>
-      </c>
-      <c r="D63" s="12" t="s">
-        <v>55</v>
-      </c>
-      <c r="E63" s="12" t="s">
-        <v>43</v>
-      </c>
-      <c r="F63" s="12"/>
+      <c r="E63" s="12"/>
+      <c r="F63" s="12" t="s">
+        <v>42</v>
+      </c>
       <c r="G63" s="12"/>
-      <c r="H63" s="21"/>
-      <c r="I63" s="21" t="s">
-        <v>20</v>
-      </c>
+      <c r="H63" s="12"/>
+      <c r="I63" s="21"/>
       <c r="J63" s="21" t="s">
         <v>20</v>
       </c>
-      <c r="K63" s="51"/>
-      <c r="L63" s="28" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="64" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="K63" s="21" t="s">
+        <v>20</v>
+      </c>
+      <c r="L63" s="51"/>
+      <c r="M63" s="28" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="64" spans="1:14" x14ac:dyDescent="0.35">
       <c r="B64" s="20" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C64" s="87" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="D64" s="12" t="s">
-        <v>56</v>
-      </c>
-      <c r="E64" s="12" t="s">
-        <v>43</v>
-      </c>
-      <c r="F64" s="12"/>
+        <v>55</v>
+      </c>
+      <c r="E64" s="12"/>
+      <c r="F64" s="12" t="s">
+        <v>42</v>
+      </c>
       <c r="G64" s="12"/>
-      <c r="H64" s="21"/>
-      <c r="I64" s="21" t="s">
-        <v>20</v>
-      </c>
+      <c r="H64" s="12"/>
+      <c r="I64" s="21"/>
       <c r="J64" s="21" t="s">
         <v>20</v>
       </c>
-      <c r="K64" s="51"/>
-      <c r="L64" s="27" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="65" spans="2:12" x14ac:dyDescent="0.35">
+      <c r="K64" s="21" t="s">
+        <v>20</v>
+      </c>
+      <c r="L64" s="51"/>
+      <c r="M64" s="27" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="65" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B65" s="20" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C65" s="87" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="D65" s="12" t="s">
-        <v>57</v>
-      </c>
-      <c r="E65" s="12" t="s">
-        <v>43</v>
-      </c>
-      <c r="F65" s="12"/>
+        <v>56</v>
+      </c>
+      <c r="E65" s="12"/>
+      <c r="F65" s="12" t="s">
+        <v>42</v>
+      </c>
       <c r="G65" s="12"/>
-      <c r="H65" s="21"/>
-      <c r="I65" s="21" t="s">
-        <v>20</v>
-      </c>
+      <c r="H65" s="12"/>
+      <c r="I65" s="21"/>
       <c r="J65" s="21" t="s">
         <v>20</v>
       </c>
-      <c r="K65" s="51"/>
-      <c r="L65" s="27" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="66" spans="2:12" x14ac:dyDescent="0.35">
+      <c r="K65" s="21" t="s">
+        <v>20</v>
+      </c>
+      <c r="L65" s="51"/>
+      <c r="M65" s="27" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="66" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B66" s="20" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C66" s="87" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="D66" s="12" t="s">
-        <v>58</v>
-      </c>
-      <c r="E66" s="12" t="s">
-        <v>43</v>
-      </c>
-      <c r="F66" s="12"/>
+        <v>57</v>
+      </c>
+      <c r="E66" s="12"/>
+      <c r="F66" s="12" t="s">
+        <v>42</v>
+      </c>
       <c r="G66" s="12"/>
-      <c r="H66" s="21"/>
-      <c r="I66" s="21" t="s">
-        <v>20</v>
-      </c>
+      <c r="H66" s="12"/>
+      <c r="I66" s="21"/>
       <c r="J66" s="21" t="s">
         <v>20</v>
       </c>
-      <c r="K66" s="51"/>
-      <c r="L66" s="27" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="67" spans="2:12" x14ac:dyDescent="0.35">
+      <c r="K66" s="21" t="s">
+        <v>20</v>
+      </c>
+      <c r="L66" s="51"/>
+      <c r="M66" s="27" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="67" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B67" s="20" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C67" s="87" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="D67" s="12" t="s">
-        <v>59</v>
-      </c>
-      <c r="E67" s="12" t="s">
-        <v>43</v>
-      </c>
-      <c r="F67" s="12"/>
+        <v>58</v>
+      </c>
+      <c r="E67" s="12"/>
+      <c r="F67" s="12" t="s">
+        <v>42</v>
+      </c>
       <c r="G67" s="12"/>
-      <c r="H67" s="21"/>
-      <c r="I67" s="21" t="s">
-        <v>20</v>
-      </c>
+      <c r="H67" s="12"/>
+      <c r="I67" s="21"/>
       <c r="J67" s="21" t="s">
         <v>20</v>
       </c>
-      <c r="K67" s="51"/>
-      <c r="L67" s="43" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="68" spans="2:12" x14ac:dyDescent="0.35">
+      <c r="K67" s="21" t="s">
+        <v>20</v>
+      </c>
+      <c r="L67" s="51"/>
+      <c r="M67" s="43" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="68" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B68" s="20" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C68" s="87"/>
       <c r="D68" s="12" t="s">
-        <v>60</v>
-      </c>
-      <c r="E68" s="12" t="s">
-        <v>43</v>
-      </c>
-      <c r="F68" s="12"/>
+        <v>59</v>
+      </c>
+      <c r="E68" s="12"/>
+      <c r="F68" s="12" t="s">
+        <v>42</v>
+      </c>
       <c r="G68" s="12"/>
-      <c r="H68" s="21"/>
-      <c r="I68" s="21" t="s">
-        <v>14</v>
-      </c>
+      <c r="H68" s="12"/>
+      <c r="I68" s="21"/>
       <c r="J68" s="21" t="s">
         <v>14</v>
       </c>
-      <c r="K68" s="23"/>
-      <c r="L68" s="50" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="69" spans="2:12" x14ac:dyDescent="0.35">
+      <c r="K68" s="21" t="s">
+        <v>14</v>
+      </c>
+      <c r="L68" s="23"/>
+      <c r="M68" s="50" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="69" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B69" s="20" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C69" s="87"/>
       <c r="D69" s="12" t="s">
-        <v>61</v>
-      </c>
-      <c r="E69" s="12" t="s">
-        <v>43</v>
-      </c>
-      <c r="F69" s="12"/>
+        <v>60</v>
+      </c>
+      <c r="E69" s="12"/>
+      <c r="F69" s="12" t="s">
+        <v>42</v>
+      </c>
       <c r="G69" s="12"/>
-      <c r="H69" s="21"/>
-      <c r="I69" s="21" t="s">
-        <v>64</v>
-      </c>
+      <c r="H69" s="12"/>
+      <c r="I69" s="21"/>
       <c r="J69" s="21" t="s">
-        <v>64</v>
-      </c>
-      <c r="K69" s="23"/>
-      <c r="L69" s="50" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="70" spans="2:12" x14ac:dyDescent="0.35">
+        <v>63</v>
+      </c>
+      <c r="K69" s="21" t="s">
+        <v>63</v>
+      </c>
+      <c r="L69" s="23"/>
+      <c r="M69" s="50" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="70" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B70" s="20" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C70" s="87"/>
       <c r="D70" s="12" t="s">
-        <v>62</v>
-      </c>
-      <c r="E70" s="12" t="s">
-        <v>43</v>
-      </c>
-      <c r="F70" s="12"/>
+        <v>61</v>
+      </c>
+      <c r="E70" s="12"/>
+      <c r="F70" s="12" t="s">
+        <v>42</v>
+      </c>
       <c r="G70" s="12"/>
-      <c r="H70" s="21"/>
-      <c r="I70" s="21" t="s">
-        <v>64</v>
-      </c>
+      <c r="H70" s="12"/>
+      <c r="I70" s="21"/>
       <c r="J70" s="21" t="s">
-        <v>64</v>
-      </c>
-      <c r="K70" s="23"/>
-      <c r="L70" s="50" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="71" spans="2:12" x14ac:dyDescent="0.35">
+        <v>63</v>
+      </c>
+      <c r="K70" s="21" t="s">
+        <v>63</v>
+      </c>
+      <c r="L70" s="23"/>
+      <c r="M70" s="50" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="71" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B71" s="20" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C71" s="87"/>
       <c r="D71" s="22" t="s">
+        <v>62</v>
+      </c>
+      <c r="E71" s="22"/>
+      <c r="F71" s="12" t="s">
+        <v>42</v>
+      </c>
+      <c r="G71" s="12"/>
+      <c r="H71" s="12"/>
+      <c r="I71" s="21"/>
+      <c r="J71" s="21" t="s">
         <v>63</v>
       </c>
-      <c r="E71" s="12" t="s">
-        <v>43</v>
-      </c>
-      <c r="F71" s="12"/>
-      <c r="G71" s="12"/>
-      <c r="H71" s="21"/>
-      <c r="I71" s="21" t="s">
-        <v>64</v>
-      </c>
-      <c r="J71" s="21" t="s">
-        <v>64</v>
-      </c>
-      <c r="K71" s="23"/>
-      <c r="L71" s="50" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="72" spans="2:12" x14ac:dyDescent="0.35">
+      <c r="K71" s="21" t="s">
+        <v>63</v>
+      </c>
+      <c r="L71" s="23"/>
+      <c r="M71" s="50" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="72" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B72" s="31" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="C72" s="30"/>
       <c r="D72" s="26" t="s">
-        <v>94</v>
-      </c>
-      <c r="E72" s="12" t="s">
-        <v>43</v>
-      </c>
-      <c r="F72" s="12"/>
+        <v>93</v>
+      </c>
+      <c r="E72" s="26"/>
+      <c r="F72" s="12" t="s">
+        <v>42</v>
+      </c>
       <c r="G72" s="12"/>
-      <c r="H72" s="32"/>
-      <c r="I72" s="41" t="s">
-        <v>64</v>
-      </c>
-      <c r="J72" s="21"/>
-      <c r="K72" s="23"/>
-      <c r="L72" s="7" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="73" spans="2:12" x14ac:dyDescent="0.35">
+      <c r="H72" s="12"/>
+      <c r="I72" s="32"/>
+      <c r="J72" s="41" t="s">
+        <v>63</v>
+      </c>
+      <c r="K72" s="21"/>
+      <c r="L72" s="23"/>
+      <c r="M72" s="7" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="73" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B73" s="31" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C73" s="30"/>
       <c r="D73" s="26" t="s">
-        <v>93</v>
-      </c>
-      <c r="E73" s="12" t="s">
-        <v>43</v>
-      </c>
-      <c r="F73" s="12"/>
+        <v>92</v>
+      </c>
+      <c r="E73" s="26"/>
+      <c r="F73" s="12" t="s">
+        <v>42</v>
+      </c>
       <c r="G73" s="12"/>
-      <c r="H73" s="32"/>
-      <c r="I73" s="41" t="s">
-        <v>64</v>
-      </c>
-      <c r="J73" s="21"/>
-      <c r="K73" s="23"/>
-      <c r="L73" s="7" t="s">
-        <v>196</v>
-      </c>
-    </row>
-    <row r="74" spans="2:12" x14ac:dyDescent="0.35">
+      <c r="H73" s="12"/>
+      <c r="I73" s="32"/>
+      <c r="J73" s="41" t="s">
+        <v>63</v>
+      </c>
+      <c r="K73" s="21"/>
+      <c r="L73" s="23"/>
+      <c r="M73" s="7" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="74" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B74" s="44" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="C74" s="30"/>
       <c r="D74" s="39" t="s">
-        <v>137</v>
-      </c>
-      <c r="E74" s="12" t="s">
-        <v>43</v>
-      </c>
-      <c r="F74" s="32"/>
+        <v>136</v>
+      </c>
+      <c r="E74" s="39"/>
+      <c r="F74" s="12" t="s">
+        <v>42</v>
+      </c>
       <c r="G74" s="32"/>
       <c r="H74" s="32"/>
-      <c r="I74" s="41" t="s">
-        <v>140</v>
-      </c>
-      <c r="J74" s="45"/>
-      <c r="K74" s="51"/>
-      <c r="L74" s="39" t="s">
+      <c r="I74" s="32"/>
+      <c r="J74" s="41" t="s">
         <v>139</v>
       </c>
+      <c r="K74" s="45"/>
+      <c r="L74" s="51"/>
+      <c r="M74" s="39" t="s">
+        <v>138</v>
+      </c>
     </row>
   </sheetData>
-  <autoFilter ref="A5:L74"/>
+  <autoFilter ref="A5:M74"/>
   <mergeCells count="6">
-    <mergeCell ref="B3:L3"/>
-    <mergeCell ref="H9:H13"/>
+    <mergeCell ref="B3:M3"/>
     <mergeCell ref="I9:I13"/>
     <mergeCell ref="J9:J13"/>
+    <mergeCell ref="K9:K13"/>
     <mergeCell ref="B10:B11"/>
-    <mergeCell ref="L10:L11"/>
+    <mergeCell ref="M10:M11"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" scale="54" fitToHeight="0" orientation="landscape" r:id="rId1"/>
